--- a/Results/Profit Ctab SBAV R50.xlsx
+++ b/Results/Profit Ctab SBAV R50.xlsx
@@ -759,184 +759,184 @@
         </is>
       </c>
       <c r="B2">
-        <v>-9643.48</v>
+        <v>-7182.85</v>
       </c>
       <c r="C2">
-        <v>-9810.04</v>
+        <v>-7349.4</v>
       </c>
       <c r="D2">
-        <v>-10121.51</v>
+        <v>-7660.87</v>
       </c>
       <c r="E2">
-        <v>-9476.87</v>
+        <v>-7016.23</v>
       </c>
       <c r="F2">
-        <v>-9599.08</v>
+        <v>-7138.44</v>
       </c>
       <c r="G2">
-        <v>-9721.29</v>
+        <v>-7260.65</v>
       </c>
       <c r="H2">
-        <v>-8144.14</v>
+        <v>-5683.5</v>
       </c>
       <c r="I2">
-        <v>-8643.8</v>
+        <v>-6183.16</v>
       </c>
       <c r="J2">
-        <v>-9578.22</v>
+        <v>-7117.58</v>
       </c>
       <c r="K2">
-        <v>-7644.7</v>
+        <v>-5184.07</v>
       </c>
       <c r="L2">
-        <v>-8011.34</v>
+        <v>-5550.7</v>
       </c>
       <c r="M2">
-        <v>-8377.97</v>
+        <v>-5917.33</v>
       </c>
       <c r="N2">
-        <v>-7395.47</v>
+        <v>-4934.83</v>
       </c>
       <c r="O2">
-        <v>-8061.68</v>
+        <v>-5601.04</v>
       </c>
       <c r="P2">
-        <v>-9307.57</v>
+        <v>-6846.94</v>
       </c>
       <c r="Q2">
-        <v>-6728.67</v>
+        <v>-4268.03</v>
       </c>
       <c r="R2">
-        <v>-7217.51</v>
+        <v>-4756.87</v>
       </c>
       <c r="S2">
-        <v>-7706.35</v>
+        <v>-5245.71</v>
       </c>
       <c r="T2">
-        <v>-5897.29</v>
+        <v>-3436.65</v>
       </c>
       <c r="U2">
-        <v>-6896.6</v>
+        <v>-4435.97</v>
       </c>
       <c r="V2">
-        <v>-8765.45</v>
+        <v>-6304.81</v>
       </c>
       <c r="W2">
-        <v>-4897.39</v>
+        <v>-2436.76</v>
       </c>
       <c r="X2">
-        <v>-5630.66</v>
+        <v>-3170.02</v>
       </c>
       <c r="Y2">
-        <v>-6363.92</v>
+        <v>-3903.28</v>
       </c>
       <c r="Z2">
-        <v>-5147.92</v>
+        <v>-2687.28</v>
       </c>
       <c r="AA2">
-        <v>-6313.79</v>
+        <v>-3853.15</v>
       </c>
       <c r="AB2">
-        <v>-8494.1</v>
+        <v>-6033.46</v>
       </c>
       <c r="AC2">
-        <v>-3981.41</v>
+        <v>-1520.77</v>
       </c>
       <c r="AD2">
-        <v>-4836.88</v>
+        <v>-2376.24</v>
       </c>
       <c r="AE2">
-        <v>-5692.35</v>
+        <v>-3231.71</v>
       </c>
       <c r="AF2">
-        <v>-3649.09</v>
+        <v>-1188.45</v>
       </c>
       <c r="AG2">
-        <v>-5148.06</v>
+        <v>-2687.42</v>
       </c>
       <c r="AH2">
-        <v>-7951.32</v>
+        <v>-5490.68</v>
       </c>
       <c r="AI2">
-        <v>-2149.53</v>
+        <v>311.11</v>
       </c>
       <c r="AJ2">
-        <v>-3249.42</v>
+        <v>-788.78</v>
       </c>
       <c r="AK2">
-        <v>-4349.31</v>
+        <v>-1888.67</v>
       </c>
       <c r="AL2">
-        <v>-2899.72</v>
+        <v>-439.08</v>
       </c>
       <c r="AM2">
-        <v>-4565.24</v>
+        <v>-2104.6</v>
       </c>
       <c r="AN2">
-        <v>-7679.98</v>
+        <v>-5219.34</v>
       </c>
       <c r="AO2">
-        <v>-1233.54</v>
+        <v>1227.1</v>
       </c>
       <c r="AP2">
-        <v>-2455.64</v>
+        <v>5</v>
       </c>
       <c r="AQ2">
-        <v>-3677.74</v>
+        <v>-1217.1</v>
       </c>
       <c r="AR2">
-        <v>-1400.94</v>
+        <v>1059.7</v>
       </c>
       <c r="AS2">
-        <v>-3399.56</v>
+        <v>-938.92</v>
       </c>
       <c r="AT2">
-        <v>-7137.25</v>
+        <v>-4676.61</v>
       </c>
       <c r="AU2">
-        <v>598.39</v>
+        <v>3059.03</v>
       </c>
       <c r="AV2">
-        <v>-868.13</v>
+        <v>1592.51</v>
       </c>
       <c r="AW2">
-        <v>-2334.65</v>
+        <v>125.98</v>
       </c>
       <c r="AX2">
-        <v>-651.52</v>
+        <v>1809.12</v>
       </c>
       <c r="AY2">
-        <v>-2816.7</v>
+        <v>-356.06</v>
       </c>
       <c r="AZ2">
-        <v>-6865.86</v>
+        <v>-4405.22</v>
       </c>
       <c r="BA2">
-        <v>1514.33</v>
+        <v>3974.97</v>
       </c>
       <c r="BB2">
-        <v>-74.4</v>
+        <v>2386.24</v>
       </c>
       <c r="BC2">
-        <v>-1663.13</v>
+        <v>797.51</v>
       </c>
       <c r="BD2">
-        <v>847.22</v>
+        <v>3307.85</v>
       </c>
       <c r="BE2">
-        <v>-1651.06</v>
+        <v>809.57</v>
       </c>
       <c r="BF2">
-        <v>-6323.17</v>
+        <v>-3862.53</v>
       </c>
       <c r="BG2">
-        <v>3346.21</v>
+        <v>5806.85</v>
       </c>
       <c r="BH2">
-        <v>1513.06</v>
+        <v>3973.7</v>
       </c>
       <c r="BI2">
-        <v>-320.09</v>
+        <v>2140.55</v>
       </c>
     </row>
     <row r="3">
@@ -946,184 +946,184 @@
         </is>
       </c>
       <c r="B3">
-        <v>-5030.98</v>
+        <v>-2568.85</v>
       </c>
       <c r="C3">
-        <v>-5197.54</v>
+        <v>-2735.4</v>
       </c>
       <c r="D3">
-        <v>-5509.01</v>
+        <v>-3046.87</v>
       </c>
       <c r="E3">
-        <v>-4864.37</v>
+        <v>-2402.23</v>
       </c>
       <c r="F3">
-        <v>-4986.58</v>
+        <v>-2524.44</v>
       </c>
       <c r="G3">
-        <v>-5108.79</v>
+        <v>-2646.65</v>
       </c>
       <c r="H3">
-        <v>-3531.64</v>
+        <v>-1069.5</v>
       </c>
       <c r="I3">
-        <v>-4031.3</v>
+        <v>-1569.16</v>
       </c>
       <c r="J3">
-        <v>-4965.72</v>
+        <v>-2503.58</v>
       </c>
       <c r="K3">
-        <v>-3032.2</v>
+        <v>-570.07</v>
       </c>
       <c r="L3">
-        <v>-3398.84</v>
+        <v>-936.7</v>
       </c>
       <c r="M3">
-        <v>-3765.47</v>
+        <v>-1303.33</v>
       </c>
       <c r="N3">
-        <v>-2782.97</v>
+        <v>-320.83</v>
       </c>
       <c r="O3">
-        <v>-3449.18</v>
+        <v>-987.04</v>
       </c>
       <c r="P3">
-        <v>-4695.07</v>
+        <v>-2232.94</v>
       </c>
       <c r="Q3">
-        <v>-2116.17</v>
+        <v>345.97</v>
       </c>
       <c r="R3">
-        <v>-2605.01</v>
+        <v>-142.87</v>
       </c>
       <c r="S3">
-        <v>-3093.85</v>
+        <v>-631.71</v>
       </c>
       <c r="T3">
-        <v>-1284.79</v>
+        <v>1177.35</v>
       </c>
       <c r="U3">
-        <v>-2284.1</v>
+        <v>178.03</v>
       </c>
       <c r="V3">
-        <v>-4152.95</v>
+        <v>-1690.81</v>
       </c>
       <c r="W3">
-        <v>-284.89</v>
+        <v>2177.24</v>
       </c>
       <c r="X3">
-        <v>-1018.16</v>
+        <v>1443.98</v>
       </c>
       <c r="Y3">
-        <v>-1751.42</v>
+        <v>710.72</v>
       </c>
       <c r="Z3">
-        <v>-535.42</v>
+        <v>1926.72</v>
       </c>
       <c r="AA3">
-        <v>-1701.29</v>
+        <v>760.85</v>
       </c>
       <c r="AB3">
-        <v>-3881.6</v>
+        <v>-1419.46</v>
       </c>
       <c r="AC3">
-        <v>631.09</v>
+        <v>3093.23</v>
       </c>
       <c r="AD3">
-        <v>-224.38</v>
+        <v>2237.76</v>
       </c>
       <c r="AE3">
-        <v>-1079.85</v>
+        <v>1382.29</v>
       </c>
       <c r="AF3">
-        <v>963.41</v>
+        <v>3425.55</v>
       </c>
       <c r="AG3">
-        <v>-535.56</v>
+        <v>1926.58</v>
       </c>
       <c r="AH3">
-        <v>-3338.82</v>
+        <v>-876.68</v>
       </c>
       <c r="AI3">
-        <v>2462.97</v>
+        <v>4925.11</v>
       </c>
       <c r="AJ3">
-        <v>1363.08</v>
+        <v>3825.22</v>
       </c>
       <c r="AK3">
-        <v>263.19</v>
+        <v>2725.33</v>
       </c>
       <c r="AL3">
-        <v>1712.78</v>
+        <v>4174.92</v>
       </c>
       <c r="AM3">
-        <v>47.26</v>
+        <v>2509.4</v>
       </c>
       <c r="AN3">
-        <v>-3067.48</v>
+        <v>-605.34</v>
       </c>
       <c r="AO3">
-        <v>3378.96</v>
+        <v>5841.1</v>
       </c>
       <c r="AP3">
-        <v>2156.86</v>
+        <v>4619</v>
       </c>
       <c r="AQ3">
-        <v>934.76</v>
+        <v>3396.9</v>
       </c>
       <c r="AR3">
-        <v>3211.56</v>
+        <v>5673.7</v>
       </c>
       <c r="AS3">
-        <v>1212.94</v>
+        <v>3675.08</v>
       </c>
       <c r="AT3">
-        <v>-2524.75</v>
+        <v>-62.61</v>
       </c>
       <c r="AU3">
-        <v>5210.89</v>
+        <v>7673.03</v>
       </c>
       <c r="AV3">
-        <v>3744.37</v>
+        <v>6206.51</v>
       </c>
       <c r="AW3">
-        <v>2277.85</v>
+        <v>4739.98</v>
       </c>
       <c r="AX3">
-        <v>3960.98</v>
+        <v>6423.12</v>
       </c>
       <c r="AY3">
-        <v>1795.8</v>
+        <v>4257.94</v>
       </c>
       <c r="AZ3">
-        <v>-2253.36</v>
+        <v>208.78</v>
       </c>
       <c r="BA3">
-        <v>6126.83</v>
+        <v>8588.97</v>
       </c>
       <c r="BB3">
-        <v>4538.1</v>
+        <v>7000.24</v>
       </c>
       <c r="BC3">
-        <v>2949.37</v>
+        <v>5411.51</v>
       </c>
       <c r="BD3">
-        <v>5459.72</v>
+        <v>7921.85</v>
       </c>
       <c r="BE3">
-        <v>2961.44</v>
+        <v>5423.57</v>
       </c>
       <c r="BF3">
-        <v>-1710.67</v>
+        <v>751.47</v>
       </c>
       <c r="BG3">
-        <v>7958.71</v>
+        <v>10420.85</v>
       </c>
       <c r="BH3">
-        <v>6125.56</v>
+        <v>8587.7</v>
       </c>
       <c r="BI3">
-        <v>4292.41</v>
+        <v>6754.55</v>
       </c>
     </row>
     <row r="4">
@@ -1133,184 +1133,184 @@
         </is>
       </c>
       <c r="B4">
-        <v>-418.48</v>
+        <v>2045.15</v>
       </c>
       <c r="C4">
-        <v>-585.04</v>
+        <v>1878.6</v>
       </c>
       <c r="D4">
-        <v>-896.51</v>
+        <v>1567.13</v>
       </c>
       <c r="E4">
-        <v>-251.87</v>
+        <v>2211.77</v>
       </c>
       <c r="F4">
-        <v>-374.08</v>
+        <v>2089.56</v>
       </c>
       <c r="G4">
-        <v>-496.29</v>
+        <v>1967.35</v>
       </c>
       <c r="H4">
-        <v>1080.86</v>
+        <v>3544.5</v>
       </c>
       <c r="I4">
-        <v>581.2</v>
+        <v>3044.84</v>
       </c>
       <c r="J4">
-        <v>-353.22</v>
+        <v>2110.42</v>
       </c>
       <c r="K4">
-        <v>1580.3</v>
+        <v>4043.93</v>
       </c>
       <c r="L4">
-        <v>1213.66</v>
+        <v>3677.3</v>
       </c>
       <c r="M4">
-        <v>847.03</v>
+        <v>3310.67</v>
       </c>
       <c r="N4">
-        <v>1829.53</v>
+        <v>4293.17</v>
       </c>
       <c r="O4">
-        <v>1163.32</v>
+        <v>3626.96</v>
       </c>
       <c r="P4">
-        <v>-82.57</v>
+        <v>2381.06</v>
       </c>
       <c r="Q4">
-        <v>2496.33</v>
+        <v>4959.97</v>
       </c>
       <c r="R4">
-        <v>2007.49</v>
+        <v>4471.13</v>
       </c>
       <c r="S4">
-        <v>1518.65</v>
+        <v>3982.29</v>
       </c>
       <c r="T4">
-        <v>3327.71</v>
+        <v>5791.35</v>
       </c>
       <c r="U4">
-        <v>2328.4</v>
+        <v>4792.03</v>
       </c>
       <c r="V4">
-        <v>459.55</v>
+        <v>2923.19</v>
       </c>
       <c r="W4">
-        <v>4327.61</v>
+        <v>6791.24</v>
       </c>
       <c r="X4">
-        <v>3594.34</v>
+        <v>6057.98</v>
       </c>
       <c r="Y4">
-        <v>2861.08</v>
+        <v>5324.72</v>
       </c>
       <c r="Z4">
-        <v>4077.08</v>
+        <v>6540.72</v>
       </c>
       <c r="AA4">
-        <v>2911.21</v>
+        <v>5374.85</v>
       </c>
       <c r="AB4">
-        <v>730.9</v>
+        <v>3194.54</v>
       </c>
       <c r="AC4">
-        <v>5243.59</v>
+        <v>7707.23</v>
       </c>
       <c r="AD4">
-        <v>4388.12</v>
+        <v>6851.76</v>
       </c>
       <c r="AE4">
-        <v>3532.65</v>
+        <v>5996.29</v>
       </c>
       <c r="AF4">
-        <v>5575.91</v>
+        <v>8039.55</v>
       </c>
       <c r="AG4">
-        <v>4076.94</v>
+        <v>6540.58</v>
       </c>
       <c r="AH4">
-        <v>1273.68</v>
+        <v>3737.32</v>
       </c>
       <c r="AI4">
-        <v>7075.47</v>
+        <v>9539.11</v>
       </c>
       <c r="AJ4">
-        <v>5975.58</v>
+        <v>8439.22</v>
       </c>
       <c r="AK4">
-        <v>4875.69</v>
+        <v>7339.33</v>
       </c>
       <c r="AL4">
-        <v>6325.28</v>
+        <v>8788.92</v>
       </c>
       <c r="AM4">
-        <v>4659.76</v>
+        <v>7123.4</v>
       </c>
       <c r="AN4">
-        <v>1545.02</v>
+        <v>4008.66</v>
       </c>
       <c r="AO4">
-        <v>7991.46</v>
+        <v>10455.1</v>
       </c>
       <c r="AP4">
-        <v>6769.36</v>
+        <v>9233</v>
       </c>
       <c r="AQ4">
-        <v>5547.26</v>
+        <v>8010.9</v>
       </c>
       <c r="AR4">
-        <v>7824.06</v>
+        <v>10287.7</v>
       </c>
       <c r="AS4">
-        <v>5825.44</v>
+        <v>8289.08</v>
       </c>
       <c r="AT4">
-        <v>2087.75</v>
+        <v>4551.39</v>
       </c>
       <c r="AU4">
-        <v>9823.39</v>
+        <v>12287.03</v>
       </c>
       <c r="AV4">
-        <v>8356.87</v>
+        <v>10820.51</v>
       </c>
       <c r="AW4">
-        <v>6890.35</v>
+        <v>9353.98</v>
       </c>
       <c r="AX4">
-        <v>8573.48</v>
+        <v>11037.12</v>
       </c>
       <c r="AY4">
-        <v>6408.3</v>
+        <v>8871.94</v>
       </c>
       <c r="AZ4">
-        <v>2359.14</v>
+        <v>4822.78</v>
       </c>
       <c r="BA4">
-        <v>10739.33</v>
+        <v>13202.97</v>
       </c>
       <c r="BB4">
-        <v>9150.6</v>
+        <v>11614.24</v>
       </c>
       <c r="BC4">
-        <v>7561.87</v>
+        <v>10025.51</v>
       </c>
       <c r="BD4">
-        <v>10072.22</v>
+        <v>12535.85</v>
       </c>
       <c r="BE4">
-        <v>7573.94</v>
+        <v>10037.57</v>
       </c>
       <c r="BF4">
-        <v>2901.83</v>
+        <v>5365.47</v>
       </c>
       <c r="BG4">
-        <v>12571.21</v>
+        <v>15034.85</v>
       </c>
       <c r="BH4">
-        <v>10738.06</v>
+        <v>13201.7</v>
       </c>
       <c r="BI4">
-        <v>8904.91</v>
+        <v>11368.55</v>
       </c>
     </row>
     <row r="5">
@@ -1320,184 +1320,184 @@
         </is>
       </c>
       <c r="B5">
-        <v>-6759.21</v>
+        <v>-4299.51</v>
       </c>
       <c r="C5">
-        <v>-6925.76</v>
+        <v>-4466.06</v>
       </c>
       <c r="D5">
-        <v>-7237.24</v>
+        <v>-4777.54</v>
       </c>
       <c r="E5">
-        <v>-6592.59</v>
+        <v>-4132.89</v>
       </c>
       <c r="F5">
-        <v>-6714.8</v>
+        <v>-4255.1</v>
       </c>
       <c r="G5">
-        <v>-6837.01</v>
+        <v>-4377.31</v>
       </c>
       <c r="H5">
-        <v>-5259.87</v>
+        <v>-2800.17</v>
       </c>
       <c r="I5">
-        <v>-5759.52</v>
+        <v>-3299.82</v>
       </c>
       <c r="J5">
-        <v>-6693.94</v>
+        <v>-4234.24</v>
       </c>
       <c r="K5">
-        <v>-4760.43</v>
+        <v>-2300.73</v>
       </c>
       <c r="L5">
-        <v>-5127.06</v>
+        <v>-2667.36</v>
       </c>
       <c r="M5">
-        <v>-5493.69</v>
+        <v>-3033.99</v>
       </c>
       <c r="N5">
-        <v>-4511.2</v>
+        <v>-2051.5</v>
       </c>
       <c r="O5">
-        <v>-5177.4</v>
+        <v>-2717.7</v>
       </c>
       <c r="P5">
-        <v>-6423.3</v>
+        <v>-3963.6</v>
       </c>
       <c r="Q5">
-        <v>-3844.4</v>
+        <v>-1384.7</v>
       </c>
       <c r="R5">
-        <v>-4333.24</v>
+        <v>-1873.54</v>
       </c>
       <c r="S5">
-        <v>-4822.08</v>
+        <v>-2362.38</v>
       </c>
       <c r="T5">
-        <v>-3013.02</v>
+        <v>-553.32</v>
       </c>
       <c r="U5">
-        <v>-4012.33</v>
+        <v>-1552.63</v>
       </c>
       <c r="V5">
-        <v>-5881.17</v>
+        <v>-3421.47</v>
       </c>
       <c r="W5">
-        <v>-2013.12</v>
+        <v>446.58</v>
       </c>
       <c r="X5">
-        <v>-2746.38</v>
+        <v>-286.68</v>
       </c>
       <c r="Y5">
-        <v>-3479.64</v>
+        <v>-1019.94</v>
       </c>
       <c r="Z5">
-        <v>-2263.65</v>
+        <v>196.05</v>
       </c>
       <c r="AA5">
-        <v>-3429.51</v>
+        <v>-969.81</v>
       </c>
       <c r="AB5">
-        <v>-5609.83</v>
+        <v>-3150.13</v>
       </c>
       <c r="AC5">
-        <v>-1097.13</v>
+        <v>1362.57</v>
       </c>
       <c r="AD5">
-        <v>-1952.6</v>
+        <v>507.1</v>
       </c>
       <c r="AE5">
-        <v>-2808.07</v>
+        <v>-348.37</v>
       </c>
       <c r="AF5">
-        <v>-764.82</v>
+        <v>1694.88</v>
       </c>
       <c r="AG5">
-        <v>-2263.78</v>
+        <v>195.92</v>
       </c>
       <c r="AH5">
-        <v>-5067.05</v>
+        <v>-2607.35</v>
       </c>
       <c r="AI5">
-        <v>734.75</v>
+        <v>3194.45</v>
       </c>
       <c r="AJ5">
-        <v>-365.14</v>
+        <v>2094.56</v>
       </c>
       <c r="AK5">
-        <v>-1465.03</v>
+        <v>994.67</v>
       </c>
       <c r="AL5">
-        <v>-15.45</v>
+        <v>2444.25</v>
       </c>
       <c r="AM5">
-        <v>-1680.97</v>
+        <v>778.73</v>
       </c>
       <c r="AN5">
-        <v>-4795.7</v>
+        <v>-2336</v>
       </c>
       <c r="AO5">
-        <v>1650.74</v>
+        <v>4110.44</v>
       </c>
       <c r="AP5">
-        <v>428.64</v>
+        <v>2888.34</v>
       </c>
       <c r="AQ5">
-        <v>-793.47</v>
+        <v>1666.23</v>
       </c>
       <c r="AR5">
-        <v>1483.34</v>
+        <v>3943.04</v>
       </c>
       <c r="AS5">
-        <v>-515.29</v>
+        <v>1944.41</v>
       </c>
       <c r="AT5">
-        <v>-4252.97</v>
+        <v>-1793.27</v>
       </c>
       <c r="AU5">
-        <v>3482.67</v>
+        <v>5942.37</v>
       </c>
       <c r="AV5">
-        <v>2016.14</v>
+        <v>4475.84</v>
       </c>
       <c r="AW5">
-        <v>549.62</v>
+        <v>3009.32</v>
       </c>
       <c r="AX5">
-        <v>2232.75</v>
+        <v>4692.45</v>
       </c>
       <c r="AY5">
-        <v>67.58</v>
+        <v>2527.28</v>
       </c>
       <c r="AZ5">
-        <v>-3981.58</v>
+        <v>-1521.88</v>
       </c>
       <c r="BA5">
-        <v>4398.61</v>
+        <v>6858.31</v>
       </c>
       <c r="BB5">
-        <v>2809.87</v>
+        <v>5269.57</v>
       </c>
       <c r="BC5">
-        <v>1221.14</v>
+        <v>3680.84</v>
       </c>
       <c r="BD5">
-        <v>3731.49</v>
+        <v>6191.19</v>
       </c>
       <c r="BE5">
-        <v>1233.21</v>
+        <v>3692.91</v>
       </c>
       <c r="BF5">
-        <v>-3438.89</v>
+        <v>-979.19</v>
       </c>
       <c r="BG5">
-        <v>6230.49</v>
+        <v>8690.19</v>
       </c>
       <c r="BH5">
-        <v>4397.34</v>
+        <v>6857.04</v>
       </c>
       <c r="BI5">
-        <v>2564.18</v>
+        <v>5023.88</v>
       </c>
     </row>
     <row r="6">
@@ -1507,184 +1507,184 @@
         </is>
       </c>
       <c r="B6">
-        <v>2465.79</v>
+        <v>4925.49</v>
       </c>
       <c r="C6">
-        <v>2299.24</v>
+        <v>4758.94</v>
       </c>
       <c r="D6">
-        <v>1987.76</v>
+        <v>4447.46</v>
       </c>
       <c r="E6">
-        <v>2632.41</v>
+        <v>5092.11</v>
       </c>
       <c r="F6">
-        <v>2510.2</v>
+        <v>4969.9</v>
       </c>
       <c r="G6">
-        <v>2387.99</v>
+        <v>4847.69</v>
       </c>
       <c r="H6">
-        <v>3965.13</v>
+        <v>6424.83</v>
       </c>
       <c r="I6">
-        <v>3465.48</v>
+        <v>5925.18</v>
       </c>
       <c r="J6">
-        <v>2531.06</v>
+        <v>4990.76</v>
       </c>
       <c r="K6">
-        <v>4464.57</v>
+        <v>6924.27</v>
       </c>
       <c r="L6">
-        <v>4097.94</v>
+        <v>6557.64</v>
       </c>
       <c r="M6">
-        <v>3731.31</v>
+        <v>6191.01</v>
       </c>
       <c r="N6">
-        <v>4713.8</v>
+        <v>7173.5</v>
       </c>
       <c r="O6">
-        <v>4047.6</v>
+        <v>6507.3</v>
       </c>
       <c r="P6">
-        <v>2801.7</v>
+        <v>5261.4</v>
       </c>
       <c r="Q6">
-        <v>5380.6</v>
+        <v>7840.3</v>
       </c>
       <c r="R6">
-        <v>4891.76</v>
+        <v>7351.46</v>
       </c>
       <c r="S6">
-        <v>4402.92</v>
+        <v>6862.62</v>
       </c>
       <c r="T6">
-        <v>6211.98</v>
+        <v>8671.68</v>
       </c>
       <c r="U6">
-        <v>5212.67</v>
+        <v>7672.37</v>
       </c>
       <c r="V6">
-        <v>3343.83</v>
+        <v>5803.53</v>
       </c>
       <c r="W6">
-        <v>7211.88</v>
+        <v>9671.58</v>
       </c>
       <c r="X6">
-        <v>6478.62</v>
+        <v>8938.32</v>
       </c>
       <c r="Y6">
-        <v>5745.36</v>
+        <v>8205.06</v>
       </c>
       <c r="Z6">
-        <v>6961.35</v>
+        <v>9421.05</v>
       </c>
       <c r="AA6">
-        <v>5795.49</v>
+        <v>8255.19</v>
       </c>
       <c r="AB6">
-        <v>3615.17</v>
+        <v>6074.87</v>
       </c>
       <c r="AC6">
-        <v>8127.87</v>
+        <v>10587.57</v>
       </c>
       <c r="AD6">
-        <v>7272.4</v>
+        <v>9732.1</v>
       </c>
       <c r="AE6">
-        <v>6416.93</v>
+        <v>8876.63</v>
       </c>
       <c r="AF6">
-        <v>8460.18</v>
+        <v>10919.88</v>
       </c>
       <c r="AG6">
-        <v>6961.22</v>
+        <v>9420.92</v>
       </c>
       <c r="AH6">
-        <v>4157.95</v>
+        <v>6617.65</v>
       </c>
       <c r="AI6">
-        <v>9959.75</v>
+        <v>12419.45</v>
       </c>
       <c r="AJ6">
-        <v>8859.86</v>
+        <v>11319.56</v>
       </c>
       <c r="AK6">
-        <v>7759.97</v>
+        <v>10219.67</v>
       </c>
       <c r="AL6">
-        <v>9209.55</v>
+        <v>11669.25</v>
       </c>
       <c r="AM6">
-        <v>7544.03</v>
+        <v>10003.73</v>
       </c>
       <c r="AN6">
-        <v>4429.3</v>
+        <v>6889</v>
       </c>
       <c r="AO6">
-        <v>10875.74</v>
+        <v>13335.44</v>
       </c>
       <c r="AP6">
-        <v>9653.64</v>
+        <v>12113.34</v>
       </c>
       <c r="AQ6">
-        <v>8431.53</v>
+        <v>10891.23</v>
       </c>
       <c r="AR6">
-        <v>10708.34</v>
+        <v>13168.04</v>
       </c>
       <c r="AS6">
-        <v>8709.71</v>
+        <v>11169.41</v>
       </c>
       <c r="AT6">
-        <v>4972.03</v>
+        <v>7431.73</v>
       </c>
       <c r="AU6">
-        <v>12707.67</v>
+        <v>15167.37</v>
       </c>
       <c r="AV6">
-        <v>11241.14</v>
+        <v>13700.84</v>
       </c>
       <c r="AW6">
-        <v>9774.62</v>
+        <v>12234.32</v>
       </c>
       <c r="AX6">
-        <v>11457.75</v>
+        <v>13917.45</v>
       </c>
       <c r="AY6">
-        <v>9292.58</v>
+        <v>11752.28</v>
       </c>
       <c r="AZ6">
-        <v>5243.42</v>
+        <v>7703.12</v>
       </c>
       <c r="BA6">
-        <v>13623.61</v>
+        <v>16083.31</v>
       </c>
       <c r="BB6">
-        <v>12034.87</v>
+        <v>14494.57</v>
       </c>
       <c r="BC6">
-        <v>10446.14</v>
+        <v>12905.84</v>
       </c>
       <c r="BD6">
-        <v>12956.49</v>
+        <v>15416.19</v>
       </c>
       <c r="BE6">
-        <v>10458.21</v>
+        <v>12917.91</v>
       </c>
       <c r="BF6">
-        <v>5786.11</v>
+        <v>8245.81</v>
       </c>
       <c r="BG6">
-        <v>15455.49</v>
+        <v>17915.19</v>
       </c>
       <c r="BH6">
-        <v>13622.34</v>
+        <v>16082.04</v>
       </c>
       <c r="BI6">
-        <v>11789.18</v>
+        <v>14248.88</v>
       </c>
     </row>
     <row r="7">
@@ -1694,184 +1694,184 @@
         </is>
       </c>
       <c r="B7">
-        <v>11690.79</v>
+        <v>14150.49</v>
       </c>
       <c r="C7">
-        <v>11524.24</v>
+        <v>13983.94</v>
       </c>
       <c r="D7">
-        <v>11212.76</v>
+        <v>13672.46</v>
       </c>
       <c r="E7">
-        <v>11857.41</v>
+        <v>14317.11</v>
       </c>
       <c r="F7">
-        <v>11735.2</v>
+        <v>14194.9</v>
       </c>
       <c r="G7">
-        <v>11612.99</v>
+        <v>14072.69</v>
       </c>
       <c r="H7">
-        <v>13190.13</v>
+        <v>15649.83</v>
       </c>
       <c r="I7">
-        <v>12690.48</v>
+        <v>15150.18</v>
       </c>
       <c r="J7">
-        <v>11756.06</v>
+        <v>14215.76</v>
       </c>
       <c r="K7">
-        <v>13689.57</v>
+        <v>16149.27</v>
       </c>
       <c r="L7">
-        <v>13322.94</v>
+        <v>15782.64</v>
       </c>
       <c r="M7">
-        <v>12956.31</v>
+        <v>15416.01</v>
       </c>
       <c r="N7">
-        <v>13938.8</v>
+        <v>16398.5</v>
       </c>
       <c r="O7">
-        <v>13272.6</v>
+        <v>15732.3</v>
       </c>
       <c r="P7">
-        <v>12026.7</v>
+        <v>14486.4</v>
       </c>
       <c r="Q7">
-        <v>14605.6</v>
+        <v>17065.3</v>
       </c>
       <c r="R7">
-        <v>14116.76</v>
+        <v>16576.46</v>
       </c>
       <c r="S7">
-        <v>13627.92</v>
+        <v>16087.62</v>
       </c>
       <c r="T7">
-        <v>15436.98</v>
+        <v>17896.68</v>
       </c>
       <c r="U7">
-        <v>14437.67</v>
+        <v>16897.37</v>
       </c>
       <c r="V7">
-        <v>12568.83</v>
+        <v>15028.53</v>
       </c>
       <c r="W7">
-        <v>16436.88</v>
+        <v>18896.58</v>
       </c>
       <c r="X7">
-        <v>15703.62</v>
+        <v>18163.32</v>
       </c>
       <c r="Y7">
-        <v>14970.36</v>
+        <v>17430.06</v>
       </c>
       <c r="Z7">
-        <v>16186.35</v>
+        <v>18646.05</v>
       </c>
       <c r="AA7">
-        <v>15020.49</v>
+        <v>17480.19</v>
       </c>
       <c r="AB7">
-        <v>12840.17</v>
+        <v>15299.87</v>
       </c>
       <c r="AC7">
-        <v>17352.87</v>
+        <v>19812.57</v>
       </c>
       <c r="AD7">
-        <v>16497.4</v>
+        <v>18957.1</v>
       </c>
       <c r="AE7">
-        <v>15641.93</v>
+        <v>18101.63</v>
       </c>
       <c r="AF7">
-        <v>17685.18</v>
+        <v>20144.88</v>
       </c>
       <c r="AG7">
-        <v>16186.22</v>
+        <v>18645.92</v>
       </c>
       <c r="AH7">
-        <v>13382.95</v>
+        <v>15842.65</v>
       </c>
       <c r="AI7">
-        <v>19184.75</v>
+        <v>21644.45</v>
       </c>
       <c r="AJ7">
-        <v>18084.86</v>
+        <v>20544.56</v>
       </c>
       <c r="AK7">
-        <v>16984.97</v>
+        <v>19444.67</v>
       </c>
       <c r="AL7">
-        <v>18434.55</v>
+        <v>20894.25</v>
       </c>
       <c r="AM7">
-        <v>16769.03</v>
+        <v>19228.73</v>
       </c>
       <c r="AN7">
-        <v>13654.3</v>
+        <v>16114</v>
       </c>
       <c r="AO7">
-        <v>20100.74</v>
+        <v>22560.44</v>
       </c>
       <c r="AP7">
-        <v>18878.64</v>
+        <v>21338.34</v>
       </c>
       <c r="AQ7">
-        <v>17656.53</v>
+        <v>20116.23</v>
       </c>
       <c r="AR7">
-        <v>19933.34</v>
+        <v>22393.04</v>
       </c>
       <c r="AS7">
-        <v>17934.71</v>
+        <v>20394.41</v>
       </c>
       <c r="AT7">
-        <v>14197.03</v>
+        <v>16656.73</v>
       </c>
       <c r="AU7">
-        <v>21932.67</v>
+        <v>24392.37</v>
       </c>
       <c r="AV7">
-        <v>20466.14</v>
+        <v>22925.84</v>
       </c>
       <c r="AW7">
-        <v>18999.62</v>
+        <v>21459.32</v>
       </c>
       <c r="AX7">
-        <v>20682.75</v>
+        <v>23142.45</v>
       </c>
       <c r="AY7">
-        <v>18517.58</v>
+        <v>20977.28</v>
       </c>
       <c r="AZ7">
-        <v>14468.42</v>
+        <v>16928.12</v>
       </c>
       <c r="BA7">
-        <v>22848.61</v>
+        <v>25308.31</v>
       </c>
       <c r="BB7">
-        <v>21259.87</v>
+        <v>23719.57</v>
       </c>
       <c r="BC7">
-        <v>19671.14</v>
+        <v>22130.84</v>
       </c>
       <c r="BD7">
-        <v>22181.49</v>
+        <v>24641.19</v>
       </c>
       <c r="BE7">
-        <v>19683.21</v>
+        <v>22142.91</v>
       </c>
       <c r="BF7">
-        <v>15011.11</v>
+        <v>17470.81</v>
       </c>
       <c r="BG7">
-        <v>24680.49</v>
+        <v>27140.19</v>
       </c>
       <c r="BH7">
-        <v>22847.34</v>
+        <v>25307.04</v>
       </c>
       <c r="BI7">
-        <v>21014.18</v>
+        <v>23473.88</v>
       </c>
     </row>
     <row r="8">
@@ -1881,184 +1881,184 @@
         </is>
       </c>
       <c r="B8">
-        <v>-3874.93</v>
+        <v>-1414.3</v>
       </c>
       <c r="C8">
-        <v>-4041.49</v>
+        <v>-1580.85</v>
       </c>
       <c r="D8">
-        <v>-4352.96</v>
+        <v>-1892.32</v>
       </c>
       <c r="E8">
-        <v>-3708.32</v>
+        <v>-1247.68</v>
       </c>
       <c r="F8">
-        <v>-3830.53</v>
+        <v>-1369.89</v>
       </c>
       <c r="G8">
-        <v>-3952.74</v>
+        <v>-1492.1</v>
       </c>
       <c r="H8">
-        <v>-2375.59</v>
+        <v>85.05</v>
       </c>
       <c r="I8">
-        <v>-2875.25</v>
+        <v>-414.61</v>
       </c>
       <c r="J8">
-        <v>-3809.67</v>
+        <v>-1349.03</v>
       </c>
       <c r="K8">
-        <v>-1876.15</v>
+        <v>584.48</v>
       </c>
       <c r="L8">
-        <v>-2242.79</v>
+        <v>217.85</v>
       </c>
       <c r="M8">
-        <v>-2609.42</v>
+        <v>-148.78</v>
       </c>
       <c r="N8">
-        <v>-1626.92</v>
+        <v>833.72</v>
       </c>
       <c r="O8">
-        <v>-2293.13</v>
+        <v>167.51</v>
       </c>
       <c r="P8">
-        <v>-3539.02</v>
+        <v>-1078.39</v>
       </c>
       <c r="Q8">
-        <v>-960.12</v>
+        <v>1500.52</v>
       </c>
       <c r="R8">
-        <v>-1448.96</v>
+        <v>1011.68</v>
       </c>
       <c r="S8">
-        <v>-1937.8</v>
+        <v>522.84</v>
       </c>
       <c r="T8">
-        <v>-128.74</v>
+        <v>2331.9</v>
       </c>
       <c r="U8">
-        <v>-1128.05</v>
+        <v>1332.58</v>
       </c>
       <c r="V8">
-        <v>-2996.9</v>
+        <v>-536.26</v>
       </c>
       <c r="W8">
-        <v>871.16</v>
+        <v>3331.79</v>
       </c>
       <c r="X8">
-        <v>137.89</v>
+        <v>2598.53</v>
       </c>
       <c r="Y8">
-        <v>-595.37</v>
+        <v>1865.27</v>
       </c>
       <c r="Z8">
-        <v>620.63</v>
+        <v>3081.27</v>
       </c>
       <c r="AA8">
-        <v>-545.24</v>
+        <v>1915.4</v>
       </c>
       <c r="AB8">
-        <v>-2725.55</v>
+        <v>-264.91</v>
       </c>
       <c r="AC8">
-        <v>1787.14</v>
+        <v>4247.78</v>
       </c>
       <c r="AD8">
-        <v>931.67</v>
+        <v>3392.31</v>
       </c>
       <c r="AE8">
-        <v>76.2</v>
+        <v>2536.84</v>
       </c>
       <c r="AF8">
-        <v>2119.46</v>
+        <v>4580.1</v>
       </c>
       <c r="AG8">
-        <v>620.49</v>
+        <v>3081.13</v>
       </c>
       <c r="AH8">
-        <v>-2182.77</v>
+        <v>277.87</v>
       </c>
       <c r="AI8">
-        <v>3619.02</v>
+        <v>6079.66</v>
       </c>
       <c r="AJ8">
-        <v>2519.13</v>
+        <v>4979.77</v>
       </c>
       <c r="AK8">
-        <v>1419.24</v>
+        <v>3879.88</v>
       </c>
       <c r="AL8">
-        <v>2868.83</v>
+        <v>5329.47</v>
       </c>
       <c r="AM8">
-        <v>1203.31</v>
+        <v>3663.95</v>
       </c>
       <c r="AN8">
-        <v>-1911.43</v>
+        <v>549.21</v>
       </c>
       <c r="AO8">
-        <v>4535.01</v>
+        <v>6995.65</v>
       </c>
       <c r="AP8">
-        <v>3312.91</v>
+        <v>5773.55</v>
       </c>
       <c r="AQ8">
-        <v>2090.81</v>
+        <v>4551.45</v>
       </c>
       <c r="AR8">
-        <v>4367.61</v>
+        <v>6828.25</v>
       </c>
       <c r="AS8">
-        <v>2368.99</v>
+        <v>4829.63</v>
       </c>
       <c r="AT8">
-        <v>-1368.7</v>
+        <v>1091.94</v>
       </c>
       <c r="AU8">
-        <v>6366.94</v>
+        <v>8827.58</v>
       </c>
       <c r="AV8">
-        <v>4900.42</v>
+        <v>7361.06</v>
       </c>
       <c r="AW8">
-        <v>3433.9</v>
+        <v>5894.53</v>
       </c>
       <c r="AX8">
-        <v>5117.03</v>
+        <v>7577.67</v>
       </c>
       <c r="AY8">
-        <v>2951.85</v>
+        <v>5412.49</v>
       </c>
       <c r="AZ8">
-        <v>-1097.31</v>
+        <v>1363.33</v>
       </c>
       <c r="BA8">
-        <v>7282.88</v>
+        <v>9743.52</v>
       </c>
       <c r="BB8">
-        <v>5694.15</v>
+        <v>8154.79</v>
       </c>
       <c r="BC8">
-        <v>4105.42</v>
+        <v>6566.06</v>
       </c>
       <c r="BD8">
-        <v>6615.77</v>
+        <v>9076.4</v>
       </c>
       <c r="BE8">
-        <v>4117.49</v>
+        <v>6578.12</v>
       </c>
       <c r="BF8">
-        <v>-554.62</v>
+        <v>1906.02</v>
       </c>
       <c r="BG8">
-        <v>9114.76</v>
+        <v>11575.4</v>
       </c>
       <c r="BH8">
-        <v>7281.61</v>
+        <v>9742.25</v>
       </c>
       <c r="BI8">
-        <v>5448.46</v>
+        <v>7909.1</v>
       </c>
     </row>
     <row r="9">
@@ -2068,184 +2068,184 @@
         </is>
       </c>
       <c r="B9">
-        <v>9962.57</v>
+        <v>12424.7</v>
       </c>
       <c r="C9">
-        <v>9796.01</v>
+        <v>12258.15</v>
       </c>
       <c r="D9">
-        <v>9484.54</v>
+        <v>11946.68</v>
       </c>
       <c r="E9">
-        <v>10129.18</v>
+        <v>12591.32</v>
       </c>
       <c r="F9">
-        <v>10006.97</v>
+        <v>12469.11</v>
       </c>
       <c r="G9">
-        <v>9884.76</v>
+        <v>12346.9</v>
       </c>
       <c r="H9">
-        <v>11461.91</v>
+        <v>13924.05</v>
       </c>
       <c r="I9">
-        <v>10962.25</v>
+        <v>13424.39</v>
       </c>
       <c r="J9">
-        <v>10027.83</v>
+        <v>12489.97</v>
       </c>
       <c r="K9">
-        <v>11961.35</v>
+        <v>14423.48</v>
       </c>
       <c r="L9">
-        <v>11594.71</v>
+        <v>14056.85</v>
       </c>
       <c r="M9">
-        <v>11228.08</v>
+        <v>13690.22</v>
       </c>
       <c r="N9">
-        <v>12210.58</v>
+        <v>14672.72</v>
       </c>
       <c r="O9">
-        <v>11544.37</v>
+        <v>14006.51</v>
       </c>
       <c r="P9">
-        <v>10298.48</v>
+        <v>12760.61</v>
       </c>
       <c r="Q9">
-        <v>12877.38</v>
+        <v>15339.52</v>
       </c>
       <c r="R9">
-        <v>12388.54</v>
+        <v>14850.68</v>
       </c>
       <c r="S9">
-        <v>11899.7</v>
+        <v>14361.84</v>
       </c>
       <c r="T9">
-        <v>13708.76</v>
+        <v>16170.9</v>
       </c>
       <c r="U9">
-        <v>12709.45</v>
+        <v>15171.58</v>
       </c>
       <c r="V9">
-        <v>10840.6</v>
+        <v>13302.74</v>
       </c>
       <c r="W9">
-        <v>14708.66</v>
+        <v>17170.79</v>
       </c>
       <c r="X9">
-        <v>13975.39</v>
+        <v>16437.53</v>
       </c>
       <c r="Y9">
-        <v>13242.13</v>
+        <v>15704.27</v>
       </c>
       <c r="Z9">
-        <v>14458.13</v>
+        <v>16920.27</v>
       </c>
       <c r="AA9">
-        <v>13292.26</v>
+        <v>15754.4</v>
       </c>
       <c r="AB9">
-        <v>11111.95</v>
+        <v>13574.09</v>
       </c>
       <c r="AC9">
-        <v>15624.64</v>
+        <v>18086.78</v>
       </c>
       <c r="AD9">
-        <v>14769.17</v>
+        <v>17231.31</v>
       </c>
       <c r="AE9">
-        <v>13913.7</v>
+        <v>16375.84</v>
       </c>
       <c r="AF9">
-        <v>15956.96</v>
+        <v>18419.1</v>
       </c>
       <c r="AG9">
-        <v>14457.99</v>
+        <v>16920.13</v>
       </c>
       <c r="AH9">
-        <v>11654.73</v>
+        <v>14116.87</v>
       </c>
       <c r="AI9">
-        <v>17456.52</v>
+        <v>19918.66</v>
       </c>
       <c r="AJ9">
-        <v>16356.63</v>
+        <v>18818.77</v>
       </c>
       <c r="AK9">
-        <v>15256.74</v>
+        <v>17718.88</v>
       </c>
       <c r="AL9">
-        <v>16706.33</v>
+        <v>19168.47</v>
       </c>
       <c r="AM9">
-        <v>15040.81</v>
+        <v>17502.95</v>
       </c>
       <c r="AN9">
-        <v>11926.07</v>
+        <v>14388.21</v>
       </c>
       <c r="AO9">
-        <v>18372.51</v>
+        <v>20834.65</v>
       </c>
       <c r="AP9">
-        <v>17150.41</v>
+        <v>19612.55</v>
       </c>
       <c r="AQ9">
-        <v>15928.31</v>
+        <v>18390.45</v>
       </c>
       <c r="AR9">
-        <v>18205.11</v>
+        <v>20667.25</v>
       </c>
       <c r="AS9">
-        <v>16206.49</v>
+        <v>18668.63</v>
       </c>
       <c r="AT9">
-        <v>12468.8</v>
+        <v>14930.94</v>
       </c>
       <c r="AU9">
-        <v>20204.44</v>
+        <v>22666.58</v>
       </c>
       <c r="AV9">
-        <v>18737.92</v>
+        <v>21200.06</v>
       </c>
       <c r="AW9">
-        <v>17271.4</v>
+        <v>19733.53</v>
       </c>
       <c r="AX9">
-        <v>18954.53</v>
+        <v>21416.67</v>
       </c>
       <c r="AY9">
-        <v>16789.35</v>
+        <v>19251.49</v>
       </c>
       <c r="AZ9">
-        <v>12740.19</v>
+        <v>15202.33</v>
       </c>
       <c r="BA9">
-        <v>21120.38</v>
+        <v>23582.52</v>
       </c>
       <c r="BB9">
-        <v>19531.65</v>
+        <v>21993.79</v>
       </c>
       <c r="BC9">
-        <v>17942.92</v>
+        <v>20405.06</v>
       </c>
       <c r="BD9">
-        <v>20453.27</v>
+        <v>22915.4</v>
       </c>
       <c r="BE9">
-        <v>17954.99</v>
+        <v>20417.12</v>
       </c>
       <c r="BF9">
-        <v>13282.88</v>
+        <v>15745.02</v>
       </c>
       <c r="BG9">
-        <v>22952.26</v>
+        <v>25414.4</v>
       </c>
       <c r="BH9">
-        <v>21119.11</v>
+        <v>23581.25</v>
       </c>
       <c r="BI9">
-        <v>19285.96</v>
+        <v>21748.1</v>
       </c>
     </row>
     <row r="10">
@@ -2255,184 +2255,184 @@
         </is>
       </c>
       <c r="B10">
-        <v>23800.07</v>
+        <v>26263.7</v>
       </c>
       <c r="C10">
-        <v>23633.51</v>
+        <v>26097.15</v>
       </c>
       <c r="D10">
-        <v>23322.04</v>
+        <v>25785.68</v>
       </c>
       <c r="E10">
-        <v>23966.68</v>
+        <v>26430.32</v>
       </c>
       <c r="F10">
-        <v>23844.47</v>
+        <v>26308.11</v>
       </c>
       <c r="G10">
-        <v>23722.26</v>
+        <v>26185.9</v>
       </c>
       <c r="H10">
-        <v>25299.41</v>
+        <v>27763.05</v>
       </c>
       <c r="I10">
-        <v>24799.75</v>
+        <v>27263.39</v>
       </c>
       <c r="J10">
-        <v>23865.33</v>
+        <v>26328.97</v>
       </c>
       <c r="K10">
-        <v>25798.85</v>
+        <v>28262.48</v>
       </c>
       <c r="L10">
-        <v>25432.21</v>
+        <v>27895.85</v>
       </c>
       <c r="M10">
-        <v>25065.58</v>
+        <v>27529.22</v>
       </c>
       <c r="N10">
-        <v>26048.08</v>
+        <v>28511.72</v>
       </c>
       <c r="O10">
-        <v>25381.87</v>
+        <v>27845.51</v>
       </c>
       <c r="P10">
-        <v>24135.98</v>
+        <v>26599.61</v>
       </c>
       <c r="Q10">
-        <v>26714.88</v>
+        <v>29178.52</v>
       </c>
       <c r="R10">
-        <v>26226.04</v>
+        <v>28689.68</v>
       </c>
       <c r="S10">
-        <v>25737.2</v>
+        <v>28200.84</v>
       </c>
       <c r="T10">
-        <v>27546.26</v>
+        <v>30009.9</v>
       </c>
       <c r="U10">
-        <v>26546.95</v>
+        <v>29010.58</v>
       </c>
       <c r="V10">
-        <v>24678.1</v>
+        <v>27141.74</v>
       </c>
       <c r="W10">
-        <v>28546.16</v>
+        <v>31009.79</v>
       </c>
       <c r="X10">
-        <v>27812.89</v>
+        <v>30276.53</v>
       </c>
       <c r="Y10">
-        <v>27079.63</v>
+        <v>29543.27</v>
       </c>
       <c r="Z10">
-        <v>28295.63</v>
+        <v>30759.27</v>
       </c>
       <c r="AA10">
-        <v>27129.76</v>
+        <v>29593.4</v>
       </c>
       <c r="AB10">
-        <v>24949.45</v>
+        <v>27413.09</v>
       </c>
       <c r="AC10">
-        <v>29462.14</v>
+        <v>31925.78</v>
       </c>
       <c r="AD10">
-        <v>28606.67</v>
+        <v>31070.31</v>
       </c>
       <c r="AE10">
-        <v>27751.2</v>
+        <v>30214.84</v>
       </c>
       <c r="AF10">
-        <v>29794.46</v>
+        <v>32258.1</v>
       </c>
       <c r="AG10">
-        <v>28295.49</v>
+        <v>30759.13</v>
       </c>
       <c r="AH10">
-        <v>25492.23</v>
+        <v>27955.87</v>
       </c>
       <c r="AI10">
-        <v>31294.02</v>
+        <v>33757.66</v>
       </c>
       <c r="AJ10">
-        <v>30194.13</v>
+        <v>32657.77</v>
       </c>
       <c r="AK10">
-        <v>29094.24</v>
+        <v>31557.88</v>
       </c>
       <c r="AL10">
-        <v>30543.83</v>
+        <v>33007.47</v>
       </c>
       <c r="AM10">
-        <v>28878.31</v>
+        <v>31341.95</v>
       </c>
       <c r="AN10">
-        <v>25763.57</v>
+        <v>28227.21</v>
       </c>
       <c r="AO10">
-        <v>32210.01</v>
+        <v>34673.65</v>
       </c>
       <c r="AP10">
-        <v>30987.91</v>
+        <v>33451.55</v>
       </c>
       <c r="AQ10">
-        <v>29765.81</v>
+        <v>32229.45</v>
       </c>
       <c r="AR10">
-        <v>32042.61</v>
+        <v>34506.25</v>
       </c>
       <c r="AS10">
-        <v>30043.99</v>
+        <v>32507.63</v>
       </c>
       <c r="AT10">
-        <v>26306.3</v>
+        <v>28769.94</v>
       </c>
       <c r="AU10">
-        <v>34041.94</v>
+        <v>36505.58</v>
       </c>
       <c r="AV10">
-        <v>32575.42</v>
+        <v>35039.06</v>
       </c>
       <c r="AW10">
-        <v>31108.9</v>
+        <v>33572.53</v>
       </c>
       <c r="AX10">
-        <v>32792.03</v>
+        <v>35255.67</v>
       </c>
       <c r="AY10">
-        <v>30626.85</v>
+        <v>33090.49</v>
       </c>
       <c r="AZ10">
-        <v>26577.69</v>
+        <v>29041.33</v>
       </c>
       <c r="BA10">
-        <v>34957.88</v>
+        <v>37421.52</v>
       </c>
       <c r="BB10">
-        <v>33369.15</v>
+        <v>35832.79</v>
       </c>
       <c r="BC10">
-        <v>31780.42</v>
+        <v>34244.06</v>
       </c>
       <c r="BD10">
-        <v>34290.77</v>
+        <v>36754.4</v>
       </c>
       <c r="BE10">
-        <v>31792.49</v>
+        <v>34256.12</v>
       </c>
       <c r="BF10">
-        <v>27120.38</v>
+        <v>29584.02</v>
       </c>
       <c r="BG10">
-        <v>36789.76</v>
+        <v>39253.4</v>
       </c>
       <c r="BH10">
-        <v>34956.61</v>
+        <v>37420.25</v>
       </c>
       <c r="BI10">
-        <v>33123.46</v>
+        <v>35587.1</v>
       </c>
     </row>
     <row r="11">
@@ -2442,184 +2442,184 @@
         </is>
       </c>
       <c r="B11">
-        <v>-9578.8</v>
+        <v>-7118.17</v>
       </c>
       <c r="C11">
-        <v>-9745.36</v>
+        <v>-7284.72</v>
       </c>
       <c r="D11">
-        <v>-10056.83</v>
+        <v>-7596.19</v>
       </c>
       <c r="E11">
-        <v>-9380.03</v>
+        <v>-6919.39</v>
       </c>
       <c r="F11">
-        <v>-9502.24</v>
+        <v>-7041.6</v>
       </c>
       <c r="G11">
-        <v>-9624.45</v>
+        <v>-7163.81</v>
       </c>
       <c r="H11">
-        <v>-7950.15</v>
+        <v>-5489.51</v>
       </c>
       <c r="I11">
-        <v>-8449.8</v>
+        <v>-5989.16</v>
       </c>
       <c r="J11">
-        <v>-9384.22</v>
+        <v>-6923.58</v>
       </c>
       <c r="K11">
-        <v>-7354.29</v>
+        <v>-4893.66</v>
       </c>
       <c r="L11">
-        <v>-7720.92</v>
+        <v>-5260.29</v>
       </c>
       <c r="M11">
-        <v>-8087.55</v>
+        <v>-5626.92</v>
       </c>
       <c r="N11">
-        <v>-7136.93</v>
+        <v>-4676.3</v>
       </c>
       <c r="O11">
-        <v>-7803.14</v>
+        <v>-5342.5</v>
       </c>
       <c r="P11">
-        <v>-9049.04</v>
+        <v>-6588.4</v>
       </c>
       <c r="Q11">
-        <v>-6341.52</v>
+        <v>-3880.88</v>
       </c>
       <c r="R11">
-        <v>-6830.36</v>
+        <v>-4369.72</v>
       </c>
       <c r="S11">
-        <v>-7319.2</v>
+        <v>-4858.56</v>
       </c>
       <c r="T11">
-        <v>-5509.49</v>
+        <v>-3048.85</v>
       </c>
       <c r="U11">
-        <v>-6508.8</v>
+        <v>-4048.16</v>
       </c>
       <c r="V11">
-        <v>-8377.64</v>
+        <v>-5917</v>
       </c>
       <c r="W11">
-        <v>-4316.76</v>
+        <v>-1856.12</v>
       </c>
       <c r="X11">
-        <v>-5050.02</v>
+        <v>-2589.38</v>
       </c>
       <c r="Y11">
-        <v>-5783.28</v>
+        <v>-3322.64</v>
       </c>
       <c r="Z11">
-        <v>-4695.48</v>
+        <v>-2234.85</v>
       </c>
       <c r="AA11">
-        <v>-5861.35</v>
+        <v>-3400.71</v>
       </c>
       <c r="AB11">
-        <v>-8041.66</v>
+        <v>-5581.03</v>
       </c>
       <c r="AC11">
-        <v>-3303.98</v>
+        <v>-843.34</v>
       </c>
       <c r="AD11">
-        <v>-4159.45</v>
+        <v>-1698.82</v>
       </c>
       <c r="AE11">
-        <v>-5014.93</v>
+        <v>-2554.29</v>
       </c>
       <c r="AF11">
-        <v>-3067.43</v>
+        <v>-606.79</v>
       </c>
       <c r="AG11">
-        <v>-4566.4</v>
+        <v>-2105.76</v>
       </c>
       <c r="AH11">
-        <v>-7369.66</v>
+        <v>-4909.02</v>
       </c>
       <c r="AI11">
-        <v>-1278.57</v>
+        <v>1182.07</v>
       </c>
       <c r="AJ11">
-        <v>-2378.46</v>
+        <v>82.18</v>
       </c>
       <c r="AK11">
-        <v>-3478.35</v>
+        <v>-1017.72</v>
       </c>
       <c r="AL11">
-        <v>-2253.43</v>
+        <v>207.21</v>
       </c>
       <c r="AM11">
-        <v>-3918.95</v>
+        <v>-1458.31</v>
       </c>
       <c r="AN11">
-        <v>-7033.68</v>
+        <v>-4573.05</v>
       </c>
       <c r="AO11">
-        <v>-265.84</v>
+        <v>2194.8</v>
       </c>
       <c r="AP11">
-        <v>-1487.94</v>
+        <v>972.69</v>
       </c>
       <c r="AQ11">
-        <v>-2710.05</v>
+        <v>-249.41</v>
       </c>
       <c r="AR11">
-        <v>-625.37</v>
+        <v>1835.26</v>
       </c>
       <c r="AS11">
-        <v>-2624</v>
+        <v>-163.36</v>
       </c>
       <c r="AT11">
-        <v>-6361.68</v>
+        <v>-3901.04</v>
       </c>
       <c r="AU11">
-        <v>1759.62</v>
+        <v>4220.25</v>
       </c>
       <c r="AV11">
-        <v>293.09</v>
+        <v>2753.73</v>
       </c>
       <c r="AW11">
-        <v>-1173.43</v>
+        <v>1287.21</v>
       </c>
       <c r="AX11">
-        <v>188.63</v>
+        <v>2649.27</v>
       </c>
       <c r="AY11">
-        <v>-1976.55</v>
+        <v>484.09</v>
       </c>
       <c r="AZ11">
-        <v>-6025.7</v>
+        <v>-3565.07</v>
       </c>
       <c r="BA11">
-        <v>2772.35</v>
+        <v>5232.98</v>
       </c>
       <c r="BB11">
-        <v>1183.61</v>
+        <v>3644.25</v>
       </c>
       <c r="BC11">
-        <v>-405.12</v>
+        <v>2055.52</v>
       </c>
       <c r="BD11">
-        <v>1816.68</v>
+        <v>4277.32</v>
       </c>
       <c r="BE11">
-        <v>-681.6</v>
+        <v>1779.04</v>
       </c>
       <c r="BF11">
-        <v>-5353.7</v>
+        <v>-2893.06</v>
       </c>
       <c r="BG11">
-        <v>4797.71</v>
+        <v>7258.35</v>
       </c>
       <c r="BH11">
-        <v>2964.56</v>
+        <v>5425.2</v>
       </c>
       <c r="BI11">
-        <v>1131.41</v>
+        <v>3592.04</v>
       </c>
     </row>
     <row r="12">
@@ -2629,184 +2629,184 @@
         </is>
       </c>
       <c r="B12">
-        <v>-4966.3</v>
+        <v>-2504.17</v>
       </c>
       <c r="C12">
-        <v>-5132.86</v>
+        <v>-2670.72</v>
       </c>
       <c r="D12">
-        <v>-5444.33</v>
+        <v>-2982.19</v>
       </c>
       <c r="E12">
-        <v>-4767.53</v>
+        <v>-2305.39</v>
       </c>
       <c r="F12">
-        <v>-4889.74</v>
+        <v>-2427.6</v>
       </c>
       <c r="G12">
-        <v>-5011.95</v>
+        <v>-2549.81</v>
       </c>
       <c r="H12">
-        <v>-3337.65</v>
+        <v>-875.51</v>
       </c>
       <c r="I12">
-        <v>-3837.3</v>
+        <v>-1375.16</v>
       </c>
       <c r="J12">
-        <v>-4771.72</v>
+        <v>-2309.58</v>
       </c>
       <c r="K12">
-        <v>-2741.79</v>
+        <v>-279.66</v>
       </c>
       <c r="L12">
-        <v>-3108.42</v>
+        <v>-646.29</v>
       </c>
       <c r="M12">
-        <v>-3475.05</v>
+        <v>-1012.92</v>
       </c>
       <c r="N12">
-        <v>-2524.43</v>
+        <v>-62.3</v>
       </c>
       <c r="O12">
-        <v>-3190.64</v>
+        <v>-728.5</v>
       </c>
       <c r="P12">
-        <v>-4436.54</v>
+        <v>-1974.4</v>
       </c>
       <c r="Q12">
-        <v>-1729.02</v>
+        <v>733.12</v>
       </c>
       <c r="R12">
-        <v>-2217.86</v>
+        <v>244.28</v>
       </c>
       <c r="S12">
-        <v>-2706.7</v>
+        <v>-244.56</v>
       </c>
       <c r="T12">
-        <v>-896.99</v>
+        <v>1565.15</v>
       </c>
       <c r="U12">
-        <v>-1896.3</v>
+        <v>565.84</v>
       </c>
       <c r="V12">
-        <v>-3765.14</v>
+        <v>-1303</v>
       </c>
       <c r="W12">
-        <v>295.74</v>
+        <v>2757.88</v>
       </c>
       <c r="X12">
-        <v>-437.52</v>
+        <v>2024.62</v>
       </c>
       <c r="Y12">
-        <v>-1170.78</v>
+        <v>1291.36</v>
       </c>
       <c r="Z12">
-        <v>-82.98</v>
+        <v>2379.15</v>
       </c>
       <c r="AA12">
-        <v>-1248.85</v>
+        <v>1213.29</v>
       </c>
       <c r="AB12">
-        <v>-3429.16</v>
+        <v>-967.03</v>
       </c>
       <c r="AC12">
-        <v>1308.52</v>
+        <v>3770.66</v>
       </c>
       <c r="AD12">
-        <v>453.05</v>
+        <v>2915.18</v>
       </c>
       <c r="AE12">
-        <v>-402.43</v>
+        <v>2059.71</v>
       </c>
       <c r="AF12">
-        <v>1545.07</v>
+        <v>4007.21</v>
       </c>
       <c r="AG12">
-        <v>46.1</v>
+        <v>2508.24</v>
       </c>
       <c r="AH12">
-        <v>-2757.16</v>
+        <v>-295.02</v>
       </c>
       <c r="AI12">
-        <v>3333.93</v>
+        <v>5796.07</v>
       </c>
       <c r="AJ12">
-        <v>2234.04</v>
+        <v>4696.18</v>
       </c>
       <c r="AK12">
-        <v>1134.15</v>
+        <v>3596.28</v>
       </c>
       <c r="AL12">
-        <v>2359.07</v>
+        <v>4821.21</v>
       </c>
       <c r="AM12">
-        <v>693.55</v>
+        <v>3155.69</v>
       </c>
       <c r="AN12">
-        <v>-2421.18</v>
+        <v>40.95</v>
       </c>
       <c r="AO12">
-        <v>4346.66</v>
+        <v>6808.8</v>
       </c>
       <c r="AP12">
-        <v>3124.56</v>
+        <v>5586.69</v>
       </c>
       <c r="AQ12">
-        <v>1902.45</v>
+        <v>4364.59</v>
       </c>
       <c r="AR12">
-        <v>3987.13</v>
+        <v>6449.26</v>
       </c>
       <c r="AS12">
-        <v>1988.5</v>
+        <v>4450.64</v>
       </c>
       <c r="AT12">
-        <v>-1749.18</v>
+        <v>712.96</v>
       </c>
       <c r="AU12">
-        <v>6372.12</v>
+        <v>8834.25</v>
       </c>
       <c r="AV12">
-        <v>4905.59</v>
+        <v>7367.73</v>
       </c>
       <c r="AW12">
-        <v>3439.07</v>
+        <v>5901.21</v>
       </c>
       <c r="AX12">
-        <v>4801.13</v>
+        <v>7263.27</v>
       </c>
       <c r="AY12">
-        <v>2635.95</v>
+        <v>5098.09</v>
       </c>
       <c r="AZ12">
-        <v>-1413.2</v>
+        <v>1048.93</v>
       </c>
       <c r="BA12">
-        <v>7384.85</v>
+        <v>9846.98</v>
       </c>
       <c r="BB12">
-        <v>5796.11</v>
+        <v>8258.25</v>
       </c>
       <c r="BC12">
-        <v>4207.38</v>
+        <v>6669.52</v>
       </c>
       <c r="BD12">
-        <v>6429.18</v>
+        <v>8891.32</v>
       </c>
       <c r="BE12">
-        <v>3930.9</v>
+        <v>6393.04</v>
       </c>
       <c r="BF12">
-        <v>-741.2</v>
+        <v>1720.94</v>
       </c>
       <c r="BG12">
-        <v>9410.21</v>
+        <v>11872.35</v>
       </c>
       <c r="BH12">
-        <v>7577.06</v>
+        <v>10039.2</v>
       </c>
       <c r="BI12">
-        <v>5743.91</v>
+        <v>8206.04</v>
       </c>
     </row>
     <row r="13">
@@ -2816,184 +2816,184 @@
         </is>
       </c>
       <c r="B13">
-        <v>-353.8</v>
+        <v>2109.83</v>
       </c>
       <c r="C13">
-        <v>-520.36</v>
+        <v>1943.28</v>
       </c>
       <c r="D13">
-        <v>-831.83</v>
+        <v>1631.81</v>
       </c>
       <c r="E13">
-        <v>-155.03</v>
+        <v>2308.61</v>
       </c>
       <c r="F13">
-        <v>-277.24</v>
+        <v>2186.4</v>
       </c>
       <c r="G13">
-        <v>-399.45</v>
+        <v>2064.19</v>
       </c>
       <c r="H13">
-        <v>1274.85</v>
+        <v>3738.49</v>
       </c>
       <c r="I13">
-        <v>775.2</v>
+        <v>3238.84</v>
       </c>
       <c r="J13">
-        <v>-159.22</v>
+        <v>2304.42</v>
       </c>
       <c r="K13">
-        <v>1870.71</v>
+        <v>4334.34</v>
       </c>
       <c r="L13">
-        <v>1504.08</v>
+        <v>3967.71</v>
       </c>
       <c r="M13">
-        <v>1137.45</v>
+        <v>3601.08</v>
       </c>
       <c r="N13">
-        <v>2088.07</v>
+        <v>4551.7</v>
       </c>
       <c r="O13">
-        <v>1421.86</v>
+        <v>3885.5</v>
       </c>
       <c r="P13">
-        <v>175.96</v>
+        <v>2639.6</v>
       </c>
       <c r="Q13">
-        <v>2883.48</v>
+        <v>5347.12</v>
       </c>
       <c r="R13">
-        <v>2394.64</v>
+        <v>4858.28</v>
       </c>
       <c r="S13">
-        <v>1905.8</v>
+        <v>4369.44</v>
       </c>
       <c r="T13">
-        <v>3715.51</v>
+        <v>6179.15</v>
       </c>
       <c r="U13">
-        <v>2716.2</v>
+        <v>5179.84</v>
       </c>
       <c r="V13">
-        <v>847.36</v>
+        <v>3311</v>
       </c>
       <c r="W13">
-        <v>4908.24</v>
+        <v>7371.88</v>
       </c>
       <c r="X13">
-        <v>4174.98</v>
+        <v>6638.62</v>
       </c>
       <c r="Y13">
-        <v>3441.72</v>
+        <v>5905.36</v>
       </c>
       <c r="Z13">
-        <v>4529.52</v>
+        <v>6993.15</v>
       </c>
       <c r="AA13">
-        <v>3363.65</v>
+        <v>5827.29</v>
       </c>
       <c r="AB13">
-        <v>1183.34</v>
+        <v>3646.97</v>
       </c>
       <c r="AC13">
-        <v>5921.02</v>
+        <v>8384.66</v>
       </c>
       <c r="AD13">
-        <v>5065.55</v>
+        <v>7529.18</v>
       </c>
       <c r="AE13">
-        <v>4210.07</v>
+        <v>6673.71</v>
       </c>
       <c r="AF13">
-        <v>6157.57</v>
+        <v>8621.21</v>
       </c>
       <c r="AG13">
-        <v>4658.6</v>
+        <v>7122.24</v>
       </c>
       <c r="AH13">
-        <v>1855.34</v>
+        <v>4318.98</v>
       </c>
       <c r="AI13">
-        <v>7946.43</v>
+        <v>10410.07</v>
       </c>
       <c r="AJ13">
-        <v>6846.54</v>
+        <v>9310.18</v>
       </c>
       <c r="AK13">
-        <v>5746.65</v>
+        <v>8210.28</v>
       </c>
       <c r="AL13">
-        <v>6971.57</v>
+        <v>9435.21</v>
       </c>
       <c r="AM13">
-        <v>5306.05</v>
+        <v>7769.69</v>
       </c>
       <c r="AN13">
-        <v>2191.32</v>
+        <v>4654.95</v>
       </c>
       <c r="AO13">
-        <v>8959.16</v>
+        <v>11422.8</v>
       </c>
       <c r="AP13">
-        <v>7737.06</v>
+        <v>10200.69</v>
       </c>
       <c r="AQ13">
-        <v>6514.95</v>
+        <v>8978.59</v>
       </c>
       <c r="AR13">
-        <v>8599.63</v>
+        <v>11063.26</v>
       </c>
       <c r="AS13">
-        <v>6601</v>
+        <v>9064.64</v>
       </c>
       <c r="AT13">
-        <v>2863.32</v>
+        <v>5326.96</v>
       </c>
       <c r="AU13">
-        <v>10984.62</v>
+        <v>13448.25</v>
       </c>
       <c r="AV13">
-        <v>9518.09</v>
+        <v>11981.73</v>
       </c>
       <c r="AW13">
-        <v>8051.57</v>
+        <v>10515.21</v>
       </c>
       <c r="AX13">
-        <v>9413.63</v>
+        <v>11877.27</v>
       </c>
       <c r="AY13">
-        <v>7248.45</v>
+        <v>9712.09</v>
       </c>
       <c r="AZ13">
-        <v>3199.3</v>
+        <v>5662.93</v>
       </c>
       <c r="BA13">
-        <v>11997.35</v>
+        <v>14460.98</v>
       </c>
       <c r="BB13">
-        <v>10408.61</v>
+        <v>12872.25</v>
       </c>
       <c r="BC13">
-        <v>8819.88</v>
+        <v>11283.52</v>
       </c>
       <c r="BD13">
-        <v>11041.68</v>
+        <v>13505.32</v>
       </c>
       <c r="BE13">
-        <v>8543.4</v>
+        <v>11007.04</v>
       </c>
       <c r="BF13">
-        <v>3871.3</v>
+        <v>6334.94</v>
       </c>
       <c r="BG13">
-        <v>14022.71</v>
+        <v>16486.35</v>
       </c>
       <c r="BH13">
-        <v>12189.56</v>
+        <v>14653.2</v>
       </c>
       <c r="BI13">
-        <v>10356.41</v>
+        <v>12820.04</v>
       </c>
     </row>
     <row r="14">
@@ -3003,184 +3003,184 @@
         </is>
       </c>
       <c r="B14">
-        <v>-6694.53</v>
+        <v>-4234.83</v>
       </c>
       <c r="C14">
-        <v>-6861.08</v>
+        <v>-4401.38</v>
       </c>
       <c r="D14">
-        <v>-7172.55</v>
+        <v>-4712.85</v>
       </c>
       <c r="E14">
-        <v>-6495.76</v>
+        <v>-4036.06</v>
       </c>
       <c r="F14">
-        <v>-6617.97</v>
+        <v>-4158.27</v>
       </c>
       <c r="G14">
-        <v>-6740.18</v>
+        <v>-4280.48</v>
       </c>
       <c r="H14">
-        <v>-5065.87</v>
+        <v>-2606.17</v>
       </c>
       <c r="I14">
-        <v>-5565.53</v>
+        <v>-3105.83</v>
       </c>
       <c r="J14">
-        <v>-6499.95</v>
+        <v>-4040.25</v>
       </c>
       <c r="K14">
-        <v>-4470.02</v>
+        <v>-2010.32</v>
       </c>
       <c r="L14">
-        <v>-4836.65</v>
+        <v>-2376.95</v>
       </c>
       <c r="M14">
-        <v>-5203.28</v>
+        <v>-2743.58</v>
       </c>
       <c r="N14">
-        <v>-4252.66</v>
+        <v>-1792.96</v>
       </c>
       <c r="O14">
-        <v>-4918.87</v>
+        <v>-2459.17</v>
       </c>
       <c r="P14">
-        <v>-6164.76</v>
+        <v>-3705.06</v>
       </c>
       <c r="Q14">
-        <v>-3457.24</v>
+        <v>-997.54</v>
       </c>
       <c r="R14">
-        <v>-3946.08</v>
+        <v>-1486.38</v>
       </c>
       <c r="S14">
-        <v>-4434.92</v>
+        <v>-1975.22</v>
       </c>
       <c r="T14">
-        <v>-2625.21</v>
+        <v>-165.51</v>
       </c>
       <c r="U14">
-        <v>-3624.52</v>
+        <v>-1164.82</v>
       </c>
       <c r="V14">
-        <v>-5493.37</v>
+        <v>-3033.67</v>
       </c>
       <c r="W14">
-        <v>-1432.48</v>
+        <v>1027.22</v>
       </c>
       <c r="X14">
-        <v>-2165.74</v>
+        <v>293.96</v>
       </c>
       <c r="Y14">
-        <v>-2899.01</v>
+        <v>-439.31</v>
       </c>
       <c r="Z14">
-        <v>-1811.21</v>
+        <v>648.49</v>
       </c>
       <c r="AA14">
-        <v>-2977.07</v>
+        <v>-517.37</v>
       </c>
       <c r="AB14">
-        <v>-5157.39</v>
+        <v>-2697.69</v>
       </c>
       <c r="AC14">
-        <v>-419.71</v>
+        <v>2039.99</v>
       </c>
       <c r="AD14">
-        <v>-1275.18</v>
+        <v>1184.52</v>
       </c>
       <c r="AE14">
-        <v>-2130.65</v>
+        <v>329.05</v>
       </c>
       <c r="AF14">
-        <v>-183.16</v>
+        <v>2276.54</v>
       </c>
       <c r="AG14">
-        <v>-1682.12</v>
+        <v>777.58</v>
       </c>
       <c r="AH14">
-        <v>-4485.39</v>
+        <v>-2025.69</v>
       </c>
       <c r="AI14">
-        <v>1605.7</v>
+        <v>4065.4</v>
       </c>
       <c r="AJ14">
-        <v>505.81</v>
+        <v>2965.51</v>
       </c>
       <c r="AK14">
-        <v>-594.08</v>
+        <v>1865.62</v>
       </c>
       <c r="AL14">
-        <v>630.85</v>
+        <v>3090.55</v>
       </c>
       <c r="AM14">
-        <v>-1034.67</v>
+        <v>1425.03</v>
       </c>
       <c r="AN14">
-        <v>-4149.41</v>
+        <v>-1689.71</v>
       </c>
       <c r="AO14">
-        <v>2618.43</v>
+        <v>5078.13</v>
       </c>
       <c r="AP14">
-        <v>1396.33</v>
+        <v>3856.03</v>
       </c>
       <c r="AQ14">
-        <v>174.23</v>
+        <v>2633.93</v>
       </c>
       <c r="AR14">
-        <v>2258.9</v>
+        <v>4718.6</v>
       </c>
       <c r="AS14">
-        <v>260.28</v>
+        <v>2719.98</v>
       </c>
       <c r="AT14">
-        <v>-3477.41</v>
+        <v>-1017.71</v>
       </c>
       <c r="AU14">
-        <v>4643.89</v>
+        <v>7103.59</v>
       </c>
       <c r="AV14">
-        <v>3177.37</v>
+        <v>5637.07</v>
       </c>
       <c r="AW14">
-        <v>1710.85</v>
+        <v>4170.55</v>
       </c>
       <c r="AX14">
-        <v>3072.9</v>
+        <v>5532.6</v>
       </c>
       <c r="AY14">
-        <v>907.73</v>
+        <v>3367.43</v>
       </c>
       <c r="AZ14">
-        <v>-3141.43</v>
+        <v>-681.73</v>
       </c>
       <c r="BA14">
-        <v>5656.62</v>
+        <v>8116.32</v>
       </c>
       <c r="BB14">
-        <v>4067.89</v>
+        <v>6527.59</v>
       </c>
       <c r="BC14">
-        <v>2479.16</v>
+        <v>4938.86</v>
       </c>
       <c r="BD14">
-        <v>4700.96</v>
+        <v>7160.66</v>
       </c>
       <c r="BE14">
-        <v>2202.68</v>
+        <v>4662.38</v>
       </c>
       <c r="BF14">
-        <v>-2469.43</v>
+        <v>-9.73</v>
       </c>
       <c r="BG14">
-        <v>7681.99</v>
+        <v>10141.69</v>
       </c>
       <c r="BH14">
-        <v>5848.83</v>
+        <v>8308.53</v>
       </c>
       <c r="BI14">
-        <v>4015.68</v>
+        <v>6475.38</v>
       </c>
     </row>
     <row r="15">
@@ -3190,184 +3190,184 @@
         </is>
       </c>
       <c r="B15">
-        <v>2530.47</v>
+        <v>4990.17</v>
       </c>
       <c r="C15">
-        <v>2363.92</v>
+        <v>4823.62</v>
       </c>
       <c r="D15">
-        <v>2052.45</v>
+        <v>4512.15</v>
       </c>
       <c r="E15">
-        <v>2729.24</v>
+        <v>5188.94</v>
       </c>
       <c r="F15">
-        <v>2607.03</v>
+        <v>5066.73</v>
       </c>
       <c r="G15">
-        <v>2484.82</v>
+        <v>4944.52</v>
       </c>
       <c r="H15">
-        <v>4159.13</v>
+        <v>6618.83</v>
       </c>
       <c r="I15">
-        <v>3659.47</v>
+        <v>6119.17</v>
       </c>
       <c r="J15">
-        <v>2725.05</v>
+        <v>5184.75</v>
       </c>
       <c r="K15">
-        <v>4754.98</v>
+        <v>7214.68</v>
       </c>
       <c r="L15">
-        <v>4388.35</v>
+        <v>6848.05</v>
       </c>
       <c r="M15">
-        <v>4021.72</v>
+        <v>6481.42</v>
       </c>
       <c r="N15">
-        <v>4972.34</v>
+        <v>7432.04</v>
       </c>
       <c r="O15">
-        <v>4306.13</v>
+        <v>6765.83</v>
       </c>
       <c r="P15">
-        <v>3060.24</v>
+        <v>5519.94</v>
       </c>
       <c r="Q15">
-        <v>5767.76</v>
+        <v>8227.46</v>
       </c>
       <c r="R15">
-        <v>5278.92</v>
+        <v>7738.62</v>
       </c>
       <c r="S15">
-        <v>4790.08</v>
+        <v>7249.78</v>
       </c>
       <c r="T15">
-        <v>6599.79</v>
+        <v>9059.49</v>
       </c>
       <c r="U15">
-        <v>5600.48</v>
+        <v>8060.18</v>
       </c>
       <c r="V15">
-        <v>3731.63</v>
+        <v>6191.33</v>
       </c>
       <c r="W15">
-        <v>7792.52</v>
+        <v>10252.22</v>
       </c>
       <c r="X15">
-        <v>7059.26</v>
+        <v>9518.96</v>
       </c>
       <c r="Y15">
-        <v>6325.99</v>
+        <v>8785.69</v>
       </c>
       <c r="Z15">
-        <v>7413.79</v>
+        <v>9873.49</v>
       </c>
       <c r="AA15">
-        <v>6247.93</v>
+        <v>8707.63</v>
       </c>
       <c r="AB15">
-        <v>4067.61</v>
+        <v>6527.31</v>
       </c>
       <c r="AC15">
-        <v>8805.29</v>
+        <v>11264.99</v>
       </c>
       <c r="AD15">
-        <v>7949.82</v>
+        <v>10409.52</v>
       </c>
       <c r="AE15">
-        <v>7094.35</v>
+        <v>9554.05</v>
       </c>
       <c r="AF15">
-        <v>9041.84</v>
+        <v>11501.54</v>
       </c>
       <c r="AG15">
-        <v>7542.88</v>
+        <v>10002.58</v>
       </c>
       <c r="AH15">
-        <v>4739.61</v>
+        <v>7199.31</v>
       </c>
       <c r="AI15">
-        <v>10830.7</v>
+        <v>13290.4</v>
       </c>
       <c r="AJ15">
-        <v>9730.81</v>
+        <v>12190.51</v>
       </c>
       <c r="AK15">
-        <v>8630.92</v>
+        <v>11090.62</v>
       </c>
       <c r="AL15">
-        <v>9855.85</v>
+        <v>12315.55</v>
       </c>
       <c r="AM15">
-        <v>8190.33</v>
+        <v>10650.03</v>
       </c>
       <c r="AN15">
-        <v>5075.59</v>
+        <v>7535.29</v>
       </c>
       <c r="AO15">
-        <v>11843.43</v>
+        <v>14303.13</v>
       </c>
       <c r="AP15">
-        <v>10621.33</v>
+        <v>13081.03</v>
       </c>
       <c r="AQ15">
-        <v>9399.23</v>
+        <v>11858.93</v>
       </c>
       <c r="AR15">
-        <v>11483.9</v>
+        <v>13943.6</v>
       </c>
       <c r="AS15">
-        <v>9485.28</v>
+        <v>11944.98</v>
       </c>
       <c r="AT15">
-        <v>5747.59</v>
+        <v>8207.29</v>
       </c>
       <c r="AU15">
-        <v>13868.89</v>
+        <v>16328.59</v>
       </c>
       <c r="AV15">
-        <v>12402.37</v>
+        <v>14862.07</v>
       </c>
       <c r="AW15">
-        <v>10935.85</v>
+        <v>13395.55</v>
       </c>
       <c r="AX15">
-        <v>12297.9</v>
+        <v>14757.6</v>
       </c>
       <c r="AY15">
-        <v>10132.73</v>
+        <v>12592.43</v>
       </c>
       <c r="AZ15">
-        <v>6083.57</v>
+        <v>8543.27</v>
       </c>
       <c r="BA15">
-        <v>14881.62</v>
+        <v>17341.32</v>
       </c>
       <c r="BB15">
-        <v>13292.89</v>
+        <v>15752.59</v>
       </c>
       <c r="BC15">
-        <v>11704.16</v>
+        <v>14163.86</v>
       </c>
       <c r="BD15">
-        <v>13925.96</v>
+        <v>16385.66</v>
       </c>
       <c r="BE15">
-        <v>11427.68</v>
+        <v>13887.38</v>
       </c>
       <c r="BF15">
-        <v>6755.57</v>
+        <v>9215.27</v>
       </c>
       <c r="BG15">
-        <v>16906.99</v>
+        <v>19366.69</v>
       </c>
       <c r="BH15">
-        <v>15073.83</v>
+        <v>17533.53</v>
       </c>
       <c r="BI15">
-        <v>13240.68</v>
+        <v>15700.38</v>
       </c>
     </row>
     <row r="16">
@@ -3377,184 +3377,184 @@
         </is>
       </c>
       <c r="B16">
-        <v>11755.47</v>
+        <v>14215.17</v>
       </c>
       <c r="C16">
-        <v>11588.92</v>
+        <v>14048.62</v>
       </c>
       <c r="D16">
-        <v>11277.45</v>
+        <v>13737.15</v>
       </c>
       <c r="E16">
-        <v>11954.24</v>
+        <v>14413.94</v>
       </c>
       <c r="F16">
-        <v>11832.03</v>
+        <v>14291.73</v>
       </c>
       <c r="G16">
-        <v>11709.82</v>
+        <v>14169.52</v>
       </c>
       <c r="H16">
-        <v>13384.13</v>
+        <v>15843.83</v>
       </c>
       <c r="I16">
-        <v>12884.47</v>
+        <v>15344.17</v>
       </c>
       <c r="J16">
-        <v>11950.05</v>
+        <v>14409.75</v>
       </c>
       <c r="K16">
-        <v>13979.98</v>
+        <v>16439.68</v>
       </c>
       <c r="L16">
-        <v>13613.35</v>
+        <v>16073.05</v>
       </c>
       <c r="M16">
-        <v>13246.72</v>
+        <v>15706.42</v>
       </c>
       <c r="N16">
-        <v>14197.34</v>
+        <v>16657.04</v>
       </c>
       <c r="O16">
-        <v>13531.13</v>
+        <v>15990.83</v>
       </c>
       <c r="P16">
-        <v>12285.24</v>
+        <v>14744.94</v>
       </c>
       <c r="Q16">
-        <v>14992.76</v>
+        <v>17452.46</v>
       </c>
       <c r="R16">
-        <v>14503.92</v>
+        <v>16963.62</v>
       </c>
       <c r="S16">
-        <v>14015.08</v>
+        <v>16474.78</v>
       </c>
       <c r="T16">
-        <v>15824.79</v>
+        <v>18284.49</v>
       </c>
       <c r="U16">
-        <v>14825.48</v>
+        <v>17285.18</v>
       </c>
       <c r="V16">
-        <v>12956.63</v>
+        <v>15416.33</v>
       </c>
       <c r="W16">
-        <v>17017.52</v>
+        <v>19477.22</v>
       </c>
       <c r="X16">
-        <v>16284.26</v>
+        <v>18743.96</v>
       </c>
       <c r="Y16">
-        <v>15550.99</v>
+        <v>18010.69</v>
       </c>
       <c r="Z16">
-        <v>16638.79</v>
+        <v>19098.49</v>
       </c>
       <c r="AA16">
-        <v>15472.93</v>
+        <v>17932.63</v>
       </c>
       <c r="AB16">
-        <v>13292.61</v>
+        <v>15752.31</v>
       </c>
       <c r="AC16">
-        <v>18030.29</v>
+        <v>20489.99</v>
       </c>
       <c r="AD16">
-        <v>17174.82</v>
+        <v>19634.52</v>
       </c>
       <c r="AE16">
-        <v>16319.35</v>
+        <v>18779.05</v>
       </c>
       <c r="AF16">
-        <v>18266.84</v>
+        <v>20726.54</v>
       </c>
       <c r="AG16">
-        <v>16767.88</v>
+        <v>19227.58</v>
       </c>
       <c r="AH16">
-        <v>13964.61</v>
+        <v>16424.31</v>
       </c>
       <c r="AI16">
-        <v>20055.7</v>
+        <v>22515.4</v>
       </c>
       <c r="AJ16">
-        <v>18955.81</v>
+        <v>21415.51</v>
       </c>
       <c r="AK16">
-        <v>17855.92</v>
+        <v>20315.62</v>
       </c>
       <c r="AL16">
-        <v>19080.85</v>
+        <v>21540.55</v>
       </c>
       <c r="AM16">
-        <v>17415.33</v>
+        <v>19875.03</v>
       </c>
       <c r="AN16">
-        <v>14300.59</v>
+        <v>16760.29</v>
       </c>
       <c r="AO16">
-        <v>21068.43</v>
+        <v>23528.13</v>
       </c>
       <c r="AP16">
-        <v>19846.33</v>
+        <v>22306.03</v>
       </c>
       <c r="AQ16">
-        <v>18624.23</v>
+        <v>21083.93</v>
       </c>
       <c r="AR16">
-        <v>20708.9</v>
+        <v>23168.6</v>
       </c>
       <c r="AS16">
-        <v>18710.28</v>
+        <v>21169.98</v>
       </c>
       <c r="AT16">
-        <v>14972.59</v>
+        <v>17432.29</v>
       </c>
       <c r="AU16">
-        <v>23093.89</v>
+        <v>25553.59</v>
       </c>
       <c r="AV16">
-        <v>21627.37</v>
+        <v>24087.07</v>
       </c>
       <c r="AW16">
-        <v>20160.85</v>
+        <v>22620.55</v>
       </c>
       <c r="AX16">
-        <v>21522.9</v>
+        <v>23982.6</v>
       </c>
       <c r="AY16">
-        <v>19357.73</v>
+        <v>21817.43</v>
       </c>
       <c r="AZ16">
-        <v>15308.57</v>
+        <v>17768.27</v>
       </c>
       <c r="BA16">
-        <v>24106.62</v>
+        <v>26566.32</v>
       </c>
       <c r="BB16">
-        <v>22517.89</v>
+        <v>24977.59</v>
       </c>
       <c r="BC16">
-        <v>20929.16</v>
+        <v>23388.86</v>
       </c>
       <c r="BD16">
-        <v>23150.96</v>
+        <v>25610.66</v>
       </c>
       <c r="BE16">
-        <v>20652.68</v>
+        <v>23112.38</v>
       </c>
       <c r="BF16">
-        <v>15980.57</v>
+        <v>18440.27</v>
       </c>
       <c r="BG16">
-        <v>26131.99</v>
+        <v>28591.69</v>
       </c>
       <c r="BH16">
-        <v>24298.83</v>
+        <v>26758.53</v>
       </c>
       <c r="BI16">
-        <v>22465.68</v>
+        <v>24925.38</v>
       </c>
     </row>
     <row r="17">
@@ -3564,184 +3564,184 @@
         </is>
       </c>
       <c r="B17">
-        <v>-3810.25</v>
+        <v>-1349.62</v>
       </c>
       <c r="C17">
-        <v>-3976.81</v>
+        <v>-1516.17</v>
       </c>
       <c r="D17">
-        <v>-4288.28</v>
+        <v>-1827.64</v>
       </c>
       <c r="E17">
-        <v>-3611.48</v>
+        <v>-1150.84</v>
       </c>
       <c r="F17">
-        <v>-3733.69</v>
+        <v>-1273.05</v>
       </c>
       <c r="G17">
-        <v>-3855.9</v>
+        <v>-1395.26</v>
       </c>
       <c r="H17">
-        <v>-2181.6</v>
+        <v>279.04</v>
       </c>
       <c r="I17">
-        <v>-2681.25</v>
+        <v>-220.61</v>
       </c>
       <c r="J17">
-        <v>-3615.67</v>
+        <v>-1155.03</v>
       </c>
       <c r="K17">
-        <v>-1585.74</v>
+        <v>874.89</v>
       </c>
       <c r="L17">
-        <v>-1952.37</v>
+        <v>508.26</v>
       </c>
       <c r="M17">
-        <v>-2319</v>
+        <v>141.63</v>
       </c>
       <c r="N17">
-        <v>-1368.38</v>
+        <v>1092.25</v>
       </c>
       <c r="O17">
-        <v>-2034.59</v>
+        <v>426.05</v>
       </c>
       <c r="P17">
-        <v>-3280.49</v>
+        <v>-819.85</v>
       </c>
       <c r="Q17">
-        <v>-572.97</v>
+        <v>1887.67</v>
       </c>
       <c r="R17">
-        <v>-1061.81</v>
+        <v>1398.83</v>
       </c>
       <c r="S17">
-        <v>-1550.65</v>
+        <v>909.99</v>
       </c>
       <c r="T17">
-        <v>259.06</v>
+        <v>2719.7</v>
       </c>
       <c r="U17">
-        <v>-740.25</v>
+        <v>1720.39</v>
       </c>
       <c r="V17">
-        <v>-2609.09</v>
+        <v>-148.45</v>
       </c>
       <c r="W17">
-        <v>1451.79</v>
+        <v>3912.43</v>
       </c>
       <c r="X17">
-        <v>718.53</v>
+        <v>3179.17</v>
       </c>
       <c r="Y17">
-        <v>-14.73</v>
+        <v>2445.91</v>
       </c>
       <c r="Z17">
-        <v>1073.07</v>
+        <v>3533.7</v>
       </c>
       <c r="AA17">
-        <v>-92.8</v>
+        <v>2367.84</v>
       </c>
       <c r="AB17">
-        <v>-2273.11</v>
+        <v>187.52</v>
       </c>
       <c r="AC17">
-        <v>2464.57</v>
+        <v>4925.21</v>
       </c>
       <c r="AD17">
-        <v>1609.1</v>
+        <v>4069.73</v>
       </c>
       <c r="AE17">
-        <v>753.62</v>
+        <v>3214.26</v>
       </c>
       <c r="AF17">
-        <v>2701.12</v>
+        <v>5161.76</v>
       </c>
       <c r="AG17">
-        <v>1202.15</v>
+        <v>3662.79</v>
       </c>
       <c r="AH17">
-        <v>-1601.11</v>
+        <v>859.53</v>
       </c>
       <c r="AI17">
-        <v>4489.98</v>
+        <v>6950.62</v>
       </c>
       <c r="AJ17">
-        <v>3390.09</v>
+        <v>5850.73</v>
       </c>
       <c r="AK17">
-        <v>2290.2</v>
+        <v>4750.83</v>
       </c>
       <c r="AL17">
-        <v>3515.12</v>
+        <v>5975.76</v>
       </c>
       <c r="AM17">
-        <v>1849.6</v>
+        <v>4310.24</v>
       </c>
       <c r="AN17">
-        <v>-1265.13</v>
+        <v>1195.5</v>
       </c>
       <c r="AO17">
-        <v>5502.71</v>
+        <v>7963.35</v>
       </c>
       <c r="AP17">
-        <v>4280.61</v>
+        <v>6741.24</v>
       </c>
       <c r="AQ17">
-        <v>3058.5</v>
+        <v>5519.14</v>
       </c>
       <c r="AR17">
-        <v>5143.18</v>
+        <v>7603.81</v>
       </c>
       <c r="AS17">
-        <v>3144.55</v>
+        <v>5605.19</v>
       </c>
       <c r="AT17">
-        <v>-593.13</v>
+        <v>1867.51</v>
       </c>
       <c r="AU17">
-        <v>7528.17</v>
+        <v>9988.8</v>
       </c>
       <c r="AV17">
-        <v>6061.64</v>
+        <v>8522.28</v>
       </c>
       <c r="AW17">
-        <v>4595.12</v>
+        <v>7055.76</v>
       </c>
       <c r="AX17">
-        <v>5957.18</v>
+        <v>8417.82</v>
       </c>
       <c r="AY17">
-        <v>3792</v>
+        <v>6252.64</v>
       </c>
       <c r="AZ17">
-        <v>-257.15</v>
+        <v>2203.48</v>
       </c>
       <c r="BA17">
-        <v>8540.9</v>
+        <v>11001.53</v>
       </c>
       <c r="BB17">
-        <v>6952.16</v>
+        <v>9412.8</v>
       </c>
       <c r="BC17">
-        <v>5363.43</v>
+        <v>7824.07</v>
       </c>
       <c r="BD17">
-        <v>7585.23</v>
+        <v>10045.87</v>
       </c>
       <c r="BE17">
-        <v>5086.95</v>
+        <v>7547.59</v>
       </c>
       <c r="BF17">
-        <v>414.85</v>
+        <v>2875.49</v>
       </c>
       <c r="BG17">
-        <v>10566.26</v>
+        <v>13026.9</v>
       </c>
       <c r="BH17">
-        <v>8733.11</v>
+        <v>11193.75</v>
       </c>
       <c r="BI17">
-        <v>6899.96</v>
+        <v>9360.59</v>
       </c>
     </row>
     <row r="18">
@@ -3751,184 +3751,184 @@
         </is>
       </c>
       <c r="B18">
-        <v>10027.25</v>
+        <v>12489.38</v>
       </c>
       <c r="C18">
-        <v>9860.69</v>
+        <v>12322.83</v>
       </c>
       <c r="D18">
-        <v>9549.22</v>
+        <v>12011.36</v>
       </c>
       <c r="E18">
-        <v>10226.02</v>
+        <v>12688.16</v>
       </c>
       <c r="F18">
-        <v>10103.81</v>
+        <v>12565.95</v>
       </c>
       <c r="G18">
-        <v>9981.6</v>
+        <v>12443.74</v>
       </c>
       <c r="H18">
-        <v>11655.9</v>
+        <v>14118.04</v>
       </c>
       <c r="I18">
-        <v>11156.25</v>
+        <v>13618.39</v>
       </c>
       <c r="J18">
-        <v>10221.83</v>
+        <v>12683.97</v>
       </c>
       <c r="K18">
-        <v>12251.76</v>
+        <v>14713.89</v>
       </c>
       <c r="L18">
-        <v>11885.13</v>
+        <v>14347.26</v>
       </c>
       <c r="M18">
-        <v>11518.5</v>
+        <v>13980.63</v>
       </c>
       <c r="N18">
-        <v>12469.12</v>
+        <v>14931.25</v>
       </c>
       <c r="O18">
-        <v>11802.91</v>
+        <v>14265.05</v>
       </c>
       <c r="P18">
-        <v>10557.01</v>
+        <v>13019.15</v>
       </c>
       <c r="Q18">
-        <v>13264.53</v>
+        <v>15726.67</v>
       </c>
       <c r="R18">
-        <v>12775.69</v>
+        <v>15237.83</v>
       </c>
       <c r="S18">
-        <v>12286.85</v>
+        <v>14748.99</v>
       </c>
       <c r="T18">
-        <v>14096.56</v>
+        <v>16558.7</v>
       </c>
       <c r="U18">
-        <v>13097.25</v>
+        <v>15559.39</v>
       </c>
       <c r="V18">
-        <v>11228.41</v>
+        <v>13690.55</v>
       </c>
       <c r="W18">
-        <v>15289.29</v>
+        <v>17751.43</v>
       </c>
       <c r="X18">
-        <v>14556.03</v>
+        <v>17018.17</v>
       </c>
       <c r="Y18">
-        <v>13822.77</v>
+        <v>16284.91</v>
       </c>
       <c r="Z18">
-        <v>14910.57</v>
+        <v>17372.7</v>
       </c>
       <c r="AA18">
-        <v>13744.7</v>
+        <v>16206.84</v>
       </c>
       <c r="AB18">
-        <v>11564.39</v>
+        <v>14026.52</v>
       </c>
       <c r="AC18">
-        <v>16302.07</v>
+        <v>18764.21</v>
       </c>
       <c r="AD18">
-        <v>15446.6</v>
+        <v>17908.73</v>
       </c>
       <c r="AE18">
-        <v>14591.12</v>
+        <v>17053.26</v>
       </c>
       <c r="AF18">
-        <v>16538.62</v>
+        <v>19000.76</v>
       </c>
       <c r="AG18">
-        <v>15039.65</v>
+        <v>17501.79</v>
       </c>
       <c r="AH18">
-        <v>12236.39</v>
+        <v>14698.53</v>
       </c>
       <c r="AI18">
-        <v>18327.48</v>
+        <v>20789.62</v>
       </c>
       <c r="AJ18">
-        <v>17227.59</v>
+        <v>19689.73</v>
       </c>
       <c r="AK18">
-        <v>16127.7</v>
+        <v>18589.83</v>
       </c>
       <c r="AL18">
-        <v>17352.62</v>
+        <v>19814.76</v>
       </c>
       <c r="AM18">
-        <v>15687.1</v>
+        <v>18149.24</v>
       </c>
       <c r="AN18">
-        <v>12572.37</v>
+        <v>15034.5</v>
       </c>
       <c r="AO18">
-        <v>19340.21</v>
+        <v>21802.35</v>
       </c>
       <c r="AP18">
-        <v>18118.11</v>
+        <v>20580.24</v>
       </c>
       <c r="AQ18">
-        <v>16896</v>
+        <v>19358.14</v>
       </c>
       <c r="AR18">
-        <v>18980.68</v>
+        <v>21442.81</v>
       </c>
       <c r="AS18">
-        <v>16982.05</v>
+        <v>19444.19</v>
       </c>
       <c r="AT18">
-        <v>13244.37</v>
+        <v>15706.51</v>
       </c>
       <c r="AU18">
-        <v>21365.67</v>
+        <v>23827.8</v>
       </c>
       <c r="AV18">
-        <v>19899.14</v>
+        <v>22361.28</v>
       </c>
       <c r="AW18">
-        <v>18432.62</v>
+        <v>20894.76</v>
       </c>
       <c r="AX18">
-        <v>19794.68</v>
+        <v>22256.82</v>
       </c>
       <c r="AY18">
-        <v>17629.5</v>
+        <v>20091.64</v>
       </c>
       <c r="AZ18">
-        <v>13580.35</v>
+        <v>16042.48</v>
       </c>
       <c r="BA18">
-        <v>22378.4</v>
+        <v>24840.53</v>
       </c>
       <c r="BB18">
-        <v>20789.66</v>
+        <v>23251.8</v>
       </c>
       <c r="BC18">
-        <v>19200.93</v>
+        <v>21663.07</v>
       </c>
       <c r="BD18">
-        <v>21422.73</v>
+        <v>23884.87</v>
       </c>
       <c r="BE18">
-        <v>18924.45</v>
+        <v>21386.59</v>
       </c>
       <c r="BF18">
-        <v>14252.35</v>
+        <v>16714.49</v>
       </c>
       <c r="BG18">
-        <v>24403.76</v>
+        <v>26865.9</v>
       </c>
       <c r="BH18">
-        <v>22570.61</v>
+        <v>25032.75</v>
       </c>
       <c r="BI18">
-        <v>20737.46</v>
+        <v>23199.59</v>
       </c>
     </row>
     <row r="19">
@@ -3938,184 +3938,184 @@
         </is>
       </c>
       <c r="B19">
-        <v>23864.75</v>
+        <v>26328.38</v>
       </c>
       <c r="C19">
-        <v>23698.19</v>
+        <v>26161.83</v>
       </c>
       <c r="D19">
-        <v>23386.72</v>
+        <v>25850.36</v>
       </c>
       <c r="E19">
-        <v>24063.52</v>
+        <v>26527.16</v>
       </c>
       <c r="F19">
-        <v>23941.31</v>
+        <v>26404.95</v>
       </c>
       <c r="G19">
-        <v>23819.1</v>
+        <v>26282.74</v>
       </c>
       <c r="H19">
-        <v>25493.4</v>
+        <v>27957.04</v>
       </c>
       <c r="I19">
-        <v>24993.75</v>
+        <v>27457.39</v>
       </c>
       <c r="J19">
-        <v>24059.33</v>
+        <v>26522.97</v>
       </c>
       <c r="K19">
-        <v>26089.26</v>
+        <v>28552.89</v>
       </c>
       <c r="L19">
-        <v>25722.63</v>
+        <v>28186.26</v>
       </c>
       <c r="M19">
-        <v>25356</v>
+        <v>27819.63</v>
       </c>
       <c r="N19">
-        <v>26306.62</v>
+        <v>28770.25</v>
       </c>
       <c r="O19">
-        <v>25640.41</v>
+        <v>28104.05</v>
       </c>
       <c r="P19">
-        <v>24394.51</v>
+        <v>26858.15</v>
       </c>
       <c r="Q19">
-        <v>27102.03</v>
+        <v>29565.67</v>
       </c>
       <c r="R19">
-        <v>26613.19</v>
+        <v>29076.83</v>
       </c>
       <c r="S19">
-        <v>26124.35</v>
+        <v>28587.99</v>
       </c>
       <c r="T19">
-        <v>27934.06</v>
+        <v>30397.7</v>
       </c>
       <c r="U19">
-        <v>26934.75</v>
+        <v>29398.39</v>
       </c>
       <c r="V19">
-        <v>25065.91</v>
+        <v>27529.55</v>
       </c>
       <c r="W19">
-        <v>29126.79</v>
+        <v>31590.43</v>
       </c>
       <c r="X19">
-        <v>28393.53</v>
+        <v>30857.17</v>
       </c>
       <c r="Y19">
-        <v>27660.27</v>
+        <v>30123.91</v>
       </c>
       <c r="Z19">
-        <v>28748.07</v>
+        <v>31211.7</v>
       </c>
       <c r="AA19">
-        <v>27582.2</v>
+        <v>30045.84</v>
       </c>
       <c r="AB19">
-        <v>25401.89</v>
+        <v>27865.52</v>
       </c>
       <c r="AC19">
-        <v>30139.57</v>
+        <v>32603.21</v>
       </c>
       <c r="AD19">
-        <v>29284.1</v>
+        <v>31747.73</v>
       </c>
       <c r="AE19">
-        <v>28428.62</v>
+        <v>30892.26</v>
       </c>
       <c r="AF19">
-        <v>30376.12</v>
+        <v>32839.76</v>
       </c>
       <c r="AG19">
-        <v>28877.15</v>
+        <v>31340.79</v>
       </c>
       <c r="AH19">
-        <v>26073.89</v>
+        <v>28537.53</v>
       </c>
       <c r="AI19">
-        <v>32164.98</v>
+        <v>34628.62</v>
       </c>
       <c r="AJ19">
-        <v>31065.09</v>
+        <v>33528.73</v>
       </c>
       <c r="AK19">
-        <v>29965.2</v>
+        <v>32428.83</v>
       </c>
       <c r="AL19">
-        <v>31190.12</v>
+        <v>33653.76</v>
       </c>
       <c r="AM19">
-        <v>29524.6</v>
+        <v>31988.24</v>
       </c>
       <c r="AN19">
-        <v>26409.87</v>
+        <v>28873.5</v>
       </c>
       <c r="AO19">
-        <v>33177.71</v>
+        <v>35641.35</v>
       </c>
       <c r="AP19">
-        <v>31955.61</v>
+        <v>34419.24</v>
       </c>
       <c r="AQ19">
-        <v>30733.5</v>
+        <v>33197.14</v>
       </c>
       <c r="AR19">
-        <v>32818.18</v>
+        <v>35281.81</v>
       </c>
       <c r="AS19">
-        <v>30819.55</v>
+        <v>33283.19</v>
       </c>
       <c r="AT19">
-        <v>27081.87</v>
+        <v>29545.51</v>
       </c>
       <c r="AU19">
-        <v>35203.17</v>
+        <v>37666.8</v>
       </c>
       <c r="AV19">
-        <v>33736.64</v>
+        <v>36200.28</v>
       </c>
       <c r="AW19">
-        <v>32270.12</v>
+        <v>34733.76</v>
       </c>
       <c r="AX19">
-        <v>33632.18</v>
+        <v>36095.82</v>
       </c>
       <c r="AY19">
-        <v>31467</v>
+        <v>33930.64</v>
       </c>
       <c r="AZ19">
-        <v>27417.85</v>
+        <v>29881.48</v>
       </c>
       <c r="BA19">
-        <v>36215.9</v>
+        <v>38679.53</v>
       </c>
       <c r="BB19">
-        <v>34627.16</v>
+        <v>37090.8</v>
       </c>
       <c r="BC19">
-        <v>33038.43</v>
+        <v>35502.07</v>
       </c>
       <c r="BD19">
-        <v>35260.23</v>
+        <v>37723.87</v>
       </c>
       <c r="BE19">
-        <v>32761.95</v>
+        <v>35225.59</v>
       </c>
       <c r="BF19">
-        <v>28089.85</v>
+        <v>30553.49</v>
       </c>
       <c r="BG19">
-        <v>38241.26</v>
+        <v>40704.9</v>
       </c>
       <c r="BH19">
-        <v>36408.11</v>
+        <v>38871.75</v>
       </c>
       <c r="BI19">
-        <v>34574.96</v>
+        <v>37038.59</v>
       </c>
     </row>
     <row r="20">
@@ -4125,184 +4125,184 @@
         </is>
       </c>
       <c r="B20">
-        <v>-9536.54</v>
+        <v>-7075.9</v>
       </c>
       <c r="C20">
-        <v>-9703.09</v>
+        <v>-7242.45</v>
       </c>
       <c r="D20">
-        <v>-10014.56</v>
+        <v>-7553.93</v>
       </c>
       <c r="E20">
-        <v>-9332.31</v>
+        <v>-6871.68</v>
       </c>
       <c r="F20">
-        <v>-9454.52</v>
+        <v>-6993.89</v>
       </c>
       <c r="G20">
-        <v>-9576.73</v>
+        <v>-7116.1</v>
       </c>
       <c r="H20">
-        <v>-7823.3</v>
+        <v>-5362.66</v>
       </c>
       <c r="I20">
-        <v>-8322.96</v>
+        <v>-5862.32</v>
       </c>
       <c r="J20">
-        <v>-9257.38</v>
+        <v>-6796.74</v>
       </c>
       <c r="K20">
-        <v>-7211.14</v>
+        <v>-4750.5</v>
       </c>
       <c r="L20">
-        <v>-7577.77</v>
+        <v>-5117.13</v>
       </c>
       <c r="M20">
-        <v>-7944.4</v>
+        <v>-5483.76</v>
       </c>
       <c r="N20">
-        <v>-6968.15</v>
+        <v>-4507.51</v>
       </c>
       <c r="O20">
-        <v>-7634.36</v>
+        <v>-5173.72</v>
       </c>
       <c r="P20">
-        <v>-8880.25</v>
+        <v>-6419.61</v>
       </c>
       <c r="Q20">
-        <v>-6150.64</v>
+        <v>-3690.01</v>
       </c>
       <c r="R20">
-        <v>-6639.49</v>
+        <v>-4178.85</v>
       </c>
       <c r="S20">
-        <v>-7128.33</v>
+        <v>-4667.69</v>
       </c>
       <c r="T20">
-        <v>-5256.4</v>
+        <v>-2795.76</v>
       </c>
       <c r="U20">
-        <v>-6255.71</v>
+        <v>-3795.08</v>
       </c>
       <c r="V20">
-        <v>-8124.56</v>
+        <v>-5663.92</v>
       </c>
       <c r="W20">
-        <v>-4030.45</v>
+        <v>-1569.81</v>
       </c>
       <c r="X20">
-        <v>-4763.71</v>
+        <v>-2303.07</v>
       </c>
       <c r="Y20">
-        <v>-5496.97</v>
+        <v>-3036.33</v>
       </c>
       <c r="Z20">
-        <v>-4400.23</v>
+        <v>-1939.59</v>
       </c>
       <c r="AA20">
-        <v>-5566.09</v>
+        <v>-3105.45</v>
       </c>
       <c r="AB20">
-        <v>-7746.41</v>
+        <v>-5285.77</v>
       </c>
       <c r="AC20">
-        <v>-2970.05</v>
+        <v>-509.41</v>
       </c>
       <c r="AD20">
-        <v>-3825.52</v>
+        <v>-1364.88</v>
       </c>
       <c r="AE20">
-        <v>-4680.99</v>
+        <v>-2220.35</v>
       </c>
       <c r="AF20">
-        <v>-2687.78</v>
+        <v>-227.14</v>
       </c>
       <c r="AG20">
-        <v>-4186.75</v>
+        <v>-1726.11</v>
       </c>
       <c r="AH20">
-        <v>-6990.01</v>
+        <v>-4529.37</v>
       </c>
       <c r="AI20">
-        <v>-849.2</v>
+        <v>1611.44</v>
       </c>
       <c r="AJ20">
-        <v>-1949.09</v>
+        <v>511.55</v>
       </c>
       <c r="AK20">
-        <v>-3048.98</v>
+        <v>-588.34</v>
       </c>
       <c r="AL20">
-        <v>-1831.56</v>
+        <v>629.08</v>
       </c>
       <c r="AM20">
-        <v>-3497.08</v>
+        <v>-1036.44</v>
       </c>
       <c r="AN20">
-        <v>-6611.81</v>
+        <v>-4151.18</v>
       </c>
       <c r="AO20">
-        <v>211.25</v>
+        <v>2671.89</v>
       </c>
       <c r="AP20">
-        <v>-1010.85</v>
+        <v>1449.78</v>
       </c>
       <c r="AQ20">
-        <v>-2232.95</v>
+        <v>227.68</v>
       </c>
       <c r="AR20">
-        <v>-119.16</v>
+        <v>2341.48</v>
       </c>
       <c r="AS20">
-        <v>-2117.78</v>
+        <v>342.86</v>
       </c>
       <c r="AT20">
-        <v>-5855.47</v>
+        <v>-3394.83</v>
       </c>
       <c r="AU20">
-        <v>2332.1</v>
+        <v>4792.74</v>
       </c>
       <c r="AV20">
-        <v>865.58</v>
+        <v>3326.21</v>
       </c>
       <c r="AW20">
-        <v>-600.95</v>
+        <v>1859.69</v>
       </c>
       <c r="AX20">
-        <v>737.02</v>
+        <v>3197.66</v>
       </c>
       <c r="AY20">
-        <v>-1428.16</v>
+        <v>1032.48</v>
       </c>
       <c r="AZ20">
-        <v>-5477.32</v>
+        <v>-3016.68</v>
       </c>
       <c r="BA20">
-        <v>3392.54</v>
+        <v>5853.18</v>
       </c>
       <c r="BB20">
-        <v>1803.81</v>
+        <v>4264.45</v>
       </c>
       <c r="BC20">
-        <v>215.08</v>
+        <v>2675.72</v>
       </c>
       <c r="BD20">
-        <v>2449.42</v>
+        <v>4910.06</v>
       </c>
       <c r="BE20">
-        <v>-48.86</v>
+        <v>2411.78</v>
       </c>
       <c r="BF20">
-        <v>-4720.97</v>
+        <v>-2260.33</v>
       </c>
       <c r="BG20">
-        <v>5513.3</v>
+        <v>7973.94</v>
       </c>
       <c r="BH20">
-        <v>3680.15</v>
+        <v>6140.79</v>
       </c>
       <c r="BI20">
-        <v>1846.99</v>
+        <v>4307.63</v>
       </c>
     </row>
     <row r="21">
@@ -4312,184 +4312,184 @@
         </is>
       </c>
       <c r="B21">
-        <v>-4924.04</v>
+        <v>-2461.9</v>
       </c>
       <c r="C21">
-        <v>-5090.59</v>
+        <v>-2628.45</v>
       </c>
       <c r="D21">
-        <v>-5402.06</v>
+        <v>-2939.93</v>
       </c>
       <c r="E21">
-        <v>-4719.81</v>
+        <v>-2257.68</v>
       </c>
       <c r="F21">
-        <v>-4842.02</v>
+        <v>-2379.89</v>
       </c>
       <c r="G21">
-        <v>-4964.23</v>
+        <v>-2502.1</v>
       </c>
       <c r="H21">
-        <v>-3210.8</v>
+        <v>-748.66</v>
       </c>
       <c r="I21">
-        <v>-3710.46</v>
+        <v>-1248.32</v>
       </c>
       <c r="J21">
-        <v>-4644.88</v>
+        <v>-2182.74</v>
       </c>
       <c r="K21">
-        <v>-2598.64</v>
+        <v>-136.5</v>
       </c>
       <c r="L21">
-        <v>-2965.27</v>
+        <v>-503.13</v>
       </c>
       <c r="M21">
-        <v>-3331.9</v>
+        <v>-869.76</v>
       </c>
       <c r="N21">
-        <v>-2355.65</v>
+        <v>106.49</v>
       </c>
       <c r="O21">
-        <v>-3021.86</v>
+        <v>-559.72</v>
       </c>
       <c r="P21">
-        <v>-4267.75</v>
+        <v>-1805.61</v>
       </c>
       <c r="Q21">
-        <v>-1538.14</v>
+        <v>923.99</v>
       </c>
       <c r="R21">
-        <v>-2026.99</v>
+        <v>435.15</v>
       </c>
       <c r="S21">
-        <v>-2515.83</v>
+        <v>-53.69</v>
       </c>
       <c r="T21">
-        <v>-643.9</v>
+        <v>1818.24</v>
       </c>
       <c r="U21">
-        <v>-1643.21</v>
+        <v>818.92</v>
       </c>
       <c r="V21">
-        <v>-3512.06</v>
+        <v>-1049.92</v>
       </c>
       <c r="W21">
-        <v>582.05</v>
+        <v>3044.19</v>
       </c>
       <c r="X21">
-        <v>-151.21</v>
+        <v>2310.93</v>
       </c>
       <c r="Y21">
-        <v>-884.47</v>
+        <v>1577.67</v>
       </c>
       <c r="Z21">
-        <v>212.27</v>
+        <v>2674.41</v>
       </c>
       <c r="AA21">
-        <v>-953.59</v>
+        <v>1508.55</v>
       </c>
       <c r="AB21">
-        <v>-3133.91</v>
+        <v>-671.77</v>
       </c>
       <c r="AC21">
-        <v>1642.45</v>
+        <v>4104.59</v>
       </c>
       <c r="AD21">
-        <v>786.98</v>
+        <v>3249.12</v>
       </c>
       <c r="AE21">
-        <v>-68.49</v>
+        <v>2393.65</v>
       </c>
       <c r="AF21">
-        <v>1924.72</v>
+        <v>4386.86</v>
       </c>
       <c r="AG21">
-        <v>425.75</v>
+        <v>2887.89</v>
       </c>
       <c r="AH21">
-        <v>-2377.51</v>
+        <v>84.63</v>
       </c>
       <c r="AI21">
-        <v>3763.3</v>
+        <v>6225.44</v>
       </c>
       <c r="AJ21">
-        <v>2663.41</v>
+        <v>5125.55</v>
       </c>
       <c r="AK21">
-        <v>1563.52</v>
+        <v>4025.66</v>
       </c>
       <c r="AL21">
-        <v>2780.94</v>
+        <v>5243.08</v>
       </c>
       <c r="AM21">
-        <v>1115.42</v>
+        <v>3577.56</v>
       </c>
       <c r="AN21">
-        <v>-1999.31</v>
+        <v>462.82</v>
       </c>
       <c r="AO21">
-        <v>4823.75</v>
+        <v>7285.89</v>
       </c>
       <c r="AP21">
-        <v>3601.65</v>
+        <v>6063.78</v>
       </c>
       <c r="AQ21">
-        <v>2379.55</v>
+        <v>4841.68</v>
       </c>
       <c r="AR21">
-        <v>4493.34</v>
+        <v>6955.48</v>
       </c>
       <c r="AS21">
-        <v>2494.72</v>
+        <v>4956.86</v>
       </c>
       <c r="AT21">
-        <v>-1242.97</v>
+        <v>1219.17</v>
       </c>
       <c r="AU21">
-        <v>6944.6</v>
+        <v>9406.74</v>
       </c>
       <c r="AV21">
-        <v>5478.08</v>
+        <v>7940.21</v>
       </c>
       <c r="AW21">
-        <v>4011.55</v>
+        <v>6473.69</v>
       </c>
       <c r="AX21">
-        <v>5349.52</v>
+        <v>7811.66</v>
       </c>
       <c r="AY21">
-        <v>3184.34</v>
+        <v>5646.48</v>
       </c>
       <c r="AZ21">
-        <v>-864.82</v>
+        <v>1597.32</v>
       </c>
       <c r="BA21">
-        <v>8005.04</v>
+        <v>10467.18</v>
       </c>
       <c r="BB21">
-        <v>6416.31</v>
+        <v>8878.45</v>
       </c>
       <c r="BC21">
-        <v>4827.58</v>
+        <v>7289.72</v>
       </c>
       <c r="BD21">
-        <v>7061.92</v>
+        <v>9524.06</v>
       </c>
       <c r="BE21">
-        <v>4563.64</v>
+        <v>7025.78</v>
       </c>
       <c r="BF21">
-        <v>-108.47</v>
+        <v>2353.67</v>
       </c>
       <c r="BG21">
-        <v>10125.8</v>
+        <v>12587.94</v>
       </c>
       <c r="BH21">
-        <v>8292.65</v>
+        <v>10754.79</v>
       </c>
       <c r="BI21">
-        <v>6459.49</v>
+        <v>8921.63</v>
       </c>
     </row>
     <row r="22">
@@ -4499,184 +4499,184 @@
         </is>
       </c>
       <c r="B22">
-        <v>-311.54</v>
+        <v>2152.1</v>
       </c>
       <c r="C22">
-        <v>-478.09</v>
+        <v>1985.55</v>
       </c>
       <c r="D22">
-        <v>-789.56</v>
+        <v>1674.07</v>
       </c>
       <c r="E22">
-        <v>-107.31</v>
+        <v>2356.32</v>
       </c>
       <c r="F22">
-        <v>-229.52</v>
+        <v>2234.11</v>
       </c>
       <c r="G22">
-        <v>-351.73</v>
+        <v>2111.9</v>
       </c>
       <c r="H22">
-        <v>1401.7</v>
+        <v>3865.34</v>
       </c>
       <c r="I22">
-        <v>902.04</v>
+        <v>3365.68</v>
       </c>
       <c r="J22">
-        <v>-32.38</v>
+        <v>2431.26</v>
       </c>
       <c r="K22">
-        <v>2013.86</v>
+        <v>4477.5</v>
       </c>
       <c r="L22">
-        <v>1647.23</v>
+        <v>4110.87</v>
       </c>
       <c r="M22">
-        <v>1280.6</v>
+        <v>3744.24</v>
       </c>
       <c r="N22">
-        <v>2256.85</v>
+        <v>4720.49</v>
       </c>
       <c r="O22">
-        <v>1590.64</v>
+        <v>4054.28</v>
       </c>
       <c r="P22">
-        <v>344.75</v>
+        <v>2808.39</v>
       </c>
       <c r="Q22">
-        <v>3074.36</v>
+        <v>5537.99</v>
       </c>
       <c r="R22">
-        <v>2585.51</v>
+        <v>5049.15</v>
       </c>
       <c r="S22">
-        <v>2096.67</v>
+        <v>4560.31</v>
       </c>
       <c r="T22">
-        <v>3968.6</v>
+        <v>6432.24</v>
       </c>
       <c r="U22">
-        <v>2969.29</v>
+        <v>5432.92</v>
       </c>
       <c r="V22">
-        <v>1100.44</v>
+        <v>3564.08</v>
       </c>
       <c r="W22">
-        <v>5194.55</v>
+        <v>7658.19</v>
       </c>
       <c r="X22">
-        <v>4461.29</v>
+        <v>6924.93</v>
       </c>
       <c r="Y22">
-        <v>3728.03</v>
+        <v>6191.67</v>
       </c>
       <c r="Z22">
-        <v>4824.77</v>
+        <v>7288.41</v>
       </c>
       <c r="AA22">
-        <v>3658.91</v>
+        <v>6122.55</v>
       </c>
       <c r="AB22">
-        <v>1478.59</v>
+        <v>3942.23</v>
       </c>
       <c r="AC22">
-        <v>6254.95</v>
+        <v>8718.59</v>
       </c>
       <c r="AD22">
-        <v>5399.48</v>
+        <v>7863.12</v>
       </c>
       <c r="AE22">
-        <v>4544.01</v>
+        <v>7007.65</v>
       </c>
       <c r="AF22">
-        <v>6537.22</v>
+        <v>9000.86</v>
       </c>
       <c r="AG22">
-        <v>5038.25</v>
+        <v>7501.89</v>
       </c>
       <c r="AH22">
-        <v>2234.99</v>
+        <v>4698.63</v>
       </c>
       <c r="AI22">
-        <v>8375.8</v>
+        <v>10839.44</v>
       </c>
       <c r="AJ22">
-        <v>7275.91</v>
+        <v>9739.55</v>
       </c>
       <c r="AK22">
-        <v>6176.02</v>
+        <v>8639.66</v>
       </c>
       <c r="AL22">
-        <v>7393.44</v>
+        <v>9857.08</v>
       </c>
       <c r="AM22">
-        <v>5727.92</v>
+        <v>8191.56</v>
       </c>
       <c r="AN22">
-        <v>2613.19</v>
+        <v>5076.82</v>
       </c>
       <c r="AO22">
-        <v>9436.25</v>
+        <v>11899.89</v>
       </c>
       <c r="AP22">
-        <v>8214.15</v>
+        <v>10677.78</v>
       </c>
       <c r="AQ22">
-        <v>6992.05</v>
+        <v>9455.68</v>
       </c>
       <c r="AR22">
-        <v>9105.84</v>
+        <v>11569.48</v>
       </c>
       <c r="AS22">
-        <v>7107.22</v>
+        <v>9570.86</v>
       </c>
       <c r="AT22">
-        <v>3369.53</v>
+        <v>5833.17</v>
       </c>
       <c r="AU22">
-        <v>11557.1</v>
+        <v>14020.74</v>
       </c>
       <c r="AV22">
-        <v>10090.58</v>
+        <v>12554.21</v>
       </c>
       <c r="AW22">
-        <v>8624.05</v>
+        <v>11087.69</v>
       </c>
       <c r="AX22">
-        <v>9962.02</v>
+        <v>12425.66</v>
       </c>
       <c r="AY22">
-        <v>7796.84</v>
+        <v>10260.48</v>
       </c>
       <c r="AZ22">
-        <v>3747.68</v>
+        <v>6211.32</v>
       </c>
       <c r="BA22">
-        <v>12617.54</v>
+        <v>15081.18</v>
       </c>
       <c r="BB22">
-        <v>11028.81</v>
+        <v>13492.45</v>
       </c>
       <c r="BC22">
-        <v>9440.08</v>
+        <v>11903.72</v>
       </c>
       <c r="BD22">
-        <v>11674.42</v>
+        <v>14138.06</v>
       </c>
       <c r="BE22">
-        <v>9176.14</v>
+        <v>11639.78</v>
       </c>
       <c r="BF22">
-        <v>4504.03</v>
+        <v>6967.67</v>
       </c>
       <c r="BG22">
-        <v>14738.3</v>
+        <v>17201.94</v>
       </c>
       <c r="BH22">
-        <v>12905.15</v>
+        <v>15368.79</v>
       </c>
       <c r="BI22">
-        <v>11071.99</v>
+        <v>13535.63</v>
       </c>
     </row>
     <row r="23">
@@ -4686,184 +4686,184 @@
         </is>
       </c>
       <c r="B23">
-        <v>-6652.26</v>
+        <v>-4192.56</v>
       </c>
       <c r="C23">
-        <v>-6818.81</v>
+        <v>-4359.11</v>
       </c>
       <c r="D23">
-        <v>-7130.29</v>
+        <v>-4670.59</v>
       </c>
       <c r="E23">
-        <v>-6448.04</v>
+        <v>-3988.34</v>
       </c>
       <c r="F23">
-        <v>-6570.25</v>
+        <v>-4110.55</v>
       </c>
       <c r="G23">
-        <v>-6692.46</v>
+        <v>-4232.76</v>
       </c>
       <c r="H23">
-        <v>-4939.02</v>
+        <v>-2479.32</v>
       </c>
       <c r="I23">
-        <v>-5438.68</v>
+        <v>-2978.98</v>
       </c>
       <c r="J23">
-        <v>-6373.1</v>
+        <v>-3913.4</v>
       </c>
       <c r="K23">
-        <v>-4326.86</v>
+        <v>-1867.16</v>
       </c>
       <c r="L23">
-        <v>-4693.49</v>
+        <v>-2233.79</v>
       </c>
       <c r="M23">
-        <v>-5060.12</v>
+        <v>-2600.42</v>
       </c>
       <c r="N23">
-        <v>-4083.87</v>
+        <v>-1624.17</v>
       </c>
       <c r="O23">
-        <v>-4750.08</v>
+        <v>-2290.38</v>
       </c>
       <c r="P23">
-        <v>-5995.98</v>
+        <v>-3536.28</v>
       </c>
       <c r="Q23">
-        <v>-3266.37</v>
+        <v>-806.67</v>
       </c>
       <c r="R23">
-        <v>-3755.21</v>
+        <v>-1295.51</v>
       </c>
       <c r="S23">
-        <v>-4244.05</v>
+        <v>-1784.35</v>
       </c>
       <c r="T23">
-        <v>-2372.13</v>
+        <v>87.57</v>
       </c>
       <c r="U23">
-        <v>-3371.44</v>
+        <v>-911.74</v>
       </c>
       <c r="V23">
-        <v>-5240.28</v>
+        <v>-2780.58</v>
       </c>
       <c r="W23">
-        <v>-1146.17</v>
+        <v>1313.53</v>
       </c>
       <c r="X23">
-        <v>-1879.43</v>
+        <v>580.27</v>
       </c>
       <c r="Y23">
-        <v>-2612.7</v>
+        <v>-153</v>
       </c>
       <c r="Z23">
-        <v>-1515.95</v>
+        <v>943.75</v>
       </c>
       <c r="AA23">
-        <v>-2681.81</v>
+        <v>-222.11</v>
       </c>
       <c r="AB23">
-        <v>-4862.13</v>
+        <v>-2402.43</v>
       </c>
       <c r="AC23">
-        <v>-85.77</v>
+        <v>2373.93</v>
       </c>
       <c r="AD23">
-        <v>-941.24</v>
+        <v>1518.46</v>
       </c>
       <c r="AE23">
-        <v>-1796.71</v>
+        <v>662.99</v>
       </c>
       <c r="AF23">
-        <v>196.49</v>
+        <v>2656.19</v>
       </c>
       <c r="AG23">
-        <v>-1302.47</v>
+        <v>1157.23</v>
       </c>
       <c r="AH23">
-        <v>-4105.74</v>
+        <v>-1646.04</v>
       </c>
       <c r="AI23">
-        <v>2035.08</v>
+        <v>4494.78</v>
       </c>
       <c r="AJ23">
-        <v>935.18</v>
+        <v>3394.88</v>
       </c>
       <c r="AK23">
-        <v>-164.71</v>
+        <v>2294.99</v>
       </c>
       <c r="AL23">
-        <v>1052.72</v>
+        <v>3512.42</v>
       </c>
       <c r="AM23">
-        <v>-612.8</v>
+        <v>1846.9</v>
       </c>
       <c r="AN23">
-        <v>-3727.54</v>
+        <v>-1267.84</v>
       </c>
       <c r="AO23">
-        <v>3095.52</v>
+        <v>5555.22</v>
       </c>
       <c r="AP23">
-        <v>1873.42</v>
+        <v>4333.12</v>
       </c>
       <c r="AQ23">
-        <v>651.32</v>
+        <v>3111.02</v>
       </c>
       <c r="AR23">
-        <v>2765.12</v>
+        <v>5224.82</v>
       </c>
       <c r="AS23">
-        <v>766.49</v>
+        <v>3226.19</v>
       </c>
       <c r="AT23">
-        <v>-2971.19</v>
+        <v>-511.49</v>
       </c>
       <c r="AU23">
-        <v>5216.37</v>
+        <v>7676.07</v>
       </c>
       <c r="AV23">
-        <v>3749.85</v>
+        <v>6209.55</v>
       </c>
       <c r="AW23">
-        <v>2283.33</v>
+        <v>4743.03</v>
       </c>
       <c r="AX23">
-        <v>3621.29</v>
+        <v>6080.99</v>
       </c>
       <c r="AY23">
-        <v>1456.12</v>
+        <v>3915.82</v>
       </c>
       <c r="AZ23">
-        <v>-2593.04</v>
+        <v>-133.34</v>
       </c>
       <c r="BA23">
-        <v>6276.82</v>
+        <v>8736.52</v>
       </c>
       <c r="BB23">
-        <v>4688.09</v>
+        <v>7147.79</v>
       </c>
       <c r="BC23">
-        <v>3099.36</v>
+        <v>5559.06</v>
       </c>
       <c r="BD23">
-        <v>5333.69</v>
+        <v>7793.39</v>
       </c>
       <c r="BE23">
-        <v>2835.41</v>
+        <v>5295.11</v>
       </c>
       <c r="BF23">
-        <v>-1836.69</v>
+        <v>623.01</v>
       </c>
       <c r="BG23">
-        <v>8397.58</v>
+        <v>10857.28</v>
       </c>
       <c r="BH23">
-        <v>6564.42</v>
+        <v>9024.12</v>
       </c>
       <c r="BI23">
-        <v>4731.27</v>
+        <v>7190.97</v>
       </c>
     </row>
     <row r="24">
@@ -4873,184 +4873,184 @@
         </is>
       </c>
       <c r="B24">
-        <v>2572.74</v>
+        <v>5032.44</v>
       </c>
       <c r="C24">
-        <v>2406.19</v>
+        <v>4865.89</v>
       </c>
       <c r="D24">
-        <v>2094.71</v>
+        <v>4554.41</v>
       </c>
       <c r="E24">
-        <v>2776.96</v>
+        <v>5236.66</v>
       </c>
       <c r="F24">
-        <v>2654.75</v>
+        <v>5114.45</v>
       </c>
       <c r="G24">
-        <v>2532.54</v>
+        <v>4992.24</v>
       </c>
       <c r="H24">
-        <v>4285.98</v>
+        <v>6745.68</v>
       </c>
       <c r="I24">
-        <v>3786.32</v>
+        <v>6246.02</v>
       </c>
       <c r="J24">
-        <v>2851.9</v>
+        <v>5311.6</v>
       </c>
       <c r="K24">
-        <v>4898.14</v>
+        <v>7357.84</v>
       </c>
       <c r="L24">
-        <v>4531.51</v>
+        <v>6991.21</v>
       </c>
       <c r="M24">
-        <v>4164.88</v>
+        <v>6624.58</v>
       </c>
       <c r="N24">
-        <v>5141.13</v>
+        <v>7600.83</v>
       </c>
       <c r="O24">
-        <v>4474.92</v>
+        <v>6934.62</v>
       </c>
       <c r="P24">
-        <v>3229.02</v>
+        <v>5688.72</v>
       </c>
       <c r="Q24">
-        <v>5958.63</v>
+        <v>8418.33</v>
       </c>
       <c r="R24">
-        <v>5469.79</v>
+        <v>7929.49</v>
       </c>
       <c r="S24">
-        <v>4980.95</v>
+        <v>7440.65</v>
       </c>
       <c r="T24">
-        <v>6852.87</v>
+        <v>9312.57</v>
       </c>
       <c r="U24">
-        <v>5853.56</v>
+        <v>8313.26</v>
       </c>
       <c r="V24">
-        <v>3984.72</v>
+        <v>6444.42</v>
       </c>
       <c r="W24">
-        <v>8078.83</v>
+        <v>10538.53</v>
       </c>
       <c r="X24">
-        <v>7345.57</v>
+        <v>9805.27</v>
       </c>
       <c r="Y24">
-        <v>6612.3</v>
+        <v>9072</v>
       </c>
       <c r="Z24">
-        <v>7709.05</v>
+        <v>10168.75</v>
       </c>
       <c r="AA24">
-        <v>6543.19</v>
+        <v>9002.89</v>
       </c>
       <c r="AB24">
-        <v>4362.87</v>
+        <v>6822.57</v>
       </c>
       <c r="AC24">
-        <v>9139.23</v>
+        <v>11598.93</v>
       </c>
       <c r="AD24">
-        <v>8283.76</v>
+        <v>10743.46</v>
       </c>
       <c r="AE24">
-        <v>7428.29</v>
+        <v>9887.99</v>
       </c>
       <c r="AF24">
-        <v>9421.49</v>
+        <v>11881.19</v>
       </c>
       <c r="AG24">
-        <v>7922.53</v>
+        <v>10382.23</v>
       </c>
       <c r="AH24">
-        <v>5119.26</v>
+        <v>7578.96</v>
       </c>
       <c r="AI24">
-        <v>11260.08</v>
+        <v>13719.78</v>
       </c>
       <c r="AJ24">
-        <v>10160.18</v>
+        <v>12619.88</v>
       </c>
       <c r="AK24">
-        <v>9060.29</v>
+        <v>11519.99</v>
       </c>
       <c r="AL24">
-        <v>10277.72</v>
+        <v>12737.42</v>
       </c>
       <c r="AM24">
-        <v>8612.2</v>
+        <v>11071.9</v>
       </c>
       <c r="AN24">
-        <v>5497.46</v>
+        <v>7957.16</v>
       </c>
       <c r="AO24">
-        <v>12320.52</v>
+        <v>14780.22</v>
       </c>
       <c r="AP24">
-        <v>11098.42</v>
+        <v>13558.12</v>
       </c>
       <c r="AQ24">
-        <v>9876.32</v>
+        <v>12336.02</v>
       </c>
       <c r="AR24">
-        <v>11990.12</v>
+        <v>14449.82</v>
       </c>
       <c r="AS24">
-        <v>9991.49</v>
+        <v>12451.19</v>
       </c>
       <c r="AT24">
-        <v>6253.81</v>
+        <v>8713.51</v>
       </c>
       <c r="AU24">
-        <v>14441.37</v>
+        <v>16901.07</v>
       </c>
       <c r="AV24">
-        <v>12974.85</v>
+        <v>15434.55</v>
       </c>
       <c r="AW24">
-        <v>11508.33</v>
+        <v>13968.03</v>
       </c>
       <c r="AX24">
-        <v>12846.29</v>
+        <v>15305.99</v>
       </c>
       <c r="AY24">
-        <v>10681.12</v>
+        <v>13140.82</v>
       </c>
       <c r="AZ24">
-        <v>6631.96</v>
+        <v>9091.66</v>
       </c>
       <c r="BA24">
-        <v>15501.82</v>
+        <v>17961.52</v>
       </c>
       <c r="BB24">
-        <v>13913.09</v>
+        <v>16372.79</v>
       </c>
       <c r="BC24">
-        <v>12324.36</v>
+        <v>14784.06</v>
       </c>
       <c r="BD24">
-        <v>14558.69</v>
+        <v>17018.39</v>
       </c>
       <c r="BE24">
-        <v>12060.41</v>
+        <v>14520.11</v>
       </c>
       <c r="BF24">
-        <v>7388.31</v>
+        <v>9848.01</v>
       </c>
       <c r="BG24">
-        <v>17622.58</v>
+        <v>20082.28</v>
       </c>
       <c r="BH24">
-        <v>15789.42</v>
+        <v>18249.12</v>
       </c>
       <c r="BI24">
-        <v>13956.27</v>
+        <v>16415.97</v>
       </c>
     </row>
     <row r="25">
@@ -5060,184 +5060,184 @@
         </is>
       </c>
       <c r="B25">
-        <v>11797.74</v>
+        <v>14257.44</v>
       </c>
       <c r="C25">
-        <v>11631.19</v>
+        <v>14090.89</v>
       </c>
       <c r="D25">
-        <v>11319.71</v>
+        <v>13779.41</v>
       </c>
       <c r="E25">
-        <v>12001.96</v>
+        <v>14461.66</v>
       </c>
       <c r="F25">
-        <v>11879.75</v>
+        <v>14339.45</v>
       </c>
       <c r="G25">
-        <v>11757.54</v>
+        <v>14217.24</v>
       </c>
       <c r="H25">
-        <v>13510.98</v>
+        <v>15970.68</v>
       </c>
       <c r="I25">
-        <v>13011.32</v>
+        <v>15471.02</v>
       </c>
       <c r="J25">
-        <v>12076.9</v>
+        <v>14536.6</v>
       </c>
       <c r="K25">
-        <v>14123.14</v>
+        <v>16582.84</v>
       </c>
       <c r="L25">
-        <v>13756.51</v>
+        <v>16216.21</v>
       </c>
       <c r="M25">
-        <v>13389.88</v>
+        <v>15849.58</v>
       </c>
       <c r="N25">
-        <v>14366.13</v>
+        <v>16825.83</v>
       </c>
       <c r="O25">
-        <v>13699.92</v>
+        <v>16159.62</v>
       </c>
       <c r="P25">
-        <v>12454.02</v>
+        <v>14913.72</v>
       </c>
       <c r="Q25">
-        <v>15183.63</v>
+        <v>17643.33</v>
       </c>
       <c r="R25">
-        <v>14694.79</v>
+        <v>17154.49</v>
       </c>
       <c r="S25">
-        <v>14205.95</v>
+        <v>16665.65</v>
       </c>
       <c r="T25">
-        <v>16077.87</v>
+        <v>18537.57</v>
       </c>
       <c r="U25">
-        <v>15078.56</v>
+        <v>17538.26</v>
       </c>
       <c r="V25">
-        <v>13209.72</v>
+        <v>15669.42</v>
       </c>
       <c r="W25">
-        <v>17303.83</v>
+        <v>19763.53</v>
       </c>
       <c r="X25">
-        <v>16570.57</v>
+        <v>19030.27</v>
       </c>
       <c r="Y25">
-        <v>15837.3</v>
+        <v>18297</v>
       </c>
       <c r="Z25">
-        <v>16934.05</v>
+        <v>19393.75</v>
       </c>
       <c r="AA25">
-        <v>15768.19</v>
+        <v>18227.89</v>
       </c>
       <c r="AB25">
-        <v>13587.87</v>
+        <v>16047.57</v>
       </c>
       <c r="AC25">
-        <v>18364.23</v>
+        <v>20823.93</v>
       </c>
       <c r="AD25">
-        <v>17508.76</v>
+        <v>19968.46</v>
       </c>
       <c r="AE25">
-        <v>16653.29</v>
+        <v>19112.99</v>
       </c>
       <c r="AF25">
-        <v>18646.49</v>
+        <v>21106.19</v>
       </c>
       <c r="AG25">
-        <v>17147.53</v>
+        <v>19607.23</v>
       </c>
       <c r="AH25">
-        <v>14344.26</v>
+        <v>16803.96</v>
       </c>
       <c r="AI25">
-        <v>20485.08</v>
+        <v>22944.78</v>
       </c>
       <c r="AJ25">
-        <v>19385.18</v>
+        <v>21844.88</v>
       </c>
       <c r="AK25">
-        <v>18285.29</v>
+        <v>20744.99</v>
       </c>
       <c r="AL25">
-        <v>19502.72</v>
+        <v>21962.42</v>
       </c>
       <c r="AM25">
-        <v>17837.2</v>
+        <v>20296.9</v>
       </c>
       <c r="AN25">
-        <v>14722.46</v>
+        <v>17182.16</v>
       </c>
       <c r="AO25">
-        <v>21545.52</v>
+        <v>24005.22</v>
       </c>
       <c r="AP25">
-        <v>20323.42</v>
+        <v>22783.12</v>
       </c>
       <c r="AQ25">
-        <v>19101.32</v>
+        <v>21561.02</v>
       </c>
       <c r="AR25">
-        <v>21215.12</v>
+        <v>23674.82</v>
       </c>
       <c r="AS25">
-        <v>19216.49</v>
+        <v>21676.19</v>
       </c>
       <c r="AT25">
-        <v>15478.81</v>
+        <v>17938.51</v>
       </c>
       <c r="AU25">
-        <v>23666.37</v>
+        <v>26126.07</v>
       </c>
       <c r="AV25">
-        <v>22199.85</v>
+        <v>24659.55</v>
       </c>
       <c r="AW25">
-        <v>20733.33</v>
+        <v>23193.03</v>
       </c>
       <c r="AX25">
-        <v>22071.29</v>
+        <v>24530.99</v>
       </c>
       <c r="AY25">
-        <v>19906.12</v>
+        <v>22365.82</v>
       </c>
       <c r="AZ25">
-        <v>15856.96</v>
+        <v>18316.66</v>
       </c>
       <c r="BA25">
-        <v>24726.82</v>
+        <v>27186.52</v>
       </c>
       <c r="BB25">
-        <v>23138.09</v>
+        <v>25597.79</v>
       </c>
       <c r="BC25">
-        <v>21549.36</v>
+        <v>24009.06</v>
       </c>
       <c r="BD25">
-        <v>23783.69</v>
+        <v>26243.39</v>
       </c>
       <c r="BE25">
-        <v>21285.41</v>
+        <v>23745.11</v>
       </c>
       <c r="BF25">
-        <v>16613.31</v>
+        <v>19073.01</v>
       </c>
       <c r="BG25">
-        <v>26847.58</v>
+        <v>29307.28</v>
       </c>
       <c r="BH25">
-        <v>25014.42</v>
+        <v>27474.12</v>
       </c>
       <c r="BI25">
-        <v>23181.27</v>
+        <v>25640.97</v>
       </c>
     </row>
     <row r="26">
@@ -5247,184 +5247,184 @@
         </is>
       </c>
       <c r="B26">
-        <v>-3767.99</v>
+        <v>-1307.35</v>
       </c>
       <c r="C26">
-        <v>-3934.54</v>
+        <v>-1473.9</v>
       </c>
       <c r="D26">
-        <v>-4246.01</v>
+        <v>-1785.38</v>
       </c>
       <c r="E26">
-        <v>-3563.76</v>
+        <v>-1103.13</v>
       </c>
       <c r="F26">
-        <v>-3685.97</v>
+        <v>-1225.34</v>
       </c>
       <c r="G26">
-        <v>-3808.18</v>
+        <v>-1347.55</v>
       </c>
       <c r="H26">
-        <v>-2054.75</v>
+        <v>405.89</v>
       </c>
       <c r="I26">
-        <v>-2554.41</v>
+        <v>-93.77</v>
       </c>
       <c r="J26">
-        <v>-3488.83</v>
+        <v>-1028.19</v>
       </c>
       <c r="K26">
-        <v>-1442.59</v>
+        <v>1018.05</v>
       </c>
       <c r="L26">
-        <v>-1809.22</v>
+        <v>651.42</v>
       </c>
       <c r="M26">
-        <v>-2175.85</v>
+        <v>284.79</v>
       </c>
       <c r="N26">
-        <v>-1199.6</v>
+        <v>1261.04</v>
       </c>
       <c r="O26">
-        <v>-1865.81</v>
+        <v>594.83</v>
       </c>
       <c r="P26">
-        <v>-3111.7</v>
+        <v>-651.06</v>
       </c>
       <c r="Q26">
-        <v>-382.09</v>
+        <v>2078.54</v>
       </c>
       <c r="R26">
-        <v>-870.94</v>
+        <v>1589.7</v>
       </c>
       <c r="S26">
-        <v>-1359.78</v>
+        <v>1100.86</v>
       </c>
       <c r="T26">
-        <v>512.15</v>
+        <v>2972.79</v>
       </c>
       <c r="U26">
-        <v>-487.16</v>
+        <v>1973.47</v>
       </c>
       <c r="V26">
-        <v>-2356.01</v>
+        <v>104.63</v>
       </c>
       <c r="W26">
-        <v>1738.1</v>
+        <v>4198.74</v>
       </c>
       <c r="X26">
-        <v>1004.84</v>
+        <v>3465.48</v>
       </c>
       <c r="Y26">
-        <v>271.58</v>
+        <v>2732.22</v>
       </c>
       <c r="Z26">
-        <v>1368.32</v>
+        <v>3828.96</v>
       </c>
       <c r="AA26">
-        <v>202.46</v>
+        <v>2663.1</v>
       </c>
       <c r="AB26">
-        <v>-1977.86</v>
+        <v>482.78</v>
       </c>
       <c r="AC26">
-        <v>2798.5</v>
+        <v>5259.14</v>
       </c>
       <c r="AD26">
-        <v>1943.03</v>
+        <v>4403.67</v>
       </c>
       <c r="AE26">
-        <v>1087.56</v>
+        <v>3548.2</v>
       </c>
       <c r="AF26">
-        <v>3080.77</v>
+        <v>5541.41</v>
       </c>
       <c r="AG26">
-        <v>1581.8</v>
+        <v>4042.44</v>
       </c>
       <c r="AH26">
-        <v>-1221.46</v>
+        <v>1239.18</v>
       </c>
       <c r="AI26">
-        <v>4919.35</v>
+        <v>7379.99</v>
       </c>
       <c r="AJ26">
-        <v>3819.46</v>
+        <v>6280.1</v>
       </c>
       <c r="AK26">
-        <v>2719.57</v>
+        <v>5180.21</v>
       </c>
       <c r="AL26">
-        <v>3936.99</v>
+        <v>6397.63</v>
       </c>
       <c r="AM26">
-        <v>2271.47</v>
+        <v>4732.11</v>
       </c>
       <c r="AN26">
-        <v>-843.26</v>
+        <v>1617.37</v>
       </c>
       <c r="AO26">
-        <v>5979.8</v>
+        <v>8440.44</v>
       </c>
       <c r="AP26">
-        <v>4757.7</v>
+        <v>7218.33</v>
       </c>
       <c r="AQ26">
-        <v>3535.6</v>
+        <v>5996.23</v>
       </c>
       <c r="AR26">
-        <v>5649.39</v>
+        <v>8110.03</v>
       </c>
       <c r="AS26">
-        <v>3650.77</v>
+        <v>6111.41</v>
       </c>
       <c r="AT26">
-        <v>-86.92</v>
+        <v>2373.72</v>
       </c>
       <c r="AU26">
-        <v>8100.65</v>
+        <v>10561.29</v>
       </c>
       <c r="AV26">
-        <v>6634.13</v>
+        <v>9094.76</v>
       </c>
       <c r="AW26">
-        <v>5167.6</v>
+        <v>7628.24</v>
       </c>
       <c r="AX26">
-        <v>6505.57</v>
+        <v>8966.21</v>
       </c>
       <c r="AY26">
-        <v>4340.39</v>
+        <v>6801.03</v>
       </c>
       <c r="AZ26">
-        <v>291.23</v>
+        <v>2751.87</v>
       </c>
       <c r="BA26">
-        <v>9161.09</v>
+        <v>11621.73</v>
       </c>
       <c r="BB26">
-        <v>7572.36</v>
+        <v>10033</v>
       </c>
       <c r="BC26">
-        <v>5983.63</v>
+        <v>8444.27</v>
       </c>
       <c r="BD26">
-        <v>8217.97</v>
+        <v>10678.61</v>
       </c>
       <c r="BE26">
-        <v>5719.69</v>
+        <v>8180.33</v>
       </c>
       <c r="BF26">
-        <v>1047.58</v>
+        <v>3508.22</v>
       </c>
       <c r="BG26">
-        <v>11281.85</v>
+        <v>13742.49</v>
       </c>
       <c r="BH26">
-        <v>9448.7</v>
+        <v>11909.34</v>
       </c>
       <c r="BI26">
-        <v>7615.54</v>
+        <v>10076.18</v>
       </c>
     </row>
     <row r="27">
@@ -5434,184 +5434,184 @@
         </is>
       </c>
       <c r="B27">
-        <v>10069.51</v>
+        <v>12531.65</v>
       </c>
       <c r="C27">
-        <v>9902.96</v>
+        <v>12365.1</v>
       </c>
       <c r="D27">
-        <v>9591.49</v>
+        <v>12053.62</v>
       </c>
       <c r="E27">
-        <v>10273.74</v>
+        <v>12735.87</v>
       </c>
       <c r="F27">
-        <v>10151.53</v>
+        <v>12613.66</v>
       </c>
       <c r="G27">
-        <v>10029.32</v>
+        <v>12491.45</v>
       </c>
       <c r="H27">
-        <v>11782.75</v>
+        <v>14244.89</v>
       </c>
       <c r="I27">
-        <v>11283.09</v>
+        <v>13745.23</v>
       </c>
       <c r="J27">
-        <v>10348.67</v>
+        <v>12810.81</v>
       </c>
       <c r="K27">
-        <v>12394.91</v>
+        <v>14857.05</v>
       </c>
       <c r="L27">
-        <v>12028.28</v>
+        <v>14490.42</v>
       </c>
       <c r="M27">
-        <v>11661.65</v>
+        <v>14123.79</v>
       </c>
       <c r="N27">
-        <v>12637.9</v>
+        <v>15100.04</v>
       </c>
       <c r="O27">
-        <v>11971.69</v>
+        <v>14433.83</v>
       </c>
       <c r="P27">
-        <v>10725.8</v>
+        <v>13187.94</v>
       </c>
       <c r="Q27">
-        <v>13455.41</v>
+        <v>15917.54</v>
       </c>
       <c r="R27">
-        <v>12966.56</v>
+        <v>15428.7</v>
       </c>
       <c r="S27">
-        <v>12477.72</v>
+        <v>14939.86</v>
       </c>
       <c r="T27">
-        <v>14349.65</v>
+        <v>16811.79</v>
       </c>
       <c r="U27">
-        <v>13350.34</v>
+        <v>15812.47</v>
       </c>
       <c r="V27">
-        <v>11481.49</v>
+        <v>13943.63</v>
       </c>
       <c r="W27">
-        <v>15575.6</v>
+        <v>18037.74</v>
       </c>
       <c r="X27">
-        <v>14842.34</v>
+        <v>17304.48</v>
       </c>
       <c r="Y27">
-        <v>14109.08</v>
+        <v>16571.22</v>
       </c>
       <c r="Z27">
-        <v>15205.82</v>
+        <v>17667.96</v>
       </c>
       <c r="AA27">
-        <v>14039.96</v>
+        <v>16502.1</v>
       </c>
       <c r="AB27">
-        <v>11859.64</v>
+        <v>14321.78</v>
       </c>
       <c r="AC27">
-        <v>16636</v>
+        <v>19098.14</v>
       </c>
       <c r="AD27">
-        <v>15780.53</v>
+        <v>18242.67</v>
       </c>
       <c r="AE27">
-        <v>14925.06</v>
+        <v>17387.2</v>
       </c>
       <c r="AF27">
-        <v>16918.27</v>
+        <v>19380.41</v>
       </c>
       <c r="AG27">
-        <v>15419.3</v>
+        <v>17881.44</v>
       </c>
       <c r="AH27">
-        <v>12616.04</v>
+        <v>15078.18</v>
       </c>
       <c r="AI27">
-        <v>18756.85</v>
+        <v>21218.99</v>
       </c>
       <c r="AJ27">
-        <v>17656.96</v>
+        <v>20119.1</v>
       </c>
       <c r="AK27">
-        <v>16557.07</v>
+        <v>19019.21</v>
       </c>
       <c r="AL27">
-        <v>17774.49</v>
+        <v>20236.63</v>
       </c>
       <c r="AM27">
-        <v>16108.97</v>
+        <v>18571.11</v>
       </c>
       <c r="AN27">
-        <v>12994.24</v>
+        <v>15456.37</v>
       </c>
       <c r="AO27">
-        <v>19817.3</v>
+        <v>22279.44</v>
       </c>
       <c r="AP27">
-        <v>18595.2</v>
+        <v>21057.33</v>
       </c>
       <c r="AQ27">
-        <v>17373.1</v>
+        <v>19835.23</v>
       </c>
       <c r="AR27">
-        <v>19486.89</v>
+        <v>21949.03</v>
       </c>
       <c r="AS27">
-        <v>17488.27</v>
+        <v>19950.41</v>
       </c>
       <c r="AT27">
-        <v>13750.58</v>
+        <v>16212.72</v>
       </c>
       <c r="AU27">
-        <v>21938.15</v>
+        <v>24400.29</v>
       </c>
       <c r="AV27">
-        <v>20471.63</v>
+        <v>22933.76</v>
       </c>
       <c r="AW27">
-        <v>19005.1</v>
+        <v>21467.24</v>
       </c>
       <c r="AX27">
-        <v>20343.07</v>
+        <v>22805.21</v>
       </c>
       <c r="AY27">
-        <v>18177.89</v>
+        <v>20640.03</v>
       </c>
       <c r="AZ27">
-        <v>14128.73</v>
+        <v>16590.87</v>
       </c>
       <c r="BA27">
-        <v>22998.59</v>
+        <v>25460.73</v>
       </c>
       <c r="BB27">
-        <v>21409.86</v>
+        <v>23872</v>
       </c>
       <c r="BC27">
-        <v>19821.13</v>
+        <v>22283.27</v>
       </c>
       <c r="BD27">
-        <v>22055.47</v>
+        <v>24517.61</v>
       </c>
       <c r="BE27">
-        <v>19557.19</v>
+        <v>22019.33</v>
       </c>
       <c r="BF27">
-        <v>14885.08</v>
+        <v>17347.22</v>
       </c>
       <c r="BG27">
-        <v>25119.35</v>
+        <v>27581.49</v>
       </c>
       <c r="BH27">
-        <v>23286.2</v>
+        <v>25748.34</v>
       </c>
       <c r="BI27">
-        <v>21453.04</v>
+        <v>23915.18</v>
       </c>
     </row>
     <row r="28">
@@ -5621,184 +5621,184 @@
         </is>
       </c>
       <c r="B28">
-        <v>23907.01</v>
+        <v>26370.65</v>
       </c>
       <c r="C28">
-        <v>23740.46</v>
+        <v>26204.1</v>
       </c>
       <c r="D28">
-        <v>23428.99</v>
+        <v>25892.62</v>
       </c>
       <c r="E28">
-        <v>24111.24</v>
+        <v>26574.87</v>
       </c>
       <c r="F28">
-        <v>23989.03</v>
+        <v>26452.66</v>
       </c>
       <c r="G28">
-        <v>23866.82</v>
+        <v>26330.45</v>
       </c>
       <c r="H28">
-        <v>25620.25</v>
+        <v>28083.89</v>
       </c>
       <c r="I28">
-        <v>25120.59</v>
+        <v>27584.23</v>
       </c>
       <c r="J28">
-        <v>24186.17</v>
+        <v>26649.81</v>
       </c>
       <c r="K28">
-        <v>26232.41</v>
+        <v>28696.05</v>
       </c>
       <c r="L28">
-        <v>25865.78</v>
+        <v>28329.42</v>
       </c>
       <c r="M28">
-        <v>25499.15</v>
+        <v>27962.79</v>
       </c>
       <c r="N28">
-        <v>26475.4</v>
+        <v>28939.04</v>
       </c>
       <c r="O28">
-        <v>25809.19</v>
+        <v>28272.83</v>
       </c>
       <c r="P28">
-        <v>24563.3</v>
+        <v>27026.94</v>
       </c>
       <c r="Q28">
-        <v>27292.91</v>
+        <v>29756.54</v>
       </c>
       <c r="R28">
-        <v>26804.06</v>
+        <v>29267.7</v>
       </c>
       <c r="S28">
-        <v>26315.22</v>
+        <v>28778.86</v>
       </c>
       <c r="T28">
-        <v>28187.15</v>
+        <v>30650.79</v>
       </c>
       <c r="U28">
-        <v>27187.84</v>
+        <v>29651.47</v>
       </c>
       <c r="V28">
-        <v>25318.99</v>
+        <v>27782.63</v>
       </c>
       <c r="W28">
-        <v>29413.1</v>
+        <v>31876.74</v>
       </c>
       <c r="X28">
-        <v>28679.84</v>
+        <v>31143.48</v>
       </c>
       <c r="Y28">
-        <v>27946.58</v>
+        <v>30410.22</v>
       </c>
       <c r="Z28">
-        <v>29043.32</v>
+        <v>31506.96</v>
       </c>
       <c r="AA28">
-        <v>27877.46</v>
+        <v>30341.1</v>
       </c>
       <c r="AB28">
-        <v>25697.14</v>
+        <v>28160.78</v>
       </c>
       <c r="AC28">
-        <v>30473.5</v>
+        <v>32937.14</v>
       </c>
       <c r="AD28">
-        <v>29618.03</v>
+        <v>32081.67</v>
       </c>
       <c r="AE28">
-        <v>28762.56</v>
+        <v>31226.2</v>
       </c>
       <c r="AF28">
-        <v>30755.77</v>
+        <v>33219.41</v>
       </c>
       <c r="AG28">
-        <v>29256.8</v>
+        <v>31720.44</v>
       </c>
       <c r="AH28">
-        <v>26453.54</v>
+        <v>28917.18</v>
       </c>
       <c r="AI28">
-        <v>32594.35</v>
+        <v>35057.99</v>
       </c>
       <c r="AJ28">
-        <v>31494.46</v>
+        <v>33958.1</v>
       </c>
       <c r="AK28">
-        <v>30394.57</v>
+        <v>32858.21</v>
       </c>
       <c r="AL28">
-        <v>31611.99</v>
+        <v>34075.63</v>
       </c>
       <c r="AM28">
-        <v>29946.47</v>
+        <v>32410.11</v>
       </c>
       <c r="AN28">
-        <v>26831.74</v>
+        <v>29295.37</v>
       </c>
       <c r="AO28">
-        <v>33654.8</v>
+        <v>36118.44</v>
       </c>
       <c r="AP28">
-        <v>32432.7</v>
+        <v>34896.33</v>
       </c>
       <c r="AQ28">
-        <v>31210.6</v>
+        <v>33674.23</v>
       </c>
       <c r="AR28">
-        <v>33324.39</v>
+        <v>35788.03</v>
       </c>
       <c r="AS28">
-        <v>31325.77</v>
+        <v>33789.41</v>
       </c>
       <c r="AT28">
-        <v>27588.08</v>
+        <v>30051.72</v>
       </c>
       <c r="AU28">
-        <v>35775.65</v>
+        <v>38239.29</v>
       </c>
       <c r="AV28">
-        <v>34309.13</v>
+        <v>36772.76</v>
       </c>
       <c r="AW28">
-        <v>32842.6</v>
+        <v>35306.24</v>
       </c>
       <c r="AX28">
-        <v>34180.57</v>
+        <v>36644.21</v>
       </c>
       <c r="AY28">
-        <v>32015.39</v>
+        <v>34479.03</v>
       </c>
       <c r="AZ28">
-        <v>27966.23</v>
+        <v>30429.87</v>
       </c>
       <c r="BA28">
-        <v>36836.09</v>
+        <v>39299.73</v>
       </c>
       <c r="BB28">
-        <v>35247.36</v>
+        <v>37711</v>
       </c>
       <c r="BC28">
-        <v>33658.63</v>
+        <v>36122.27</v>
       </c>
       <c r="BD28">
-        <v>35892.97</v>
+        <v>38356.61</v>
       </c>
       <c r="BE28">
-        <v>33394.69</v>
+        <v>35858.33</v>
       </c>
       <c r="BF28">
-        <v>28722.58</v>
+        <v>31186.22</v>
       </c>
       <c r="BG28">
-        <v>38956.85</v>
+        <v>41420.49</v>
       </c>
       <c r="BH28">
-        <v>37123.7</v>
+        <v>39587.34</v>
       </c>
       <c r="BI28">
-        <v>35290.54</v>
+        <v>37754.18</v>
       </c>
     </row>
     <row r="29">
@@ -5808,184 +5808,184 @@
         </is>
       </c>
       <c r="B29">
-        <v>-9521.21</v>
+        <v>-7060.57</v>
       </c>
       <c r="C29">
-        <v>-9687.76</v>
+        <v>-7227.12</v>
       </c>
       <c r="D29">
-        <v>-9999.23</v>
+        <v>-7538.59</v>
       </c>
       <c r="E29">
-        <v>-9302.86</v>
+        <v>-6842.22</v>
       </c>
       <c r="F29">
-        <v>-9425.07</v>
+        <v>-6964.43</v>
       </c>
       <c r="G29">
-        <v>-9547.28</v>
+        <v>-7086.64</v>
       </c>
       <c r="H29">
-        <v>-7777.4</v>
+        <v>-5316.76</v>
       </c>
       <c r="I29">
-        <v>-8277.05</v>
+        <v>-5816.42</v>
       </c>
       <c r="J29">
-        <v>-9211.48</v>
+        <v>-6750.84</v>
       </c>
       <c r="K29">
-        <v>-7122.78</v>
+        <v>-4662.15</v>
       </c>
       <c r="L29">
-        <v>-7489.42</v>
+        <v>-5028.78</v>
       </c>
       <c r="M29">
-        <v>-7856.05</v>
+        <v>-5395.41</v>
       </c>
       <c r="N29">
-        <v>-6906.78</v>
+        <v>-4446.14</v>
       </c>
       <c r="O29">
-        <v>-7572.98</v>
+        <v>-5112.35</v>
       </c>
       <c r="P29">
-        <v>-8818.88</v>
+        <v>-6358.24</v>
       </c>
       <c r="Q29">
-        <v>-6032.84</v>
+        <v>-3572.2</v>
       </c>
       <c r="R29">
-        <v>-6521.68</v>
+        <v>-4061.04</v>
       </c>
       <c r="S29">
-        <v>-7010.52</v>
+        <v>-4549.88</v>
       </c>
       <c r="T29">
-        <v>-5164.32</v>
+        <v>-2703.68</v>
       </c>
       <c r="U29">
-        <v>-6163.63</v>
+        <v>-3702.99</v>
       </c>
       <c r="V29">
-        <v>-8032.47</v>
+        <v>-5571.84</v>
       </c>
       <c r="W29">
-        <v>-3853.74</v>
+        <v>-1393.1</v>
       </c>
       <c r="X29">
-        <v>-4587</v>
+        <v>-2126.36</v>
       </c>
       <c r="Y29">
-        <v>-5320.26</v>
+        <v>-2859.63</v>
       </c>
       <c r="Z29">
-        <v>-4292.77</v>
+        <v>-1832.13</v>
       </c>
       <c r="AA29">
-        <v>-5458.63</v>
+        <v>-2997.99</v>
       </c>
       <c r="AB29">
-        <v>-7638.95</v>
+        <v>-5178.31</v>
       </c>
       <c r="AC29">
-        <v>-2763.89</v>
+        <v>-303.25</v>
       </c>
       <c r="AD29">
-        <v>-3619.36</v>
+        <v>-1158.72</v>
       </c>
       <c r="AE29">
-        <v>-4474.83</v>
+        <v>-2014.19</v>
       </c>
       <c r="AF29">
-        <v>-2549.66</v>
+        <v>-89.02</v>
       </c>
       <c r="AG29">
-        <v>-4048.63</v>
+        <v>-1587.99</v>
       </c>
       <c r="AH29">
-        <v>-6851.89</v>
+        <v>-4391.25</v>
       </c>
       <c r="AI29">
-        <v>-584.14</v>
+        <v>1876.5</v>
       </c>
       <c r="AJ29">
-        <v>-1684.03</v>
+        <v>776.61</v>
       </c>
       <c r="AK29">
-        <v>-2783.92</v>
+        <v>-323.28</v>
       </c>
       <c r="AL29">
-        <v>-1678.1</v>
+        <v>782.53</v>
       </c>
       <c r="AM29">
-        <v>-3343.62</v>
+        <v>-882.98</v>
       </c>
       <c r="AN29">
-        <v>-6458.36</v>
+        <v>-3997.72</v>
       </c>
       <c r="AO29">
-        <v>505.81</v>
+        <v>2966.45</v>
       </c>
       <c r="AP29">
-        <v>-716.29</v>
+        <v>1744.34</v>
       </c>
       <c r="AQ29">
-        <v>-1938.4</v>
+        <v>522.24</v>
       </c>
       <c r="AR29">
-        <v>65</v>
+        <v>2525.64</v>
       </c>
       <c r="AS29">
-        <v>-1933.62</v>
+        <v>527.02</v>
       </c>
       <c r="AT29">
-        <v>-5671.3</v>
+        <v>-3210.66</v>
       </c>
       <c r="AU29">
-        <v>2685.51</v>
+        <v>5146.15</v>
       </c>
       <c r="AV29">
-        <v>1218.99</v>
+        <v>3679.63</v>
       </c>
       <c r="AW29">
-        <v>-247.53</v>
+        <v>2213.11</v>
       </c>
       <c r="AX29">
-        <v>936.56</v>
+        <v>3397.2</v>
       </c>
       <c r="AY29">
-        <v>-1228.62</v>
+        <v>1232.02</v>
       </c>
       <c r="AZ29">
-        <v>-5277.77</v>
+        <v>-2817.14</v>
       </c>
       <c r="BA29">
-        <v>3775.41</v>
+        <v>6236.05</v>
       </c>
       <c r="BB29">
-        <v>2186.68</v>
+        <v>4647.32</v>
       </c>
       <c r="BC29">
-        <v>597.95</v>
+        <v>3058.58</v>
       </c>
       <c r="BD29">
-        <v>2679.62</v>
+        <v>5140.26</v>
       </c>
       <c r="BE29">
-        <v>181.34</v>
+        <v>2641.98</v>
       </c>
       <c r="BF29">
-        <v>-4490.76</v>
+        <v>-2030.13</v>
       </c>
       <c r="BG29">
-        <v>5955.07</v>
+        <v>8415.71</v>
       </c>
       <c r="BH29">
-        <v>4121.92</v>
+        <v>6582.55</v>
       </c>
       <c r="BI29">
-        <v>2288.76</v>
+        <v>4749.4</v>
       </c>
     </row>
     <row r="30">
@@ -5995,184 +5995,184 @@
         </is>
       </c>
       <c r="B30">
-        <v>-4908.71</v>
+        <v>-2446.57</v>
       </c>
       <c r="C30">
-        <v>-5075.26</v>
+        <v>-2613.12</v>
       </c>
       <c r="D30">
-        <v>-5386.73</v>
+        <v>-2924.59</v>
       </c>
       <c r="E30">
-        <v>-4690.36</v>
+        <v>-2228.22</v>
       </c>
       <c r="F30">
-        <v>-4812.57</v>
+        <v>-2350.43</v>
       </c>
       <c r="G30">
-        <v>-4934.78</v>
+        <v>-2472.64</v>
       </c>
       <c r="H30">
-        <v>-3164.9</v>
+        <v>-702.76</v>
       </c>
       <c r="I30">
-        <v>-3664.55</v>
+        <v>-1202.42</v>
       </c>
       <c r="J30">
-        <v>-4598.98</v>
+        <v>-2136.84</v>
       </c>
       <c r="K30">
-        <v>-2510.28</v>
+        <v>-48.15</v>
       </c>
       <c r="L30">
-        <v>-2876.92</v>
+        <v>-414.78</v>
       </c>
       <c r="M30">
-        <v>-3243.55</v>
+        <v>-781.41</v>
       </c>
       <c r="N30">
-        <v>-2294.28</v>
+        <v>167.86</v>
       </c>
       <c r="O30">
-        <v>-2960.48</v>
+        <v>-498.35</v>
       </c>
       <c r="P30">
-        <v>-4206.38</v>
+        <v>-1744.24</v>
       </c>
       <c r="Q30">
-        <v>-1420.34</v>
+        <v>1041.8</v>
       </c>
       <c r="R30">
-        <v>-1909.18</v>
+        <v>552.96</v>
       </c>
       <c r="S30">
-        <v>-2398.02</v>
+        <v>64.12</v>
       </c>
       <c r="T30">
-        <v>-551.82</v>
+        <v>1910.32</v>
       </c>
       <c r="U30">
-        <v>-1551.13</v>
+        <v>911.01</v>
       </c>
       <c r="V30">
-        <v>-3419.97</v>
+        <v>-957.84</v>
       </c>
       <c r="W30">
-        <v>758.76</v>
+        <v>3220.9</v>
       </c>
       <c r="X30">
-        <v>25.5</v>
+        <v>2487.64</v>
       </c>
       <c r="Y30">
-        <v>-707.76</v>
+        <v>1754.37</v>
       </c>
       <c r="Z30">
-        <v>319.73</v>
+        <v>2781.87</v>
       </c>
       <c r="AA30">
-        <v>-846.13</v>
+        <v>1616.01</v>
       </c>
       <c r="AB30">
-        <v>-3026.45</v>
+        <v>-564.31</v>
       </c>
       <c r="AC30">
-        <v>1848.61</v>
+        <v>4310.75</v>
       </c>
       <c r="AD30">
-        <v>993.14</v>
+        <v>3455.28</v>
       </c>
       <c r="AE30">
-        <v>137.67</v>
+        <v>2599.81</v>
       </c>
       <c r="AF30">
-        <v>2062.84</v>
+        <v>4524.98</v>
       </c>
       <c r="AG30">
-        <v>563.87</v>
+        <v>3026.01</v>
       </c>
       <c r="AH30">
-        <v>-2239.39</v>
+        <v>222.75</v>
       </c>
       <c r="AI30">
-        <v>4028.36</v>
+        <v>6490.5</v>
       </c>
       <c r="AJ30">
-        <v>2928.47</v>
+        <v>5390.61</v>
       </c>
       <c r="AK30">
-        <v>1828.58</v>
+        <v>4290.72</v>
       </c>
       <c r="AL30">
-        <v>2934.4</v>
+        <v>5396.53</v>
       </c>
       <c r="AM30">
-        <v>1268.88</v>
+        <v>3731.02</v>
       </c>
       <c r="AN30">
-        <v>-1845.86</v>
+        <v>616.28</v>
       </c>
       <c r="AO30">
-        <v>5118.31</v>
+        <v>7580.45</v>
       </c>
       <c r="AP30">
-        <v>3896.21</v>
+        <v>6358.34</v>
       </c>
       <c r="AQ30">
-        <v>2674.1</v>
+        <v>5136.24</v>
       </c>
       <c r="AR30">
-        <v>4677.5</v>
+        <v>7139.64</v>
       </c>
       <c r="AS30">
-        <v>2678.88</v>
+        <v>5141.02</v>
       </c>
       <c r="AT30">
-        <v>-1058.8</v>
+        <v>1403.34</v>
       </c>
       <c r="AU30">
-        <v>7298.01</v>
+        <v>9760.15</v>
       </c>
       <c r="AV30">
-        <v>5831.49</v>
+        <v>8293.63</v>
       </c>
       <c r="AW30">
-        <v>4364.97</v>
+        <v>6827.11</v>
       </c>
       <c r="AX30">
-        <v>5549.06</v>
+        <v>8011.2</v>
       </c>
       <c r="AY30">
-        <v>3383.88</v>
+        <v>5846.02</v>
       </c>
       <c r="AZ30">
-        <v>-665.27</v>
+        <v>1796.86</v>
       </c>
       <c r="BA30">
-        <v>8387.91</v>
+        <v>10850.05</v>
       </c>
       <c r="BB30">
-        <v>6799.18</v>
+        <v>9261.32</v>
       </c>
       <c r="BC30">
-        <v>5210.45</v>
+        <v>7672.58</v>
       </c>
       <c r="BD30">
-        <v>7292.12</v>
+        <v>9754.26</v>
       </c>
       <c r="BE30">
-        <v>4793.84</v>
+        <v>7255.98</v>
       </c>
       <c r="BF30">
-        <v>121.74</v>
+        <v>2583.87</v>
       </c>
       <c r="BG30">
-        <v>10567.57</v>
+        <v>13029.71</v>
       </c>
       <c r="BH30">
-        <v>8734.42</v>
+        <v>11196.55</v>
       </c>
       <c r="BI30">
-        <v>6901.26</v>
+        <v>9363.4</v>
       </c>
     </row>
     <row r="31">
@@ -6182,184 +6182,184 @@
         </is>
       </c>
       <c r="B31">
-        <v>-296.21</v>
+        <v>2167.43</v>
       </c>
       <c r="C31">
-        <v>-462.76</v>
+        <v>2000.88</v>
       </c>
       <c r="D31">
-        <v>-774.23</v>
+        <v>1689.41</v>
       </c>
       <c r="E31">
-        <v>-77.86</v>
+        <v>2385.78</v>
       </c>
       <c r="F31">
-        <v>-200.07</v>
+        <v>2263.57</v>
       </c>
       <c r="G31">
-        <v>-322.28</v>
+        <v>2141.36</v>
       </c>
       <c r="H31">
-        <v>1447.6</v>
+        <v>3911.24</v>
       </c>
       <c r="I31">
-        <v>947.95</v>
+        <v>3411.58</v>
       </c>
       <c r="J31">
-        <v>13.52</v>
+        <v>2477.16</v>
       </c>
       <c r="K31">
-        <v>2102.22</v>
+        <v>4565.85</v>
       </c>
       <c r="L31">
-        <v>1735.58</v>
+        <v>4199.22</v>
       </c>
       <c r="M31">
-        <v>1368.95</v>
+        <v>3832.59</v>
       </c>
       <c r="N31">
-        <v>2318.22</v>
+        <v>4781.86</v>
       </c>
       <c r="O31">
-        <v>1652.02</v>
+        <v>4115.65</v>
       </c>
       <c r="P31">
-        <v>406.12</v>
+        <v>2869.76</v>
       </c>
       <c r="Q31">
-        <v>3192.16</v>
+        <v>5655.8</v>
       </c>
       <c r="R31">
-        <v>2703.32</v>
+        <v>5166.96</v>
       </c>
       <c r="S31">
-        <v>2214.48</v>
+        <v>4678.12</v>
       </c>
       <c r="T31">
-        <v>4060.68</v>
+        <v>6524.32</v>
       </c>
       <c r="U31">
-        <v>3061.37</v>
+        <v>5525.01</v>
       </c>
       <c r="V31">
-        <v>1192.53</v>
+        <v>3656.16</v>
       </c>
       <c r="W31">
-        <v>5371.26</v>
+        <v>7834.9</v>
       </c>
       <c r="X31">
-        <v>4638</v>
+        <v>7101.64</v>
       </c>
       <c r="Y31">
-        <v>3904.74</v>
+        <v>6368.37</v>
       </c>
       <c r="Z31">
-        <v>4932.23</v>
+        <v>7395.87</v>
       </c>
       <c r="AA31">
-        <v>3766.37</v>
+        <v>6230.01</v>
       </c>
       <c r="AB31">
-        <v>1586.05</v>
+        <v>4049.69</v>
       </c>
       <c r="AC31">
-        <v>6461.11</v>
+        <v>8924.75</v>
       </c>
       <c r="AD31">
-        <v>5605.64</v>
+        <v>8069.28</v>
       </c>
       <c r="AE31">
-        <v>4750.17</v>
+        <v>7213.81</v>
       </c>
       <c r="AF31">
-        <v>6675.34</v>
+        <v>9138.98</v>
       </c>
       <c r="AG31">
-        <v>5176.37</v>
+        <v>7640.01</v>
       </c>
       <c r="AH31">
-        <v>2373.11</v>
+        <v>4836.75</v>
       </c>
       <c r="AI31">
-        <v>8640.86</v>
+        <v>11104.5</v>
       </c>
       <c r="AJ31">
-        <v>7540.97</v>
+        <v>10004.61</v>
       </c>
       <c r="AK31">
-        <v>6441.08</v>
+        <v>8904.72</v>
       </c>
       <c r="AL31">
-        <v>7546.9</v>
+        <v>10010.53</v>
       </c>
       <c r="AM31">
-        <v>5881.38</v>
+        <v>8345.02</v>
       </c>
       <c r="AN31">
-        <v>2766.64</v>
+        <v>5230.28</v>
       </c>
       <c r="AO31">
-        <v>9730.81</v>
+        <v>12194.45</v>
       </c>
       <c r="AP31">
-        <v>8508.71</v>
+        <v>10972.34</v>
       </c>
       <c r="AQ31">
-        <v>7286.6</v>
+        <v>9750.24</v>
       </c>
       <c r="AR31">
-        <v>9290</v>
+        <v>11753.64</v>
       </c>
       <c r="AS31">
-        <v>7291.38</v>
+        <v>9755.02</v>
       </c>
       <c r="AT31">
-        <v>3553.7</v>
+        <v>6017.34</v>
       </c>
       <c r="AU31">
-        <v>11910.51</v>
+        <v>14374.15</v>
       </c>
       <c r="AV31">
-        <v>10443.99</v>
+        <v>12907.63</v>
       </c>
       <c r="AW31">
-        <v>8977.47</v>
+        <v>11441.11</v>
       </c>
       <c r="AX31">
-        <v>10161.56</v>
+        <v>12625.2</v>
       </c>
       <c r="AY31">
-        <v>7996.38</v>
+        <v>10460.02</v>
       </c>
       <c r="AZ31">
-        <v>3947.23</v>
+        <v>6410.86</v>
       </c>
       <c r="BA31">
-        <v>13000.41</v>
+        <v>15464.05</v>
       </c>
       <c r="BB31">
-        <v>11411.68</v>
+        <v>13875.32</v>
       </c>
       <c r="BC31">
-        <v>9822.95</v>
+        <v>12286.58</v>
       </c>
       <c r="BD31">
-        <v>11904.62</v>
+        <v>14368.26</v>
       </c>
       <c r="BE31">
-        <v>9406.34</v>
+        <v>11869.98</v>
       </c>
       <c r="BF31">
-        <v>4734.24</v>
+        <v>7197.87</v>
       </c>
       <c r="BG31">
-        <v>15180.07</v>
+        <v>17643.71</v>
       </c>
       <c r="BH31">
-        <v>13346.92</v>
+        <v>15810.55</v>
       </c>
       <c r="BI31">
-        <v>11513.76</v>
+        <v>13977.4</v>
       </c>
     </row>
     <row r="32">
@@ -6369,184 +6369,184 @@
         </is>
       </c>
       <c r="B32">
-        <v>-6636.93</v>
+        <v>-4177.23</v>
       </c>
       <c r="C32">
-        <v>-6803.48</v>
+        <v>-4343.78</v>
       </c>
       <c r="D32">
-        <v>-7114.96</v>
+        <v>-4655.26</v>
       </c>
       <c r="E32">
-        <v>-6418.59</v>
+        <v>-3958.89</v>
       </c>
       <c r="F32">
-        <v>-6540.8</v>
+        <v>-4081.1</v>
       </c>
       <c r="G32">
-        <v>-6663.01</v>
+        <v>-4203.31</v>
       </c>
       <c r="H32">
-        <v>-4893.12</v>
+        <v>-2433.42</v>
       </c>
       <c r="I32">
-        <v>-5392.78</v>
+        <v>-2933.08</v>
       </c>
       <c r="J32">
-        <v>-6327.2</v>
+        <v>-3867.5</v>
       </c>
       <c r="K32">
-        <v>-4238.51</v>
+        <v>-1778.81</v>
       </c>
       <c r="L32">
-        <v>-4605.14</v>
+        <v>-2145.44</v>
       </c>
       <c r="M32">
-        <v>-4971.77</v>
+        <v>-2512.07</v>
       </c>
       <c r="N32">
-        <v>-4022.5</v>
+        <v>-1562.8</v>
       </c>
       <c r="O32">
-        <v>-4688.71</v>
+        <v>-2229.01</v>
       </c>
       <c r="P32">
-        <v>-5934.6</v>
+        <v>-3474.9</v>
       </c>
       <c r="Q32">
-        <v>-3148.56</v>
+        <v>-688.86</v>
       </c>
       <c r="R32">
-        <v>-3637.41</v>
+        <v>-1177.71</v>
       </c>
       <c r="S32">
-        <v>-4126.25</v>
+        <v>-1666.55</v>
       </c>
       <c r="T32">
-        <v>-2280.05</v>
+        <v>179.65</v>
       </c>
       <c r="U32">
-        <v>-3279.36</v>
+        <v>-819.66</v>
       </c>
       <c r="V32">
-        <v>-5148.2</v>
+        <v>-2688.5</v>
       </c>
       <c r="W32">
-        <v>-969.47</v>
+        <v>1490.23</v>
       </c>
       <c r="X32">
-        <v>-1702.73</v>
+        <v>756.97</v>
       </c>
       <c r="Y32">
-        <v>-2435.99</v>
+        <v>23.71</v>
       </c>
       <c r="Z32">
-        <v>-1408.49</v>
+        <v>1051.21</v>
       </c>
       <c r="AA32">
-        <v>-2574.35</v>
+        <v>-114.65</v>
       </c>
       <c r="AB32">
-        <v>-4754.67</v>
+        <v>-2294.97</v>
       </c>
       <c r="AC32">
-        <v>120.39</v>
+        <v>2580.09</v>
       </c>
       <c r="AD32">
-        <v>-735.09</v>
+        <v>1724.61</v>
       </c>
       <c r="AE32">
-        <v>-1590.56</v>
+        <v>869.14</v>
       </c>
       <c r="AF32">
-        <v>334.62</v>
+        <v>2794.32</v>
       </c>
       <c r="AG32">
-        <v>-1164.35</v>
+        <v>1295.35</v>
       </c>
       <c r="AH32">
-        <v>-3967.61</v>
+        <v>-1507.91</v>
       </c>
       <c r="AI32">
-        <v>2300.14</v>
+        <v>4759.84</v>
       </c>
       <c r="AJ32">
-        <v>1200.25</v>
+        <v>3659.95</v>
       </c>
       <c r="AK32">
-        <v>100.35</v>
+        <v>2560.05</v>
       </c>
       <c r="AL32">
-        <v>1206.17</v>
+        <v>3665.87</v>
       </c>
       <c r="AM32">
-        <v>-459.35</v>
+        <v>2000.35</v>
       </c>
       <c r="AN32">
-        <v>-3574.09</v>
+        <v>-1114.39</v>
       </c>
       <c r="AO32">
-        <v>3390.08</v>
+        <v>5849.78</v>
       </c>
       <c r="AP32">
-        <v>2167.98</v>
+        <v>4627.68</v>
       </c>
       <c r="AQ32">
-        <v>945.88</v>
+        <v>3405.58</v>
       </c>
       <c r="AR32">
-        <v>2949.28</v>
+        <v>5408.98</v>
       </c>
       <c r="AS32">
-        <v>950.66</v>
+        <v>3410.36</v>
       </c>
       <c r="AT32">
-        <v>-2787.03</v>
+        <v>-327.33</v>
       </c>
       <c r="AU32">
-        <v>5569.79</v>
+        <v>8029.49</v>
       </c>
       <c r="AV32">
-        <v>4103.26</v>
+        <v>6562.96</v>
       </c>
       <c r="AW32">
-        <v>2636.74</v>
+        <v>5096.44</v>
       </c>
       <c r="AX32">
-        <v>3820.83</v>
+        <v>6280.53</v>
       </c>
       <c r="AY32">
-        <v>1655.66</v>
+        <v>4115.36</v>
       </c>
       <c r="AZ32">
-        <v>-2393.5</v>
+        <v>66.2</v>
       </c>
       <c r="BA32">
-        <v>6659.69</v>
+        <v>9119.39</v>
       </c>
       <c r="BB32">
-        <v>5070.95</v>
+        <v>7530.65</v>
       </c>
       <c r="BC32">
-        <v>3482.22</v>
+        <v>5941.92</v>
       </c>
       <c r="BD32">
-        <v>5563.9</v>
+        <v>8023.6</v>
       </c>
       <c r="BE32">
-        <v>3065.62</v>
+        <v>5525.32</v>
       </c>
       <c r="BF32">
-        <v>-1606.49</v>
+        <v>853.21</v>
       </c>
       <c r="BG32">
-        <v>8839.34</v>
+        <v>11299.04</v>
       </c>
       <c r="BH32">
-        <v>7006.19</v>
+        <v>9465.89</v>
       </c>
       <c r="BI32">
-        <v>5173.04</v>
+        <v>7632.74</v>
       </c>
     </row>
     <row r="33">
@@ -6556,184 +6556,184 @@
         </is>
       </c>
       <c r="B33">
-        <v>2588.07</v>
+        <v>5047.77</v>
       </c>
       <c r="C33">
-        <v>2421.52</v>
+        <v>4881.22</v>
       </c>
       <c r="D33">
-        <v>2110.04</v>
+        <v>4569.74</v>
       </c>
       <c r="E33">
-        <v>2806.41</v>
+        <v>5266.11</v>
       </c>
       <c r="F33">
-        <v>2684.2</v>
+        <v>5143.9</v>
       </c>
       <c r="G33">
-        <v>2561.99</v>
+        <v>5021.69</v>
       </c>
       <c r="H33">
-        <v>4331.88</v>
+        <v>6791.58</v>
       </c>
       <c r="I33">
-        <v>3832.22</v>
+        <v>6291.92</v>
       </c>
       <c r="J33">
-        <v>2897.8</v>
+        <v>5357.5</v>
       </c>
       <c r="K33">
-        <v>4986.49</v>
+        <v>7446.19</v>
       </c>
       <c r="L33">
-        <v>4619.86</v>
+        <v>7079.56</v>
       </c>
       <c r="M33">
-        <v>4253.23</v>
+        <v>6712.93</v>
       </c>
       <c r="N33">
-        <v>5202.5</v>
+        <v>7662.2</v>
       </c>
       <c r="O33">
-        <v>4536.29</v>
+        <v>6995.99</v>
       </c>
       <c r="P33">
-        <v>3290.4</v>
+        <v>5750.1</v>
       </c>
       <c r="Q33">
-        <v>6076.44</v>
+        <v>8536.14</v>
       </c>
       <c r="R33">
-        <v>5587.59</v>
+        <v>8047.29</v>
       </c>
       <c r="S33">
-        <v>5098.75</v>
+        <v>7558.45</v>
       </c>
       <c r="T33">
-        <v>6944.95</v>
+        <v>9404.65</v>
       </c>
       <c r="U33">
-        <v>5945.64</v>
+        <v>8405.34</v>
       </c>
       <c r="V33">
-        <v>4076.8</v>
+        <v>6536.5</v>
       </c>
       <c r="W33">
-        <v>8255.53</v>
+        <v>10715.23</v>
       </c>
       <c r="X33">
-        <v>7522.27</v>
+        <v>9981.97</v>
       </c>
       <c r="Y33">
-        <v>6789.01</v>
+        <v>9248.71</v>
       </c>
       <c r="Z33">
-        <v>7816.51</v>
+        <v>10276.21</v>
       </c>
       <c r="AA33">
-        <v>6650.65</v>
+        <v>9110.35</v>
       </c>
       <c r="AB33">
-        <v>4470.33</v>
+        <v>6930.03</v>
       </c>
       <c r="AC33">
-        <v>9345.39</v>
+        <v>11805.09</v>
       </c>
       <c r="AD33">
-        <v>8489.91</v>
+        <v>10949.61</v>
       </c>
       <c r="AE33">
-        <v>7634.44</v>
+        <v>10094.14</v>
       </c>
       <c r="AF33">
-        <v>9559.62</v>
+        <v>12019.32</v>
       </c>
       <c r="AG33">
-        <v>8060.65</v>
+        <v>10520.35</v>
       </c>
       <c r="AH33">
-        <v>5257.39</v>
+        <v>7717.09</v>
       </c>
       <c r="AI33">
-        <v>11525.14</v>
+        <v>13984.84</v>
       </c>
       <c r="AJ33">
-        <v>10425.25</v>
+        <v>12884.95</v>
       </c>
       <c r="AK33">
-        <v>9325.35</v>
+        <v>11785.05</v>
       </c>
       <c r="AL33">
-        <v>10431.17</v>
+        <v>12890.87</v>
       </c>
       <c r="AM33">
-        <v>8765.65</v>
+        <v>11225.35</v>
       </c>
       <c r="AN33">
-        <v>5650.91</v>
+        <v>8110.61</v>
       </c>
       <c r="AO33">
-        <v>12615.08</v>
+        <v>15074.78</v>
       </c>
       <c r="AP33">
-        <v>11392.98</v>
+        <v>13852.68</v>
       </c>
       <c r="AQ33">
-        <v>10170.88</v>
+        <v>12630.58</v>
       </c>
       <c r="AR33">
-        <v>12174.28</v>
+        <v>14633.98</v>
       </c>
       <c r="AS33">
-        <v>10175.66</v>
+        <v>12635.36</v>
       </c>
       <c r="AT33">
-        <v>6437.97</v>
+        <v>8897.67</v>
       </c>
       <c r="AU33">
-        <v>14794.79</v>
+        <v>17254.49</v>
       </c>
       <c r="AV33">
-        <v>13328.26</v>
+        <v>15787.96</v>
       </c>
       <c r="AW33">
-        <v>11861.74</v>
+        <v>14321.44</v>
       </c>
       <c r="AX33">
-        <v>13045.83</v>
+        <v>15505.53</v>
       </c>
       <c r="AY33">
-        <v>10880.66</v>
+        <v>13340.36</v>
       </c>
       <c r="AZ33">
-        <v>6831.5</v>
+        <v>9291.2</v>
       </c>
       <c r="BA33">
-        <v>15884.69</v>
+        <v>18344.39</v>
       </c>
       <c r="BB33">
-        <v>14295.95</v>
+        <v>16755.65</v>
       </c>
       <c r="BC33">
-        <v>12707.22</v>
+        <v>15166.92</v>
       </c>
       <c r="BD33">
-        <v>14788.9</v>
+        <v>17248.6</v>
       </c>
       <c r="BE33">
-        <v>12290.62</v>
+        <v>14750.32</v>
       </c>
       <c r="BF33">
-        <v>7618.51</v>
+        <v>10078.21</v>
       </c>
       <c r="BG33">
-        <v>18064.34</v>
+        <v>20524.04</v>
       </c>
       <c r="BH33">
-        <v>16231.19</v>
+        <v>18690.89</v>
       </c>
       <c r="BI33">
-        <v>14398.04</v>
+        <v>16857.74</v>
       </c>
     </row>
     <row r="34">
@@ -6743,184 +6743,184 @@
         </is>
       </c>
       <c r="B34">
-        <v>11813.07</v>
+        <v>14272.77</v>
       </c>
       <c r="C34">
-        <v>11646.52</v>
+        <v>14106.22</v>
       </c>
       <c r="D34">
-        <v>11335.04</v>
+        <v>13794.74</v>
       </c>
       <c r="E34">
-        <v>12031.41</v>
+        <v>14491.11</v>
       </c>
       <c r="F34">
-        <v>11909.2</v>
+        <v>14368.9</v>
       </c>
       <c r="G34">
-        <v>11786.99</v>
+        <v>14246.69</v>
       </c>
       <c r="H34">
-        <v>13556.88</v>
+        <v>16016.58</v>
       </c>
       <c r="I34">
-        <v>13057.22</v>
+        <v>15516.92</v>
       </c>
       <c r="J34">
-        <v>12122.8</v>
+        <v>14582.5</v>
       </c>
       <c r="K34">
-        <v>14211.49</v>
+        <v>16671.19</v>
       </c>
       <c r="L34">
-        <v>13844.86</v>
+        <v>16304.56</v>
       </c>
       <c r="M34">
-        <v>13478.23</v>
+        <v>15937.93</v>
       </c>
       <c r="N34">
-        <v>14427.5</v>
+        <v>16887.2</v>
       </c>
       <c r="O34">
-        <v>13761.29</v>
+        <v>16220.99</v>
       </c>
       <c r="P34">
-        <v>12515.4</v>
+        <v>14975.1</v>
       </c>
       <c r="Q34">
-        <v>15301.44</v>
+        <v>17761.14</v>
       </c>
       <c r="R34">
-        <v>14812.59</v>
+        <v>17272.29</v>
       </c>
       <c r="S34">
-        <v>14323.75</v>
+        <v>16783.45</v>
       </c>
       <c r="T34">
-        <v>16169.95</v>
+        <v>18629.65</v>
       </c>
       <c r="U34">
-        <v>15170.64</v>
+        <v>17630.34</v>
       </c>
       <c r="V34">
-        <v>13301.8</v>
+        <v>15761.5</v>
       </c>
       <c r="W34">
-        <v>17480.53</v>
+        <v>19940.23</v>
       </c>
       <c r="X34">
-        <v>16747.27</v>
+        <v>19206.97</v>
       </c>
       <c r="Y34">
-        <v>16014.01</v>
+        <v>18473.71</v>
       </c>
       <c r="Z34">
-        <v>17041.51</v>
+        <v>19501.21</v>
       </c>
       <c r="AA34">
-        <v>15875.65</v>
+        <v>18335.35</v>
       </c>
       <c r="AB34">
-        <v>13695.33</v>
+        <v>16155.03</v>
       </c>
       <c r="AC34">
-        <v>18570.39</v>
+        <v>21030.09</v>
       </c>
       <c r="AD34">
-        <v>17714.91</v>
+        <v>20174.61</v>
       </c>
       <c r="AE34">
-        <v>16859.44</v>
+        <v>19319.14</v>
       </c>
       <c r="AF34">
-        <v>18784.62</v>
+        <v>21244.32</v>
       </c>
       <c r="AG34">
-        <v>17285.65</v>
+        <v>19745.35</v>
       </c>
       <c r="AH34">
-        <v>14482.39</v>
+        <v>16942.09</v>
       </c>
       <c r="AI34">
-        <v>20750.14</v>
+        <v>23209.84</v>
       </c>
       <c r="AJ34">
-        <v>19650.25</v>
+        <v>22109.95</v>
       </c>
       <c r="AK34">
-        <v>18550.35</v>
+        <v>21010.05</v>
       </c>
       <c r="AL34">
-        <v>19656.17</v>
+        <v>22115.87</v>
       </c>
       <c r="AM34">
-        <v>17990.65</v>
+        <v>20450.35</v>
       </c>
       <c r="AN34">
-        <v>14875.91</v>
+        <v>17335.61</v>
       </c>
       <c r="AO34">
-        <v>21840.08</v>
+        <v>24299.78</v>
       </c>
       <c r="AP34">
-        <v>20617.98</v>
+        <v>23077.68</v>
       </c>
       <c r="AQ34">
-        <v>19395.88</v>
+        <v>21855.58</v>
       </c>
       <c r="AR34">
-        <v>21399.28</v>
+        <v>23858.98</v>
       </c>
       <c r="AS34">
-        <v>19400.66</v>
+        <v>21860.36</v>
       </c>
       <c r="AT34">
-        <v>15662.97</v>
+        <v>18122.67</v>
       </c>
       <c r="AU34">
-        <v>24019.79</v>
+        <v>26479.49</v>
       </c>
       <c r="AV34">
-        <v>22553.26</v>
+        <v>25012.96</v>
       </c>
       <c r="AW34">
-        <v>21086.74</v>
+        <v>23546.44</v>
       </c>
       <c r="AX34">
-        <v>22270.83</v>
+        <v>24730.53</v>
       </c>
       <c r="AY34">
-        <v>20105.66</v>
+        <v>22565.36</v>
       </c>
       <c r="AZ34">
-        <v>16056.5</v>
+        <v>18516.2</v>
       </c>
       <c r="BA34">
-        <v>25109.69</v>
+        <v>27569.39</v>
       </c>
       <c r="BB34">
-        <v>23520.95</v>
+        <v>25980.65</v>
       </c>
       <c r="BC34">
-        <v>21932.22</v>
+        <v>24391.92</v>
       </c>
       <c r="BD34">
-        <v>24013.9</v>
+        <v>26473.6</v>
       </c>
       <c r="BE34">
-        <v>21515.62</v>
+        <v>23975.32</v>
       </c>
       <c r="BF34">
-        <v>16843.51</v>
+        <v>19303.21</v>
       </c>
       <c r="BG34">
-        <v>27289.34</v>
+        <v>29749.04</v>
       </c>
       <c r="BH34">
-        <v>25456.19</v>
+        <v>27915.89</v>
       </c>
       <c r="BI34">
-        <v>23623.04</v>
+        <v>26082.74</v>
       </c>
     </row>
     <row r="35">
@@ -6930,184 +6930,184 @@
         </is>
       </c>
       <c r="B35">
-        <v>-3752.66</v>
+        <v>-1292.02</v>
       </c>
       <c r="C35">
-        <v>-3919.21</v>
+        <v>-1458.57</v>
       </c>
       <c r="D35">
-        <v>-4230.68</v>
+        <v>-1770.04</v>
       </c>
       <c r="E35">
-        <v>-3534.31</v>
+        <v>-1073.67</v>
       </c>
       <c r="F35">
-        <v>-3656.52</v>
+        <v>-1195.88</v>
       </c>
       <c r="G35">
-        <v>-3778.73</v>
+        <v>-1318.09</v>
       </c>
       <c r="H35">
-        <v>-2008.85</v>
+        <v>451.79</v>
       </c>
       <c r="I35">
-        <v>-2508.5</v>
+        <v>-47.87</v>
       </c>
       <c r="J35">
-        <v>-3442.93</v>
+        <v>-982.29</v>
       </c>
       <c r="K35">
-        <v>-1354.23</v>
+        <v>1106.4</v>
       </c>
       <c r="L35">
-        <v>-1720.87</v>
+        <v>739.77</v>
       </c>
       <c r="M35">
-        <v>-2087.5</v>
+        <v>373.14</v>
       </c>
       <c r="N35">
-        <v>-1138.23</v>
+        <v>1322.41</v>
       </c>
       <c r="O35">
-        <v>-1804.43</v>
+        <v>656.2</v>
       </c>
       <c r="P35">
-        <v>-3050.33</v>
+        <v>-589.69</v>
       </c>
       <c r="Q35">
-        <v>-264.29</v>
+        <v>2196.35</v>
       </c>
       <c r="R35">
-        <v>-753.13</v>
+        <v>1707.51</v>
       </c>
       <c r="S35">
-        <v>-1241.97</v>
+        <v>1218.67</v>
       </c>
       <c r="T35">
-        <v>604.23</v>
+        <v>3064.87</v>
       </c>
       <c r="U35">
-        <v>-395.08</v>
+        <v>2065.56</v>
       </c>
       <c r="V35">
-        <v>-2263.92</v>
+        <v>196.71</v>
       </c>
       <c r="W35">
-        <v>1914.81</v>
+        <v>4375.45</v>
       </c>
       <c r="X35">
-        <v>1181.55</v>
+        <v>3642.19</v>
       </c>
       <c r="Y35">
-        <v>448.29</v>
+        <v>2908.92</v>
       </c>
       <c r="Z35">
-        <v>1475.78</v>
+        <v>3936.42</v>
       </c>
       <c r="AA35">
-        <v>309.92</v>
+        <v>2770.56</v>
       </c>
       <c r="AB35">
-        <v>-1870.4</v>
+        <v>590.24</v>
       </c>
       <c r="AC35">
-        <v>3004.66</v>
+        <v>5465.3</v>
       </c>
       <c r="AD35">
-        <v>2149.19</v>
+        <v>4609.83</v>
       </c>
       <c r="AE35">
-        <v>1293.72</v>
+        <v>3754.36</v>
       </c>
       <c r="AF35">
-        <v>3218.89</v>
+        <v>5679.53</v>
       </c>
       <c r="AG35">
-        <v>1719.92</v>
+        <v>4180.56</v>
       </c>
       <c r="AH35">
-        <v>-1083.34</v>
+        <v>1377.3</v>
       </c>
       <c r="AI35">
-        <v>5184.41</v>
+        <v>7645.05</v>
       </c>
       <c r="AJ35">
-        <v>4084.52</v>
+        <v>6545.16</v>
       </c>
       <c r="AK35">
-        <v>2984.63</v>
+        <v>5445.27</v>
       </c>
       <c r="AL35">
-        <v>4090.45</v>
+        <v>6551.08</v>
       </c>
       <c r="AM35">
-        <v>2424.93</v>
+        <v>4885.57</v>
       </c>
       <c r="AN35">
-        <v>-689.81</v>
+        <v>1770.83</v>
       </c>
       <c r="AO35">
-        <v>6274.36</v>
+        <v>8735</v>
       </c>
       <c r="AP35">
-        <v>5052.26</v>
+        <v>7512.89</v>
       </c>
       <c r="AQ35">
-        <v>3830.15</v>
+        <v>6290.79</v>
       </c>
       <c r="AR35">
-        <v>5833.55</v>
+        <v>8294.19</v>
       </c>
       <c r="AS35">
-        <v>3834.93</v>
+        <v>6295.57</v>
       </c>
       <c r="AT35">
-        <v>97.25</v>
+        <v>2557.89</v>
       </c>
       <c r="AU35">
-        <v>8454.06</v>
+        <v>10914.7</v>
       </c>
       <c r="AV35">
-        <v>6987.54</v>
+        <v>9448.18</v>
       </c>
       <c r="AW35">
-        <v>5521.02</v>
+        <v>7981.66</v>
       </c>
       <c r="AX35">
-        <v>6705.11</v>
+        <v>9165.75</v>
       </c>
       <c r="AY35">
-        <v>4539.93</v>
+        <v>7000.57</v>
       </c>
       <c r="AZ35">
-        <v>490.78</v>
+        <v>2951.41</v>
       </c>
       <c r="BA35">
-        <v>9543.96</v>
+        <v>12004.6</v>
       </c>
       <c r="BB35">
-        <v>7955.23</v>
+        <v>10415.87</v>
       </c>
       <c r="BC35">
-        <v>6366.5</v>
+        <v>8827.13</v>
       </c>
       <c r="BD35">
-        <v>8448.17</v>
+        <v>10908.81</v>
       </c>
       <c r="BE35">
-        <v>5949.89</v>
+        <v>8410.53</v>
       </c>
       <c r="BF35">
-        <v>1277.79</v>
+        <v>3738.42</v>
       </c>
       <c r="BG35">
-        <v>11723.62</v>
+        <v>14184.26</v>
       </c>
       <c r="BH35">
-        <v>9890.47</v>
+        <v>12351.1</v>
       </c>
       <c r="BI35">
-        <v>8057.31</v>
+        <v>10517.95</v>
       </c>
     </row>
     <row r="36">
@@ -7117,184 +7117,184 @@
         </is>
       </c>
       <c r="B36">
-        <v>10084.84</v>
+        <v>12546.98</v>
       </c>
       <c r="C36">
-        <v>9918.29</v>
+        <v>12380.43</v>
       </c>
       <c r="D36">
-        <v>9606.82</v>
+        <v>12068.96</v>
       </c>
       <c r="E36">
-        <v>10303.19</v>
+        <v>12765.33</v>
       </c>
       <c r="F36">
-        <v>10180.98</v>
+        <v>12643.12</v>
       </c>
       <c r="G36">
-        <v>10058.77</v>
+        <v>12520.91</v>
       </c>
       <c r="H36">
-        <v>11828.65</v>
+        <v>14290.79</v>
       </c>
       <c r="I36">
-        <v>11329</v>
+        <v>13791.13</v>
       </c>
       <c r="J36">
-        <v>10394.57</v>
+        <v>12856.71</v>
       </c>
       <c r="K36">
-        <v>12483.27</v>
+        <v>14945.4</v>
       </c>
       <c r="L36">
-        <v>12116.63</v>
+        <v>14578.77</v>
       </c>
       <c r="M36">
-        <v>11750</v>
+        <v>14212.14</v>
       </c>
       <c r="N36">
-        <v>12699.27</v>
+        <v>15161.41</v>
       </c>
       <c r="O36">
-        <v>12033.07</v>
+        <v>14495.2</v>
       </c>
       <c r="P36">
-        <v>10787.17</v>
+        <v>13249.31</v>
       </c>
       <c r="Q36">
-        <v>13573.21</v>
+        <v>16035.35</v>
       </c>
       <c r="R36">
-        <v>13084.37</v>
+        <v>15546.51</v>
       </c>
       <c r="S36">
-        <v>12595.53</v>
+        <v>15057.67</v>
       </c>
       <c r="T36">
-        <v>14441.73</v>
+        <v>16903.87</v>
       </c>
       <c r="U36">
-        <v>13442.42</v>
+        <v>15904.56</v>
       </c>
       <c r="V36">
-        <v>11573.58</v>
+        <v>14035.71</v>
       </c>
       <c r="W36">
-        <v>15752.31</v>
+        <v>18214.45</v>
       </c>
       <c r="X36">
-        <v>15019.05</v>
+        <v>17481.19</v>
       </c>
       <c r="Y36">
-        <v>14285.79</v>
+        <v>16747.92</v>
       </c>
       <c r="Z36">
-        <v>15313.28</v>
+        <v>17775.42</v>
       </c>
       <c r="AA36">
-        <v>14147.42</v>
+        <v>16609.56</v>
       </c>
       <c r="AB36">
-        <v>11967.1</v>
+        <v>14429.24</v>
       </c>
       <c r="AC36">
-        <v>16842.16</v>
+        <v>19304.3</v>
       </c>
       <c r="AD36">
-        <v>15986.69</v>
+        <v>18448.83</v>
       </c>
       <c r="AE36">
-        <v>15131.22</v>
+        <v>17593.36</v>
       </c>
       <c r="AF36">
-        <v>17056.39</v>
+        <v>19518.53</v>
       </c>
       <c r="AG36">
-        <v>15557.42</v>
+        <v>18019.56</v>
       </c>
       <c r="AH36">
-        <v>12754.16</v>
+        <v>15216.3</v>
       </c>
       <c r="AI36">
-        <v>19021.91</v>
+        <v>21484.05</v>
       </c>
       <c r="AJ36">
-        <v>17922.02</v>
+        <v>20384.16</v>
       </c>
       <c r="AK36">
-        <v>16822.13</v>
+        <v>19284.27</v>
       </c>
       <c r="AL36">
-        <v>17927.95</v>
+        <v>20390.08</v>
       </c>
       <c r="AM36">
-        <v>16262.43</v>
+        <v>18724.57</v>
       </c>
       <c r="AN36">
-        <v>13147.69</v>
+        <v>15609.83</v>
       </c>
       <c r="AO36">
-        <v>20111.86</v>
+        <v>22574</v>
       </c>
       <c r="AP36">
-        <v>18889.76</v>
+        <v>21351.89</v>
       </c>
       <c r="AQ36">
-        <v>17667.65</v>
+        <v>20129.79</v>
       </c>
       <c r="AR36">
-        <v>19671.05</v>
+        <v>22133.19</v>
       </c>
       <c r="AS36">
-        <v>17672.43</v>
+        <v>20134.57</v>
       </c>
       <c r="AT36">
-        <v>13934.75</v>
+        <v>16396.89</v>
       </c>
       <c r="AU36">
-        <v>22291.56</v>
+        <v>24753.7</v>
       </c>
       <c r="AV36">
-        <v>20825.04</v>
+        <v>23287.18</v>
       </c>
       <c r="AW36">
-        <v>19358.52</v>
+        <v>21820.66</v>
       </c>
       <c r="AX36">
-        <v>20542.61</v>
+        <v>23004.75</v>
       </c>
       <c r="AY36">
-        <v>18377.43</v>
+        <v>20839.57</v>
       </c>
       <c r="AZ36">
-        <v>14328.28</v>
+        <v>16790.41</v>
       </c>
       <c r="BA36">
-        <v>23381.46</v>
+        <v>25843.6</v>
       </c>
       <c r="BB36">
-        <v>21792.73</v>
+        <v>24254.87</v>
       </c>
       <c r="BC36">
-        <v>20204</v>
+        <v>22666.13</v>
       </c>
       <c r="BD36">
-        <v>22285.67</v>
+        <v>24747.81</v>
       </c>
       <c r="BE36">
-        <v>19787.39</v>
+        <v>22249.53</v>
       </c>
       <c r="BF36">
-        <v>15115.29</v>
+        <v>17577.42</v>
       </c>
       <c r="BG36">
-        <v>25561.12</v>
+        <v>28023.26</v>
       </c>
       <c r="BH36">
-        <v>23727.97</v>
+        <v>26190.1</v>
       </c>
       <c r="BI36">
-        <v>21894.81</v>
+        <v>24356.95</v>
       </c>
     </row>
     <row r="37">
@@ -7304,184 +7304,184 @@
         </is>
       </c>
       <c r="B37">
-        <v>23922.34</v>
+        <v>26385.98</v>
       </c>
       <c r="C37">
-        <v>23755.79</v>
+        <v>26219.43</v>
       </c>
       <c r="D37">
-        <v>23444.32</v>
+        <v>25907.96</v>
       </c>
       <c r="E37">
-        <v>24140.69</v>
+        <v>26604.33</v>
       </c>
       <c r="F37">
-        <v>24018.48</v>
+        <v>26482.12</v>
       </c>
       <c r="G37">
-        <v>23896.27</v>
+        <v>26359.91</v>
       </c>
       <c r="H37">
-        <v>25666.15</v>
+        <v>28129.79</v>
       </c>
       <c r="I37">
-        <v>25166.5</v>
+        <v>27630.13</v>
       </c>
       <c r="J37">
-        <v>24232.07</v>
+        <v>26695.71</v>
       </c>
       <c r="K37">
-        <v>26320.77</v>
+        <v>28784.4</v>
       </c>
       <c r="L37">
-        <v>25954.13</v>
+        <v>28417.77</v>
       </c>
       <c r="M37">
-        <v>25587.5</v>
+        <v>28051.14</v>
       </c>
       <c r="N37">
-        <v>26536.77</v>
+        <v>29000.41</v>
       </c>
       <c r="O37">
-        <v>25870.57</v>
+        <v>28334.2</v>
       </c>
       <c r="P37">
-        <v>24624.67</v>
+        <v>27088.31</v>
       </c>
       <c r="Q37">
-        <v>27410.71</v>
+        <v>29874.35</v>
       </c>
       <c r="R37">
-        <v>26921.87</v>
+        <v>29385.51</v>
       </c>
       <c r="S37">
-        <v>26433.03</v>
+        <v>28896.67</v>
       </c>
       <c r="T37">
-        <v>28279.23</v>
+        <v>30742.87</v>
       </c>
       <c r="U37">
-        <v>27279.92</v>
+        <v>29743.56</v>
       </c>
       <c r="V37">
-        <v>25411.08</v>
+        <v>27874.71</v>
       </c>
       <c r="W37">
-        <v>29589.81</v>
+        <v>32053.45</v>
       </c>
       <c r="X37">
-        <v>28856.55</v>
+        <v>31320.19</v>
       </c>
       <c r="Y37">
-        <v>28123.29</v>
+        <v>30586.92</v>
       </c>
       <c r="Z37">
-        <v>29150.78</v>
+        <v>31614.42</v>
       </c>
       <c r="AA37">
-        <v>27984.92</v>
+        <v>30448.56</v>
       </c>
       <c r="AB37">
-        <v>25804.6</v>
+        <v>28268.24</v>
       </c>
       <c r="AC37">
-        <v>30679.66</v>
+        <v>33143.3</v>
       </c>
       <c r="AD37">
-        <v>29824.19</v>
+        <v>32287.83</v>
       </c>
       <c r="AE37">
-        <v>28968.72</v>
+        <v>31432.36</v>
       </c>
       <c r="AF37">
-        <v>30893.89</v>
+        <v>33357.53</v>
       </c>
       <c r="AG37">
-        <v>29394.92</v>
+        <v>31858.56</v>
       </c>
       <c r="AH37">
-        <v>26591.66</v>
+        <v>29055.3</v>
       </c>
       <c r="AI37">
-        <v>32859.41</v>
+        <v>35323.05</v>
       </c>
       <c r="AJ37">
-        <v>31759.52</v>
+        <v>34223.16</v>
       </c>
       <c r="AK37">
-        <v>30659.63</v>
+        <v>33123.27</v>
       </c>
       <c r="AL37">
-        <v>31765.45</v>
+        <v>34229.08</v>
       </c>
       <c r="AM37">
-        <v>30099.93</v>
+        <v>32563.57</v>
       </c>
       <c r="AN37">
-        <v>26985.19</v>
+        <v>29448.83</v>
       </c>
       <c r="AO37">
-        <v>33949.36</v>
+        <v>36413</v>
       </c>
       <c r="AP37">
-        <v>32727.26</v>
+        <v>35190.89</v>
       </c>
       <c r="AQ37">
-        <v>31505.15</v>
+        <v>33968.79</v>
       </c>
       <c r="AR37">
-        <v>33508.55</v>
+        <v>35972.19</v>
       </c>
       <c r="AS37">
-        <v>31509.93</v>
+        <v>33973.57</v>
       </c>
       <c r="AT37">
-        <v>27772.25</v>
+        <v>30235.89</v>
       </c>
       <c r="AU37">
-        <v>36129.06</v>
+        <v>38592.7</v>
       </c>
       <c r="AV37">
-        <v>34662.54</v>
+        <v>37126.18</v>
       </c>
       <c r="AW37">
-        <v>33196.02</v>
+        <v>35659.66</v>
       </c>
       <c r="AX37">
-        <v>34380.11</v>
+        <v>36843.75</v>
       </c>
       <c r="AY37">
-        <v>32214.93</v>
+        <v>34678.57</v>
       </c>
       <c r="AZ37">
-        <v>28165.78</v>
+        <v>30629.41</v>
       </c>
       <c r="BA37">
-        <v>37218.96</v>
+        <v>39682.6</v>
       </c>
       <c r="BB37">
-        <v>35630.23</v>
+        <v>38093.87</v>
       </c>
       <c r="BC37">
-        <v>34041.5</v>
+        <v>36505.13</v>
       </c>
       <c r="BD37">
-        <v>36123.17</v>
+        <v>38586.81</v>
       </c>
       <c r="BE37">
-        <v>33624.89</v>
+        <v>36088.53</v>
       </c>
       <c r="BF37">
-        <v>28952.79</v>
+        <v>31416.42</v>
       </c>
       <c r="BG37">
-        <v>39398.62</v>
+        <v>41862.26</v>
       </c>
       <c r="BH37">
-        <v>37565.47</v>
+        <v>40029.1</v>
       </c>
       <c r="BI37">
-        <v>35732.31</v>
+        <v>38195.95</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Profit Ctab SBAV R50.xlsx
+++ b/Results/Profit Ctab SBAV R50.xlsx
@@ -1,19 +1,323 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Agrivoltaics-alabama/Results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_B11C8066CBDFECC5838A5044B981EE560BC06584" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7478CA5E-D8B9-432A-8213-25DEA5E49AAE}"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" windowHeight="13125" windowWidth="13125" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+  <si>
+    <t>Row_Names</t>
+  </si>
+  <si>
+    <t>0.1 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.1 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.1 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.1 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.1 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.1 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.2 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.2 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.2 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.2 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.2 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.2 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.3 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.3 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.3 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.3 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.3 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.3 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.4 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.4 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.4 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.4 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.4 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.4 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.5 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.5 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.5 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.5 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.5 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.5 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.6 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.6 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.6 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.6 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.6 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.6 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.7 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.7 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.7 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.7 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.7 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.7 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.8 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.8 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.8 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.8 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.8 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.8 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.9 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.9 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.9 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.9 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.9 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.9 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>1.0 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>1.0 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>1.0 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>1.0 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>1.0 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>1.0 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>Northern 0.5 3</t>
+  </si>
+  <si>
+    <t>Northern 0.5 6</t>
+  </si>
+  <si>
+    <t>Northern 0.5 9</t>
+  </si>
+  <si>
+    <t>Northern 1.0 3</t>
+  </si>
+  <si>
+    <t>Northern 1.0 6</t>
+  </si>
+  <si>
+    <t>Northern 1.0 9</t>
+  </si>
+  <si>
+    <t>Northern 1.5 3</t>
+  </si>
+  <si>
+    <t>Northern 1.5 6</t>
+  </si>
+  <si>
+    <t>Northern 1.5 9</t>
+  </si>
+  <si>
+    <t>Central 0.5 3</t>
+  </si>
+  <si>
+    <t>Central 0.5 6</t>
+  </si>
+  <si>
+    <t>Central 0.5 9</t>
+  </si>
+  <si>
+    <t>Central 1.0 3</t>
+  </si>
+  <si>
+    <t>Central 1.0 6</t>
+  </si>
+  <si>
+    <t>Central 1.0 9</t>
+  </si>
+  <si>
+    <t>Central 1.5 3</t>
+  </si>
+  <si>
+    <t>Central 1.5 6</t>
+  </si>
+  <si>
+    <t>Central 1.5 9</t>
+  </si>
+  <si>
+    <t>Black Belt 0.5 3</t>
+  </si>
+  <si>
+    <t>Black Belt 0.5 6</t>
+  </si>
+  <si>
+    <t>Black Belt 0.5 9</t>
+  </si>
+  <si>
+    <t>Black Belt 1.0 3</t>
+  </si>
+  <si>
+    <t>Black Belt 1.0 6</t>
+  </si>
+  <si>
+    <t>Black Belt 1.0 9</t>
+  </si>
+  <si>
+    <t>Black Belt 1.5 3</t>
+  </si>
+  <si>
+    <t>Black Belt 1.5 6</t>
+  </si>
+  <si>
+    <t>Black Belt 1.5 9</t>
+  </si>
+  <si>
+    <t>Southern 0.5 3</t>
+  </si>
+  <si>
+    <t>Southern 0.5 6</t>
+  </si>
+  <si>
+    <t>Southern 0.5 9</t>
+  </si>
+  <si>
+    <t>Southern 1.0 3</t>
+  </si>
+  <si>
+    <t>Southern 1.0 6</t>
+  </si>
+  <si>
+    <t>Southern 1.0 9</t>
+  </si>
+  <si>
+    <t>Southern 1.5 3</t>
+  </si>
+  <si>
+    <t>Southern 1.5 6</t>
+  </si>
+  <si>
+    <t>Southern 1.5 9</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,74 +353,83 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="1" name="Table1" displayName="Table1" ref="A1:BI37" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:BI37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:BI37" totalsRowShown="0">
+  <autoFilter ref="A1:BI37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="61">
-    <tableColumn id="1" name="Row_Names"/>
-    <tableColumn id="2" name="0.1 Fixed 4.6"/>
-    <tableColumn id="3" name="0.1 Fixed 6.4"/>
-    <tableColumn id="4" name="0.1 Fixed 8.2"/>
-    <tableColumn id="5" name="0.1 Tracking 4.6"/>
-    <tableColumn id="6" name="0.1 Tracking 6.4"/>
-    <tableColumn id="7" name="0.1 Tracking 8.2"/>
-    <tableColumn id="8" name="0.2 Fixed 4.6"/>
-    <tableColumn id="9" name="0.2 Fixed 6.4"/>
-    <tableColumn id="10" name="0.2 Fixed 8.2"/>
-    <tableColumn id="11" name="0.2 Tracking 4.6"/>
-    <tableColumn id="12" name="0.2 Tracking 6.4"/>
-    <tableColumn id="13" name="0.2 Tracking 8.2"/>
-    <tableColumn id="14" name="0.3 Fixed 4.6"/>
-    <tableColumn id="15" name="0.3 Fixed 6.4"/>
-    <tableColumn id="16" name="0.3 Fixed 8.2"/>
-    <tableColumn id="17" name="0.3 Tracking 4.6"/>
-    <tableColumn id="18" name="0.3 Tracking 6.4"/>
-    <tableColumn id="19" name="0.3 Tracking 8.2"/>
-    <tableColumn id="20" name="0.4 Fixed 4.6"/>
-    <tableColumn id="21" name="0.4 Fixed 6.4"/>
-    <tableColumn id="22" name="0.4 Fixed 8.2"/>
-    <tableColumn id="23" name="0.4 Tracking 4.6"/>
-    <tableColumn id="24" name="0.4 Tracking 6.4"/>
-    <tableColumn id="25" name="0.4 Tracking 8.2"/>
-    <tableColumn id="26" name="0.5 Fixed 4.6"/>
-    <tableColumn id="27" name="0.5 Fixed 6.4"/>
-    <tableColumn id="28" name="0.5 Fixed 8.2"/>
-    <tableColumn id="29" name="0.5 Tracking 4.6"/>
-    <tableColumn id="30" name="0.5 Tracking 6.4"/>
-    <tableColumn id="31" name="0.5 Tracking 8.2"/>
-    <tableColumn id="32" name="0.6 Fixed 4.6"/>
-    <tableColumn id="33" name="0.6 Fixed 6.4"/>
-    <tableColumn id="34" name="0.6 Fixed 8.2"/>
-    <tableColumn id="35" name="0.6 Tracking 4.6"/>
-    <tableColumn id="36" name="0.6 Tracking 6.4"/>
-    <tableColumn id="37" name="0.6 Tracking 8.2"/>
-    <tableColumn id="38" name="0.7 Fixed 4.6"/>
-    <tableColumn id="39" name="0.7 Fixed 6.4"/>
-    <tableColumn id="40" name="0.7 Fixed 8.2"/>
-    <tableColumn id="41" name="0.7 Tracking 4.6"/>
-    <tableColumn id="42" name="0.7 Tracking 6.4"/>
-    <tableColumn id="43" name="0.7 Tracking 8.2"/>
-    <tableColumn id="44" name="0.8 Fixed 4.6"/>
-    <tableColumn id="45" name="0.8 Fixed 6.4"/>
-    <tableColumn id="46" name="0.8 Fixed 8.2"/>
-    <tableColumn id="47" name="0.8 Tracking 4.6"/>
-    <tableColumn id="48" name="0.8 Tracking 6.4"/>
-    <tableColumn id="49" name="0.8 Tracking 8.2"/>
-    <tableColumn id="50" name="0.9 Fixed 4.6"/>
-    <tableColumn id="51" name="0.9 Fixed 6.4"/>
-    <tableColumn id="52" name="0.9 Fixed 8.2"/>
-    <tableColumn id="53" name="0.9 Tracking 4.6"/>
-    <tableColumn id="54" name="0.9 Tracking 6.4"/>
-    <tableColumn id="55" name="0.9 Tracking 8.2"/>
-    <tableColumn id="56" name="1.0 Fixed 4.6"/>
-    <tableColumn id="57" name="1.0 Fixed 6.4"/>
-    <tableColumn id="58" name="1.0 Fixed 8.2"/>
-    <tableColumn id="59" name="1.0 Tracking 4.6"/>
-    <tableColumn id="60" name="1.0 Tracking 6.4"/>
-    <tableColumn id="61" name="1.0 Tracking 8.2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Row_Names"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="0.1 Fixed 4.6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="0.1 Fixed 6.4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="0.1 Fixed 8.2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="0.1 Tracking 4.6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="0.1 Tracking 6.4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="0.1 Tracking 8.2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="0.2 Fixed 4.6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="0.2 Fixed 6.4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="0.2 Fixed 8.2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="0.2 Tracking 4.6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="0.2 Tracking 6.4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="0.2 Tracking 8.2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="0.3 Fixed 4.6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="0.3 Fixed 6.4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="0.3 Fixed 8.2"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="0.3 Tracking 4.6"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="0.3 Tracking 6.4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="0.3 Tracking 8.2"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="0.4 Fixed 4.6"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="0.4 Fixed 6.4"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="0.4 Fixed 8.2"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="0.4 Tracking 4.6"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="0.4 Tracking 6.4"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="0.4 Tracking 8.2"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="0.5 Fixed 4.6"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="0.5 Fixed 6.4"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="0.5 Fixed 8.2"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="0.5 Tracking 4.6"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="0.5 Tracking 6.4"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="0.5 Tracking 8.2"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="0.6 Fixed 4.6"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="0.6 Fixed 6.4"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="0.6 Fixed 8.2"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="0.6 Tracking 4.6"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="0.6 Tracking 6.4"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="0.6 Tracking 8.2"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="0.7 Fixed 4.6"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="0.7 Fixed 6.4"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="0.7 Fixed 8.2"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="0.7 Tracking 4.6"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="0.7 Tracking 6.4"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="0.7 Tracking 8.2"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="0.8 Fixed 4.6"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="0.8 Fixed 6.4"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="0.8 Fixed 8.2"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="0.8 Tracking 4.6"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="0.8 Tracking 6.4"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="0.8 Tracking 8.2"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="0.9 Fixed 4.6"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="0.9 Fixed 6.4"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="0.9 Fixed 8.2"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="0.9 Tracking 4.6"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="0.9 Tracking 6.4"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="0.9 Tracking 8.2"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="1.0 Fixed 4.6"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="1.0 Fixed 6.4"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="1.0 Fixed 8.2"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="1.0 Tracking 4.6"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="1.0 Tracking 6.4"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="1.0 Tracking 8.2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -438,325 +751,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI37"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AS13" sqref="AS13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Row_Names</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>0.1 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>0.1 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>0.1 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>0.1 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>0.1 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>0.1 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>0.2 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>0.2 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>0.2 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>0.2 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>0.2 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>0.2 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>0.3 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>0.3 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>0.3 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>0.3 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>0.3 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>0.3 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>0.4 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>0.4 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>0.4 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>0.4 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>0.4 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>0.4 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>0.5 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>0.5 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>0.5 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>0.5 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>0.5 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>0.5 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>0.6 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>0.6 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>0.6 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>0.6 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>0.6 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>0.6 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>0.7 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>0.7 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>0.7 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>0.7 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>0.7 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>0.7 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>0.8 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>0.8 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>0.8 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>0.8 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>0.8 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>0.8 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>0.9 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>0.9 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>0.9 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>0.9 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>0.9 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>0.9 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>1.0 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>1.0 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>1.0 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>1.0 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>1.0 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>1.0 Tracking 8.2</t>
-        </is>
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Northern 0.5 3</t>
-        </is>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
       </c>
       <c r="B2">
         <v>-7182.85</v>
@@ -822,7 +1039,7 @@
         <v>-6304.81</v>
       </c>
       <c r="W2">
-        <v>-2436.76</v>
+        <v>-2436.7600000000002</v>
       </c>
       <c r="X2">
         <v>-3170.02</v>
@@ -843,7 +1060,7 @@
         <v>-1520.77</v>
       </c>
       <c r="AD2">
-        <v>-2376.24</v>
+        <v>-2376.2399999999998</v>
       </c>
       <c r="AE2">
         <v>-3231.71</v>
@@ -876,13 +1093,13 @@
         <v>-5219.34</v>
       </c>
       <c r="AO2">
-        <v>1227.1</v>
+        <v>1227.0999999999999</v>
       </c>
       <c r="AP2">
         <v>5</v>
       </c>
       <c r="AQ2">
-        <v>-1217.1</v>
+        <v>-1217.0999999999999</v>
       </c>
       <c r="AR2">
         <v>1059.7</v>
@@ -891,7 +1108,7 @@
         <v>-938.92</v>
       </c>
       <c r="AT2">
-        <v>-4676.61</v>
+        <v>-4676.6099999999997</v>
       </c>
       <c r="AU2">
         <v>3059.03</v>
@@ -915,7 +1132,7 @@
         <v>3974.97</v>
       </c>
       <c r="BB2">
-        <v>2386.24</v>
+        <v>2386.2399999999998</v>
       </c>
       <c r="BC2">
         <v>797.51</v>
@@ -936,14 +1153,12 @@
         <v>3973.7</v>
       </c>
       <c r="BI2">
-        <v>2140.55</v>
+        <v>2140.5500000000002</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Northern 0.5 6</t>
-        </is>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
       </c>
       <c r="B3">
         <v>-2568.85</v>
@@ -973,7 +1188,7 @@
         <v>-2503.58</v>
       </c>
       <c r="K3">
-        <v>-570.07</v>
+        <v>-570.07000000000005</v>
       </c>
       <c r="L3">
         <v>-936.7</v>
@@ -1000,7 +1215,7 @@
         <v>-631.71</v>
       </c>
       <c r="T3">
-        <v>1177.35</v>
+        <v>1177.3499999999999</v>
       </c>
       <c r="U3">
         <v>178.03</v>
@@ -1009,7 +1224,7 @@
         <v>-1690.81</v>
       </c>
       <c r="W3">
-        <v>2177.24</v>
+        <v>2177.2399999999998</v>
       </c>
       <c r="X3">
         <v>1443.98</v>
@@ -1030,7 +1245,7 @@
         <v>3093.23</v>
       </c>
       <c r="AD3">
-        <v>2237.76</v>
+        <v>2237.7600000000002</v>
       </c>
       <c r="AE3">
         <v>1382.29</v>
@@ -1045,7 +1260,7 @@
         <v>-876.68</v>
       </c>
       <c r="AI3">
-        <v>4925.11</v>
+        <v>4925.1099999999997</v>
       </c>
       <c r="AJ3">
         <v>3825.22</v>
@@ -1087,19 +1302,19 @@
         <v>6206.51</v>
       </c>
       <c r="AW3">
-        <v>4739.98</v>
+        <v>4739.9799999999996</v>
       </c>
       <c r="AX3">
         <v>6423.12</v>
       </c>
       <c r="AY3">
-        <v>4257.94</v>
+        <v>4257.9399999999996</v>
       </c>
       <c r="AZ3">
         <v>208.78</v>
       </c>
       <c r="BA3">
-        <v>8588.97</v>
+        <v>8588.9699999999993</v>
       </c>
       <c r="BB3">
         <v>7000.24</v>
@@ -1120,17 +1335,15 @@
         <v>10420.85</v>
       </c>
       <c r="BH3">
-        <v>8587.7</v>
+        <v>8587.7000000000007</v>
       </c>
       <c r="BI3">
         <v>6754.55</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Northern 0.5 9</t>
-        </is>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
       </c>
       <c r="B4">
         <v>2045.15</v>
@@ -1235,7 +1448,7 @@
         <v>9539.11</v>
       </c>
       <c r="AJ4">
-        <v>8439.22</v>
+        <v>8439.2199999999993</v>
       </c>
       <c r="AK4">
         <v>7339.33</v>
@@ -1259,13 +1472,13 @@
         <v>8010.9</v>
       </c>
       <c r="AR4">
-        <v>10287.7</v>
+        <v>10287.700000000001</v>
       </c>
       <c r="AS4">
         <v>8289.08</v>
       </c>
       <c r="AT4">
-        <v>4551.39</v>
+        <v>4551.3900000000003</v>
       </c>
       <c r="AU4">
         <v>12287.03</v>
@@ -1313,29 +1526,27 @@
         <v>11368.55</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Northern 1.0 3</t>
-        </is>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
       </c>
       <c r="B5">
         <v>-4299.51</v>
       </c>
       <c r="C5">
-        <v>-4466.06</v>
+        <v>-4466.0600000000004</v>
       </c>
       <c r="D5">
         <v>-4777.54</v>
       </c>
       <c r="E5">
-        <v>-4132.89</v>
+        <v>-4132.8900000000003</v>
       </c>
       <c r="F5">
-        <v>-4255.1</v>
+        <v>-4255.1000000000004</v>
       </c>
       <c r="G5">
-        <v>-4377.31</v>
+        <v>-4377.3100000000004</v>
       </c>
       <c r="H5">
         <v>-2800.17</v>
@@ -1374,7 +1585,7 @@
         <v>-2362.38</v>
       </c>
       <c r="T5">
-        <v>-553.32</v>
+        <v>-553.32000000000005</v>
       </c>
       <c r="U5">
         <v>-1552.63</v>
@@ -1437,7 +1648,7 @@
         <v>-2336</v>
       </c>
       <c r="AO5">
-        <v>4110.44</v>
+        <v>4110.4399999999996</v>
       </c>
       <c r="AP5">
         <v>2888.34</v>
@@ -1467,7 +1678,7 @@
         <v>4692.45</v>
       </c>
       <c r="AY5">
-        <v>2527.28</v>
+        <v>2527.2800000000002</v>
       </c>
       <c r="AZ5">
         <v>-1521.88</v>
@@ -1500,29 +1711,27 @@
         <v>5023.88</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Northern 1.0 6</t>
-        </is>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
       </c>
       <c r="B6">
         <v>4925.49</v>
       </c>
       <c r="C6">
-        <v>4758.94</v>
+        <v>4758.9399999999996</v>
       </c>
       <c r="D6">
         <v>4447.46</v>
       </c>
       <c r="E6">
-        <v>5092.11</v>
+        <v>5092.1099999999997</v>
       </c>
       <c r="F6">
-        <v>4969.9</v>
+        <v>4969.8999999999996</v>
       </c>
       <c r="G6">
-        <v>4847.69</v>
+        <v>4847.6899999999996</v>
       </c>
       <c r="H6">
         <v>6424.83</v>
@@ -1579,7 +1788,7 @@
         <v>8205.06</v>
       </c>
       <c r="Z6">
-        <v>9421.05</v>
+        <v>9421.0499999999993</v>
       </c>
       <c r="AA6">
         <v>8255.19</v>
@@ -1594,7 +1803,7 @@
         <v>9732.1</v>
       </c>
       <c r="AE6">
-        <v>8876.63</v>
+        <v>8876.6299999999992</v>
       </c>
       <c r="AF6">
         <v>10919.88</v>
@@ -1678,7 +1887,7 @@
         <v>8245.81</v>
       </c>
       <c r="BG6">
-        <v>17915.19</v>
+        <v>17915.189999999999</v>
       </c>
       <c r="BH6">
         <v>16082.04</v>
@@ -1687,11 +1896,9 @@
         <v>14248.88</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Northern 1.0 9</t>
-        </is>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
       </c>
       <c r="B7">
         <v>14150.49</v>
@@ -1757,19 +1964,19 @@
         <v>15028.53</v>
       </c>
       <c r="W7">
-        <v>18896.58</v>
+        <v>18896.580000000002</v>
       </c>
       <c r="X7">
         <v>18163.32</v>
       </c>
       <c r="Y7">
-        <v>17430.06</v>
+        <v>17430.060000000001</v>
       </c>
       <c r="Z7">
         <v>18646.05</v>
       </c>
       <c r="AA7">
-        <v>17480.19</v>
+        <v>17480.189999999999</v>
       </c>
       <c r="AB7">
         <v>15299.87</v>
@@ -1778,7 +1985,7 @@
         <v>19812.57</v>
       </c>
       <c r="AD7">
-        <v>18957.1</v>
+        <v>18957.099999999999</v>
       </c>
       <c r="AE7">
         <v>18101.63</v>
@@ -1787,7 +1994,7 @@
         <v>20144.88</v>
       </c>
       <c r="AG7">
-        <v>18645.92</v>
+        <v>18645.919999999998</v>
       </c>
       <c r="AH7">
         <v>15842.65</v>
@@ -1796,10 +2003,10 @@
         <v>21644.45</v>
       </c>
       <c r="AJ7">
-        <v>20544.56</v>
+        <v>20544.560000000001</v>
       </c>
       <c r="AK7">
-        <v>19444.67</v>
+        <v>19444.669999999998</v>
       </c>
       <c r="AL7">
         <v>20894.25</v>
@@ -1820,7 +2027,7 @@
         <v>20116.23</v>
       </c>
       <c r="AR7">
-        <v>22393.04</v>
+        <v>22393.040000000001</v>
       </c>
       <c r="AS7">
         <v>20394.41</v>
@@ -1841,7 +2048,7 @@
         <v>23142.45</v>
       </c>
       <c r="AY7">
-        <v>20977.28</v>
+        <v>20977.279999999999</v>
       </c>
       <c r="AZ7">
         <v>16928.12</v>
@@ -1862,23 +2069,21 @@
         <v>22142.91</v>
       </c>
       <c r="BF7">
-        <v>17470.81</v>
+        <v>17470.810000000001</v>
       </c>
       <c r="BG7">
         <v>27140.19</v>
       </c>
       <c r="BH7">
-        <v>25307.04</v>
+        <v>25307.040000000001</v>
       </c>
       <c r="BI7">
         <v>23473.88</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Northern 1.5 3</t>
-        </is>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
       </c>
       <c r="B8">
         <v>-1414.3</v>
@@ -1923,7 +2128,7 @@
         <v>167.51</v>
       </c>
       <c r="P8">
-        <v>-1078.39</v>
+        <v>-1078.3900000000001</v>
       </c>
       <c r="Q8">
         <v>1500.52</v>
@@ -1947,7 +2152,7 @@
         <v>3331.79</v>
       </c>
       <c r="X8">
-        <v>2598.53</v>
+        <v>2598.5300000000002</v>
       </c>
       <c r="Y8">
         <v>1865.27</v>
@@ -1959,7 +2164,7 @@
         <v>1915.4</v>
       </c>
       <c r="AB8">
-        <v>-264.91</v>
+        <v>-264.91000000000003</v>
       </c>
       <c r="AC8">
         <v>4247.78</v>
@@ -1971,7 +2176,7 @@
         <v>2536.84</v>
       </c>
       <c r="AF8">
-        <v>4580.1</v>
+        <v>4580.1000000000004</v>
       </c>
       <c r="AG8">
         <v>3081.13</v>
@@ -1983,7 +2188,7 @@
         <v>6079.66</v>
       </c>
       <c r="AJ8">
-        <v>4979.77</v>
+        <v>4979.7700000000004</v>
       </c>
       <c r="AK8">
         <v>3879.88</v>
@@ -2061,11 +2266,9 @@
         <v>7909.1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Northern 1.5 6</t>
-        </is>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
       </c>
       <c r="B9">
         <v>12424.7</v>
@@ -2152,13 +2355,13 @@
         <v>18086.78</v>
       </c>
       <c r="AD9">
-        <v>17231.31</v>
+        <v>17231.310000000001</v>
       </c>
       <c r="AE9">
         <v>16375.84</v>
       </c>
       <c r="AF9">
-        <v>18419.1</v>
+        <v>18419.099999999999</v>
       </c>
       <c r="AG9">
         <v>16920.13</v>
@@ -2185,7 +2388,7 @@
         <v>14388.21</v>
       </c>
       <c r="AO9">
-        <v>20834.65</v>
+        <v>20834.650000000001</v>
       </c>
       <c r="AP9">
         <v>19612.55</v>
@@ -2215,7 +2418,7 @@
         <v>21416.67</v>
       </c>
       <c r="AY9">
-        <v>19251.49</v>
+        <v>19251.490000000002</v>
       </c>
       <c r="AZ9">
         <v>15202.33</v>
@@ -2227,7 +2430,7 @@
         <v>21993.79</v>
       </c>
       <c r="BC9">
-        <v>20405.06</v>
+        <v>20405.060000000001</v>
       </c>
       <c r="BD9">
         <v>22915.4</v>
@@ -2239,7 +2442,7 @@
         <v>15745.02</v>
       </c>
       <c r="BG9">
-        <v>25414.4</v>
+        <v>25414.400000000001</v>
       </c>
       <c r="BH9">
         <v>23581.25</v>
@@ -2248,11 +2451,9 @@
         <v>21748.1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Northern 1.5 9</t>
-        </is>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
       </c>
       <c r="B10">
         <v>26263.7</v>
@@ -2354,7 +2555,7 @@
         <v>27955.87</v>
       </c>
       <c r="AI10">
-        <v>33757.66</v>
+        <v>33757.660000000003</v>
       </c>
       <c r="AJ10">
         <v>32657.77</v>
@@ -2375,7 +2576,7 @@
         <v>34673.65</v>
       </c>
       <c r="AP10">
-        <v>33451.55</v>
+        <v>33451.550000000003</v>
       </c>
       <c r="AQ10">
         <v>32229.45</v>
@@ -2408,7 +2609,7 @@
         <v>29041.33</v>
       </c>
       <c r="BA10">
-        <v>37421.52</v>
+        <v>37421.519999999997</v>
       </c>
       <c r="BB10">
         <v>35832.79</v>
@@ -2417,10 +2618,10 @@
         <v>34244.06</v>
       </c>
       <c r="BD10">
-        <v>36754.4</v>
+        <v>36754.400000000001</v>
       </c>
       <c r="BE10">
-        <v>34256.12</v>
+        <v>34256.120000000003</v>
       </c>
       <c r="BF10">
         <v>29584.02</v>
@@ -2435,11 +2636,9 @@
         <v>35587.1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Central 0.5 3</t>
-        </is>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>70</v>
       </c>
       <c r="B11">
         <v>-7118.17</v>
@@ -2493,7 +2692,7 @@
         <v>-4369.72</v>
       </c>
       <c r="S11">
-        <v>-4858.56</v>
+        <v>-4858.5600000000004</v>
       </c>
       <c r="T11">
         <v>-3048.85</v>
@@ -2535,10 +2734,10 @@
         <v>-606.79</v>
       </c>
       <c r="AG11">
-        <v>-2105.76</v>
+        <v>-2105.7600000000002</v>
       </c>
       <c r="AH11">
-        <v>-4909.02</v>
+        <v>-4909.0200000000004</v>
       </c>
       <c r="AI11">
         <v>1182.07</v>
@@ -2559,7 +2758,7 @@
         <v>-4573.05</v>
       </c>
       <c r="AO11">
-        <v>2194.8</v>
+        <v>2194.8000000000002</v>
       </c>
       <c r="AP11">
         <v>972.69</v>
@@ -2571,7 +2770,7 @@
         <v>1835.26</v>
       </c>
       <c r="AS11">
-        <v>-163.36</v>
+        <v>-163.36000000000001</v>
       </c>
       <c r="AT11">
         <v>-3901.04</v>
@@ -2595,7 +2794,7 @@
         <v>-3565.07</v>
       </c>
       <c r="BA11">
-        <v>5232.98</v>
+        <v>5232.9799999999996</v>
       </c>
       <c r="BB11">
         <v>3644.25</v>
@@ -2622,11 +2821,9 @@
         <v>3592.04</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Central 0.5 6</t>
-        </is>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
       </c>
       <c r="B12">
         <v>-2504.17</v>
@@ -2656,7 +2853,7 @@
         <v>-2309.58</v>
       </c>
       <c r="K12">
-        <v>-279.66</v>
+        <v>-279.66000000000003</v>
       </c>
       <c r="L12">
         <v>-646.29</v>
@@ -2698,7 +2895,7 @@
         <v>2024.62</v>
       </c>
       <c r="Y12">
-        <v>1291.36</v>
+        <v>1291.3599999999999</v>
       </c>
       <c r="Z12">
         <v>2379.15</v>
@@ -2722,7 +2919,7 @@
         <v>4007.21</v>
       </c>
       <c r="AG12">
-        <v>2508.24</v>
+        <v>2508.2399999999998</v>
       </c>
       <c r="AH12">
         <v>-295.02</v>
@@ -2743,7 +2940,7 @@
         <v>3155.69</v>
       </c>
       <c r="AN12">
-        <v>40.95</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="AO12">
         <v>6808.8</v>
@@ -2758,7 +2955,7 @@
         <v>6449.26</v>
       </c>
       <c r="AS12">
-        <v>4450.64</v>
+        <v>4450.6400000000003</v>
       </c>
       <c r="AT12">
         <v>712.96</v>
@@ -2803,17 +3000,15 @@
         <v>11872.35</v>
       </c>
       <c r="BH12">
-        <v>10039.2</v>
+        <v>10039.200000000001</v>
       </c>
       <c r="BI12">
-        <v>8206.04</v>
+        <v>8206.0400000000009</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Central 0.5 9</t>
-        </is>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
       </c>
       <c r="B13">
         <v>2109.83</v>
@@ -2867,7 +3062,7 @@
         <v>4858.28</v>
       </c>
       <c r="S13">
-        <v>4369.44</v>
+        <v>4369.4399999999996</v>
       </c>
       <c r="T13">
         <v>6179.15</v>
@@ -2906,13 +3101,13 @@
         <v>6673.71</v>
       </c>
       <c r="AF13">
-        <v>8621.21</v>
+        <v>8621.2099999999991</v>
       </c>
       <c r="AG13">
         <v>7122.24</v>
       </c>
       <c r="AH13">
-        <v>4318.98</v>
+        <v>4318.9799999999996</v>
       </c>
       <c r="AI13">
         <v>10410.07</v>
@@ -2921,10 +3116,10 @@
         <v>9310.18</v>
       </c>
       <c r="AK13">
-        <v>8210.28</v>
+        <v>8210.2800000000007</v>
       </c>
       <c r="AL13">
-        <v>9435.21</v>
+        <v>9435.2099999999991</v>
       </c>
       <c r="AM13">
         <v>7769.69</v>
@@ -2987,7 +3182,7 @@
         <v>6334.94</v>
       </c>
       <c r="BG13">
-        <v>16486.35</v>
+        <v>16486.349999999999</v>
       </c>
       <c r="BH13">
         <v>14653.2</v>
@@ -2996,11 +3191,9 @@
         <v>12820.04</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Central 1.0 3</t>
-        </is>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
       </c>
       <c r="B14">
         <v>-4234.83</v>
@@ -3009,16 +3202,16 @@
         <v>-4401.38</v>
       </c>
       <c r="D14">
-        <v>-4712.85</v>
+        <v>-4712.8500000000004</v>
       </c>
       <c r="E14">
         <v>-4036.06</v>
       </c>
       <c r="F14">
-        <v>-4158.27</v>
+        <v>-4158.2700000000004</v>
       </c>
       <c r="G14">
-        <v>-4280.48</v>
+        <v>-4280.4799999999996</v>
       </c>
       <c r="H14">
         <v>-2606.17</v>
@@ -3033,7 +3226,7 @@
         <v>-2010.32</v>
       </c>
       <c r="L14">
-        <v>-2376.95</v>
+        <v>-2376.9499999999998</v>
       </c>
       <c r="M14">
         <v>-2743.58</v>
@@ -3069,7 +3262,7 @@
         <v>1027.22</v>
       </c>
       <c r="X14">
-        <v>293.96</v>
+        <v>293.95999999999998</v>
       </c>
       <c r="Y14">
         <v>-439.31</v>
@@ -3129,7 +3322,7 @@
         <v>2633.93</v>
       </c>
       <c r="AR14">
-        <v>4718.6</v>
+        <v>4718.6000000000004</v>
       </c>
       <c r="AS14">
         <v>2719.98</v>
@@ -3162,7 +3355,7 @@
         <v>6527.59</v>
       </c>
       <c r="BC14">
-        <v>4938.86</v>
+        <v>4938.8599999999997</v>
       </c>
       <c r="BD14">
         <v>7160.66</v>
@@ -3177,17 +3370,15 @@
         <v>10141.69</v>
       </c>
       <c r="BH14">
-        <v>8308.53</v>
+        <v>8308.5300000000007</v>
       </c>
       <c r="BI14">
         <v>6475.38</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Central 1.0 6</t>
-        </is>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
       </c>
       <c r="B15">
         <v>4990.17</v>
@@ -3196,16 +3387,16 @@
         <v>4823.62</v>
       </c>
       <c r="D15">
-        <v>4512.15</v>
+        <v>4512.1499999999996</v>
       </c>
       <c r="E15">
-        <v>5188.94</v>
+        <v>5188.9399999999996</v>
       </c>
       <c r="F15">
-        <v>5066.73</v>
+        <v>5066.7299999999996</v>
       </c>
       <c r="G15">
-        <v>4944.52</v>
+        <v>4944.5200000000004</v>
       </c>
       <c r="H15">
         <v>6618.83</v>
@@ -3235,7 +3426,7 @@
         <v>5519.94</v>
       </c>
       <c r="Q15">
-        <v>8227.46</v>
+        <v>8227.4599999999991</v>
       </c>
       <c r="R15">
         <v>7738.62</v>
@@ -3253,10 +3444,10 @@
         <v>6191.33</v>
       </c>
       <c r="W15">
-        <v>10252.22</v>
+        <v>10252.219999999999</v>
       </c>
       <c r="X15">
-        <v>9518.96</v>
+        <v>9518.9599999999991</v>
       </c>
       <c r="Y15">
         <v>8785.69</v>
@@ -3265,7 +3456,7 @@
         <v>9873.49</v>
       </c>
       <c r="AA15">
-        <v>8707.63</v>
+        <v>8707.6299999999992</v>
       </c>
       <c r="AB15">
         <v>6527.31</v>
@@ -3277,7 +3468,7 @@
         <v>10409.52</v>
       </c>
       <c r="AE15">
-        <v>9554.05</v>
+        <v>9554.0499999999993</v>
       </c>
       <c r="AF15">
         <v>11501.54</v>
@@ -3322,7 +3513,7 @@
         <v>11944.98</v>
       </c>
       <c r="AT15">
-        <v>8207.29</v>
+        <v>8207.2900000000009</v>
       </c>
       <c r="AU15">
         <v>16328.59</v>
@@ -3361,7 +3552,7 @@
         <v>9215.27</v>
       </c>
       <c r="BG15">
-        <v>19366.69</v>
+        <v>19366.689999999999</v>
       </c>
       <c r="BH15">
         <v>17533.53</v>
@@ -3370,11 +3561,9 @@
         <v>15700.38</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Central 1.0 9</t>
-        </is>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
       </c>
       <c r="B16">
         <v>14215.17</v>
@@ -3431,7 +3620,7 @@
         <v>16474.78</v>
       </c>
       <c r="T16">
-        <v>18284.49</v>
+        <v>18284.490000000002</v>
       </c>
       <c r="U16">
         <v>17285.18</v>
@@ -3446,10 +3635,10 @@
         <v>18743.96</v>
       </c>
       <c r="Y16">
-        <v>18010.69</v>
+        <v>18010.689999999999</v>
       </c>
       <c r="Z16">
-        <v>19098.49</v>
+        <v>19098.490000000002</v>
       </c>
       <c r="AA16">
         <v>17932.63</v>
@@ -3458,7 +3647,7 @@
         <v>15752.31</v>
       </c>
       <c r="AC16">
-        <v>20489.99</v>
+        <v>20489.990000000002</v>
       </c>
       <c r="AD16">
         <v>19634.52</v>
@@ -3470,10 +3659,10 @@
         <v>20726.54</v>
       </c>
       <c r="AG16">
-        <v>19227.58</v>
+        <v>19227.580000000002</v>
       </c>
       <c r="AH16">
-        <v>16424.31</v>
+        <v>16424.310000000001</v>
       </c>
       <c r="AI16">
         <v>22515.4</v>
@@ -3557,11 +3746,9 @@
         <v>24925.38</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Central 1.5 3</t>
-        </is>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
       </c>
       <c r="B17">
         <v>-1349.62</v>
@@ -3573,7 +3760,7 @@
         <v>-1827.64</v>
       </c>
       <c r="E17">
-        <v>-1150.84</v>
+        <v>-1150.8399999999999</v>
       </c>
       <c r="F17">
         <v>-1273.05</v>
@@ -3582,7 +3769,7 @@
         <v>-1395.26</v>
       </c>
       <c r="H17">
-        <v>279.04</v>
+        <v>279.04000000000002</v>
       </c>
       <c r="I17">
         <v>-220.61</v>
@@ -3624,7 +3811,7 @@
         <v>1720.39</v>
       </c>
       <c r="V17">
-        <v>-148.45</v>
+        <v>-148.44999999999999</v>
       </c>
       <c r="W17">
         <v>3912.43</v>
@@ -3699,10 +3886,10 @@
         <v>1867.51</v>
       </c>
       <c r="AU17">
-        <v>9988.8</v>
+        <v>9988.7999999999993</v>
       </c>
       <c r="AV17">
-        <v>8522.28</v>
+        <v>8522.2800000000007</v>
       </c>
       <c r="AW17">
         <v>7055.76</v>
@@ -3720,13 +3907,13 @@
         <v>11001.53</v>
       </c>
       <c r="BB17">
-        <v>9412.8</v>
+        <v>9412.7999999999993</v>
       </c>
       <c r="BC17">
         <v>7824.07</v>
       </c>
       <c r="BD17">
-        <v>10045.87</v>
+        <v>10045.870000000001</v>
       </c>
       <c r="BE17">
         <v>7547.59</v>
@@ -3744,11 +3931,9 @@
         <v>9360.59</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Central 1.5 6</t>
-        </is>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
       </c>
       <c r="B18">
         <v>12489.38</v>
@@ -3817,7 +4002,7 @@
         <v>17751.43</v>
       </c>
       <c r="X18">
-        <v>17018.17</v>
+        <v>17018.169999999998</v>
       </c>
       <c r="Y18">
         <v>16284.91</v>
@@ -3838,10 +4023,10 @@
         <v>17908.73</v>
       </c>
       <c r="AE18">
-        <v>17053.26</v>
+        <v>17053.259999999998</v>
       </c>
       <c r="AF18">
-        <v>19000.76</v>
+        <v>19000.759999999998</v>
       </c>
       <c r="AG18">
         <v>17501.79</v>
@@ -3856,13 +4041,13 @@
         <v>19689.73</v>
       </c>
       <c r="AK18">
-        <v>18589.83</v>
+        <v>18589.830000000002</v>
       </c>
       <c r="AL18">
-        <v>19814.76</v>
+        <v>19814.759999999998</v>
       </c>
       <c r="AM18">
-        <v>18149.24</v>
+        <v>18149.240000000002</v>
       </c>
       <c r="AN18">
         <v>15034.5</v>
@@ -3871,7 +4056,7 @@
         <v>21802.35</v>
       </c>
       <c r="AP18">
-        <v>20580.24</v>
+        <v>20580.240000000002</v>
       </c>
       <c r="AQ18">
         <v>19358.14</v>
@@ -3880,7 +4065,7 @@
         <v>21442.81</v>
       </c>
       <c r="AS18">
-        <v>19444.19</v>
+        <v>19444.189999999999</v>
       </c>
       <c r="AT18">
         <v>15706.51</v>
@@ -3889,10 +4074,10 @@
         <v>23827.8</v>
       </c>
       <c r="AV18">
-        <v>22361.28</v>
+        <v>22361.279999999999</v>
       </c>
       <c r="AW18">
-        <v>20894.76</v>
+        <v>20894.759999999998</v>
       </c>
       <c r="AX18">
         <v>22256.82</v>
@@ -3919,7 +4104,7 @@
         <v>21386.59</v>
       </c>
       <c r="BF18">
-        <v>16714.49</v>
+        <v>16714.490000000002</v>
       </c>
       <c r="BG18">
         <v>26865.9</v>
@@ -3931,11 +4116,9 @@
         <v>23199.59</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Central 1.5 9</t>
-        </is>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
       </c>
       <c r="B19">
         <v>26328.38</v>
@@ -3956,7 +4139,7 @@
         <v>26282.74</v>
       </c>
       <c r="H19">
-        <v>27957.04</v>
+        <v>27957.040000000001</v>
       </c>
       <c r="I19">
         <v>27457.39</v>
@@ -4028,7 +4211,7 @@
         <v>30892.26</v>
       </c>
       <c r="AF19">
-        <v>32839.76</v>
+        <v>32839.760000000002</v>
       </c>
       <c r="AG19">
         <v>31340.79</v>
@@ -4037,19 +4220,19 @@
         <v>28537.53</v>
       </c>
       <c r="AI19">
-        <v>34628.62</v>
+        <v>34628.620000000003</v>
       </c>
       <c r="AJ19">
-        <v>33528.73</v>
+        <v>33528.730000000003</v>
       </c>
       <c r="AK19">
         <v>32428.83</v>
       </c>
       <c r="AL19">
-        <v>33653.76</v>
+        <v>33653.760000000002</v>
       </c>
       <c r="AM19">
-        <v>31988.24</v>
+        <v>31988.240000000002</v>
       </c>
       <c r="AN19">
         <v>28873.5</v>
@@ -4073,19 +4256,19 @@
         <v>29545.51</v>
       </c>
       <c r="AU19">
-        <v>37666.8</v>
+        <v>37666.800000000003</v>
       </c>
       <c r="AV19">
         <v>36200.28</v>
       </c>
       <c r="AW19">
-        <v>34733.76</v>
+        <v>34733.760000000002</v>
       </c>
       <c r="AX19">
         <v>36095.82</v>
       </c>
       <c r="AY19">
-        <v>33930.64</v>
+        <v>33930.639999999999</v>
       </c>
       <c r="AZ19">
         <v>29881.48</v>
@@ -4094,16 +4277,16 @@
         <v>38679.53</v>
       </c>
       <c r="BB19">
-        <v>37090.8</v>
+        <v>37090.800000000003</v>
       </c>
       <c r="BC19">
         <v>35502.07</v>
       </c>
       <c r="BD19">
-        <v>37723.87</v>
+        <v>37723.870000000003</v>
       </c>
       <c r="BE19">
-        <v>35225.59</v>
+        <v>35225.589999999997</v>
       </c>
       <c r="BF19">
         <v>30553.49</v>
@@ -4115,14 +4298,12 @@
         <v>38871.75</v>
       </c>
       <c r="BI19">
-        <v>37038.59</v>
+        <v>37038.589999999997</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Black Belt 0.5 3</t>
-        </is>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
       </c>
       <c r="B20">
         <v>-7075.9</v>
@@ -4173,10 +4354,10 @@
         <v>-3690.01</v>
       </c>
       <c r="R20">
-        <v>-4178.85</v>
+        <v>-4178.8500000000004</v>
       </c>
       <c r="S20">
-        <v>-4667.69</v>
+        <v>-4667.6899999999996</v>
       </c>
       <c r="T20">
         <v>-2795.76</v>
@@ -4191,7 +4372,7 @@
         <v>-1569.81</v>
       </c>
       <c r="X20">
-        <v>-2303.07</v>
+        <v>-2303.0700000000002</v>
       </c>
       <c r="Y20">
         <v>-3036.33</v>
@@ -4233,7 +4414,7 @@
         <v>-588.34</v>
       </c>
       <c r="AL20">
-        <v>629.08</v>
+        <v>629.08000000000004</v>
       </c>
       <c r="AM20">
         <v>-1036.44</v>
@@ -4287,10 +4468,10 @@
         <v>2675.72</v>
       </c>
       <c r="BD20">
-        <v>4910.06</v>
+        <v>4910.0600000000004</v>
       </c>
       <c r="BE20">
-        <v>2411.78</v>
+        <v>2411.7800000000002</v>
       </c>
       <c r="BF20">
         <v>-2260.33</v>
@@ -4305,11 +4486,9 @@
         <v>4307.63</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Black Belt 0.5 6</t>
-        </is>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
       </c>
       <c r="B21">
         <v>-2461.9</v>
@@ -4321,7 +4500,7 @@
         <v>-2939.93</v>
       </c>
       <c r="E21">
-        <v>-2257.68</v>
+        <v>-2257.6799999999998</v>
       </c>
       <c r="F21">
         <v>-2379.89</v>
@@ -4336,7 +4515,7 @@
         <v>-1248.32</v>
       </c>
       <c r="J21">
-        <v>-2182.74</v>
+        <v>-2182.7399999999998</v>
       </c>
       <c r="K21">
         <v>-136.5</v>
@@ -4378,7 +4557,7 @@
         <v>3044.19</v>
       </c>
       <c r="X21">
-        <v>2310.93</v>
+        <v>2310.9299999999998</v>
       </c>
       <c r="Y21">
         <v>1577.67</v>
@@ -4402,7 +4581,7 @@
         <v>2393.65</v>
       </c>
       <c r="AF21">
-        <v>4386.86</v>
+        <v>4386.8599999999997</v>
       </c>
       <c r="AG21">
         <v>2887.89</v>
@@ -4441,7 +4620,7 @@
         <v>6955.48</v>
       </c>
       <c r="AS21">
-        <v>4956.86</v>
+        <v>4956.8599999999997</v>
       </c>
       <c r="AT21">
         <v>1219.17</v>
@@ -4468,7 +4647,7 @@
         <v>10467.18</v>
       </c>
       <c r="BB21">
-        <v>8878.45</v>
+        <v>8878.4500000000007</v>
       </c>
       <c r="BC21">
         <v>7289.72</v>
@@ -4489,14 +4668,12 @@
         <v>10754.79</v>
       </c>
       <c r="BI21">
-        <v>8921.63</v>
+        <v>8921.6299999999992</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Black Belt 0.5 9</t>
-        </is>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
       </c>
       <c r="B22">
         <v>2152.1</v>
@@ -4508,7 +4685,7 @@
         <v>1674.07</v>
       </c>
       <c r="E22">
-        <v>2356.32</v>
+        <v>2356.3200000000002</v>
       </c>
       <c r="F22">
         <v>2234.11</v>
@@ -4523,7 +4700,7 @@
         <v>3365.68</v>
       </c>
       <c r="J22">
-        <v>2431.26</v>
+        <v>2431.2600000000002</v>
       </c>
       <c r="K22">
         <v>4477.5</v>
@@ -4547,10 +4724,10 @@
         <v>5537.99</v>
       </c>
       <c r="R22">
-        <v>5049.15</v>
+        <v>5049.1499999999996</v>
       </c>
       <c r="S22">
-        <v>4560.31</v>
+        <v>4560.3100000000004</v>
       </c>
       <c r="T22">
         <v>6432.24</v>
@@ -4601,7 +4778,7 @@
         <v>10839.44</v>
       </c>
       <c r="AJ22">
-        <v>9739.55</v>
+        <v>9739.5499999999993</v>
       </c>
       <c r="AK22">
         <v>8639.66</v>
@@ -4670,7 +4847,7 @@
         <v>6967.67</v>
       </c>
       <c r="BG22">
-        <v>17201.94</v>
+        <v>17201.939999999999</v>
       </c>
       <c r="BH22">
         <v>15368.79</v>
@@ -4679,17 +4856,15 @@
         <v>13535.63</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Black Belt 1.0 3</t>
-        </is>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
       </c>
       <c r="B23">
-        <v>-4192.56</v>
+        <v>-4192.5600000000004</v>
       </c>
       <c r="C23">
-        <v>-4359.11</v>
+        <v>-4359.1099999999997</v>
       </c>
       <c r="D23">
         <v>-4670.59</v>
@@ -4704,7 +4879,7 @@
         <v>-4232.76</v>
       </c>
       <c r="H23">
-        <v>-2479.32</v>
+        <v>-2479.3200000000002</v>
       </c>
       <c r="I23">
         <v>-2978.98</v>
@@ -4764,10 +4939,10 @@
         <v>-222.11</v>
       </c>
       <c r="AB23">
-        <v>-2402.43</v>
+        <v>-2402.4299999999998</v>
       </c>
       <c r="AC23">
-        <v>2373.93</v>
+        <v>2373.9299999999998</v>
       </c>
       <c r="AD23">
         <v>1518.46</v>
@@ -4791,7 +4966,7 @@
         <v>3394.88</v>
       </c>
       <c r="AK23">
-        <v>2294.99</v>
+        <v>2294.9899999999998</v>
       </c>
       <c r="AL23">
         <v>3512.42</v>
@@ -4800,7 +4975,7 @@
         <v>1846.9</v>
       </c>
       <c r="AN23">
-        <v>-1267.84</v>
+        <v>-1267.8399999999999</v>
       </c>
       <c r="AO23">
         <v>5555.22</v>
@@ -4860,23 +5035,21 @@
         <v>10857.28</v>
       </c>
       <c r="BH23">
-        <v>9024.12</v>
+        <v>9024.1200000000008</v>
       </c>
       <c r="BI23">
         <v>7190.97</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Black Belt 1.0 6</t>
-        </is>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
       </c>
       <c r="B24">
-        <v>5032.44</v>
+        <v>5032.4399999999996</v>
       </c>
       <c r="C24">
-        <v>4865.89</v>
+        <v>4865.8900000000003</v>
       </c>
       <c r="D24">
         <v>4554.41</v>
@@ -5053,11 +5226,9 @@
         <v>16415.97</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Black Belt 1.0 9</t>
-        </is>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
       </c>
       <c r="B25">
         <v>14257.44</v>
@@ -5096,7 +5267,7 @@
         <v>15849.58</v>
       </c>
       <c r="N25">
-        <v>16825.83</v>
+        <v>16825.830000000002</v>
       </c>
       <c r="O25">
         <v>16159.62</v>
@@ -5105,19 +5276,19 @@
         <v>14913.72</v>
       </c>
       <c r="Q25">
-        <v>17643.33</v>
+        <v>17643.330000000002</v>
       </c>
       <c r="R25">
-        <v>17154.49</v>
+        <v>17154.490000000002</v>
       </c>
       <c r="S25">
-        <v>16665.65</v>
+        <v>16665.650000000001</v>
       </c>
       <c r="T25">
         <v>18537.57</v>
       </c>
       <c r="U25">
-        <v>17538.26</v>
+        <v>17538.259999999998</v>
       </c>
       <c r="V25">
         <v>15669.42</v>
@@ -5147,7 +5318,7 @@
         <v>19968.46</v>
       </c>
       <c r="AE25">
-        <v>19112.99</v>
+        <v>19112.990000000002</v>
       </c>
       <c r="AF25">
         <v>21106.19</v>
@@ -5162,16 +5333,16 @@
         <v>22944.78</v>
       </c>
       <c r="AJ25">
-        <v>21844.88</v>
+        <v>21844.880000000001</v>
       </c>
       <c r="AK25">
-        <v>20744.99</v>
+        <v>20744.990000000002</v>
       </c>
       <c r="AL25">
         <v>21962.42</v>
       </c>
       <c r="AM25">
-        <v>20296.9</v>
+        <v>20296.900000000001</v>
       </c>
       <c r="AN25">
         <v>17182.16</v>
@@ -5180,7 +5351,7 @@
         <v>24005.22</v>
       </c>
       <c r="AP25">
-        <v>22783.12</v>
+        <v>22783.119999999999</v>
       </c>
       <c r="AQ25">
         <v>21561.02</v>
@@ -5192,7 +5363,7 @@
         <v>21676.19</v>
       </c>
       <c r="AT25">
-        <v>17938.51</v>
+        <v>17938.509999999998</v>
       </c>
       <c r="AU25">
         <v>26126.07</v>
@@ -5228,10 +5399,10 @@
         <v>23745.11</v>
       </c>
       <c r="BF25">
-        <v>19073.01</v>
+        <v>19073.009999999998</v>
       </c>
       <c r="BG25">
-        <v>29307.28</v>
+        <v>29307.279999999999</v>
       </c>
       <c r="BH25">
         <v>27474.12</v>
@@ -5240,14 +5411,12 @@
         <v>25640.97</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Black Belt 1.5 3</t>
-        </is>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
       </c>
       <c r="B26">
-        <v>-1307.35</v>
+        <v>-1307.3499999999999</v>
       </c>
       <c r="C26">
         <v>-1473.9</v>
@@ -5256,10 +5425,10 @@
         <v>-1785.38</v>
       </c>
       <c r="E26">
-        <v>-1103.13</v>
+        <v>-1103.1300000000001</v>
       </c>
       <c r="F26">
-        <v>-1225.34</v>
+        <v>-1225.3399999999999</v>
       </c>
       <c r="G26">
         <v>-1347.55</v>
@@ -5277,19 +5446,19 @@
         <v>1018.05</v>
       </c>
       <c r="L26">
-        <v>651.42</v>
+        <v>651.41999999999996</v>
       </c>
       <c r="M26">
-        <v>284.79</v>
+        <v>284.79000000000002</v>
       </c>
       <c r="N26">
         <v>1261.04</v>
       </c>
       <c r="O26">
-        <v>594.83</v>
+        <v>594.83000000000004</v>
       </c>
       <c r="P26">
-        <v>-651.06</v>
+        <v>-651.05999999999995</v>
       </c>
       <c r="Q26">
         <v>2078.54</v>
@@ -5298,7 +5467,7 @@
         <v>1589.7</v>
       </c>
       <c r="S26">
-        <v>1100.86</v>
+        <v>1100.8599999999999</v>
       </c>
       <c r="T26">
         <v>2972.79</v>
@@ -5358,7 +5527,7 @@
         <v>6397.63</v>
       </c>
       <c r="AM26">
-        <v>4732.11</v>
+        <v>4732.1099999999997</v>
       </c>
       <c r="AN26">
         <v>1617.37</v>
@@ -5379,7 +5548,7 @@
         <v>6111.41</v>
       </c>
       <c r="AT26">
-        <v>2373.72</v>
+        <v>2373.7199999999998</v>
       </c>
       <c r="AU26">
         <v>10561.29</v>
@@ -5391,7 +5560,7 @@
         <v>7628.24</v>
       </c>
       <c r="AX26">
-        <v>8966.21</v>
+        <v>8966.2099999999991</v>
       </c>
       <c r="AY26">
         <v>6801.03</v>
@@ -5427,11 +5596,9 @@
         <v>10076.18</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Black Belt 1.5 6</t>
-        </is>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
       </c>
       <c r="B27">
         <v>12531.65</v>
@@ -5497,7 +5664,7 @@
         <v>13943.63</v>
       </c>
       <c r="W27">
-        <v>18037.74</v>
+        <v>18037.740000000002</v>
       </c>
       <c r="X27">
         <v>17304.48</v>
@@ -5509,7 +5676,7 @@
         <v>17667.96</v>
       </c>
       <c r="AA27">
-        <v>16502.1</v>
+        <v>16502.099999999999</v>
       </c>
       <c r="AB27">
         <v>14321.78</v>
@@ -5518,7 +5685,7 @@
         <v>19098.14</v>
       </c>
       <c r="AD27">
-        <v>18242.67</v>
+        <v>18242.669999999998</v>
       </c>
       <c r="AE27">
         <v>17387.2</v>
@@ -5527,7 +5694,7 @@
         <v>19380.41</v>
       </c>
       <c r="AG27">
-        <v>17881.44</v>
+        <v>17881.439999999999</v>
       </c>
       <c r="AH27">
         <v>15078.18</v>
@@ -5536,7 +5703,7 @@
         <v>21218.99</v>
       </c>
       <c r="AJ27">
-        <v>20119.1</v>
+        <v>20119.099999999999</v>
       </c>
       <c r="AK27">
         <v>19019.21</v>
@@ -5551,7 +5718,7 @@
         <v>15456.37</v>
       </c>
       <c r="AO27">
-        <v>22279.44</v>
+        <v>22279.439999999999</v>
       </c>
       <c r="AP27">
         <v>21057.33</v>
@@ -5572,7 +5739,7 @@
         <v>24400.29</v>
       </c>
       <c r="AV27">
-        <v>22933.76</v>
+        <v>22933.759999999998</v>
       </c>
       <c r="AW27">
         <v>21467.24</v>
@@ -5614,11 +5781,9 @@
         <v>23915.18</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Black Belt 1.5 9</t>
-        </is>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
       </c>
       <c r="B28">
         <v>26370.65</v>
@@ -5657,7 +5822,7 @@
         <v>27962.79</v>
       </c>
       <c r="N28">
-        <v>28939.04</v>
+        <v>28939.040000000001</v>
       </c>
       <c r="O28">
         <v>28272.83</v>
@@ -5693,7 +5858,7 @@
         <v>30410.22</v>
       </c>
       <c r="Z28">
-        <v>31506.96</v>
+        <v>31506.959999999999</v>
       </c>
       <c r="AA28">
         <v>30341.1</v>
@@ -5711,7 +5876,7 @@
         <v>31226.2</v>
       </c>
       <c r="AF28">
-        <v>33219.41</v>
+        <v>33219.410000000003</v>
       </c>
       <c r="AG28">
         <v>31720.44</v>
@@ -5729,7 +5894,7 @@
         <v>32858.21</v>
       </c>
       <c r="AL28">
-        <v>34075.63</v>
+        <v>34075.629999999997</v>
       </c>
       <c r="AM28">
         <v>32410.11</v>
@@ -5744,13 +5909,13 @@
         <v>34896.33</v>
       </c>
       <c r="AQ28">
-        <v>33674.23</v>
+        <v>33674.230000000003</v>
       </c>
       <c r="AR28">
         <v>35788.03</v>
       </c>
       <c r="AS28">
-        <v>33789.41</v>
+        <v>33789.410000000003</v>
       </c>
       <c r="AT28">
         <v>30051.72</v>
@@ -5762,7 +5927,7 @@
         <v>36772.76</v>
       </c>
       <c r="AW28">
-        <v>35306.24</v>
+        <v>35306.239999999998</v>
       </c>
       <c r="AX28">
         <v>36644.21</v>
@@ -5774,13 +5939,13 @@
         <v>30429.87</v>
       </c>
       <c r="BA28">
-        <v>39299.73</v>
+        <v>39299.730000000003</v>
       </c>
       <c r="BB28">
         <v>37711</v>
       </c>
       <c r="BC28">
-        <v>36122.27</v>
+        <v>36122.269999999997</v>
       </c>
       <c r="BD28">
         <v>38356.61</v>
@@ -5795,17 +5960,15 @@
         <v>41420.49</v>
       </c>
       <c r="BH28">
-        <v>39587.34</v>
+        <v>39587.339999999997</v>
       </c>
       <c r="BI28">
         <v>37754.18</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Southern 0.5 3</t>
-        </is>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>88</v>
       </c>
       <c r="B29">
         <v>-7060.57</v>
@@ -5835,7 +5998,7 @@
         <v>-6750.84</v>
       </c>
       <c r="K29">
-        <v>-4662.15</v>
+        <v>-4662.1499999999996</v>
       </c>
       <c r="L29">
         <v>-5028.78</v>
@@ -5844,10 +6007,10 @@
         <v>-5395.41</v>
       </c>
       <c r="N29">
-        <v>-4446.14</v>
+        <v>-4446.1400000000003</v>
       </c>
       <c r="O29">
-        <v>-5112.35</v>
+        <v>-5112.3500000000004</v>
       </c>
       <c r="P29">
         <v>-6358.24</v>
@@ -5886,7 +6049,7 @@
         <v>-2997.99</v>
       </c>
       <c r="AB29">
-        <v>-5178.31</v>
+        <v>-5178.3100000000004</v>
       </c>
       <c r="AC29">
         <v>-303.25</v>
@@ -5913,7 +6076,7 @@
         <v>776.61</v>
       </c>
       <c r="AK29">
-        <v>-323.28</v>
+        <v>-323.27999999999997</v>
       </c>
       <c r="AL29">
         <v>782.53</v>
@@ -5943,7 +6106,7 @@
         <v>-3210.66</v>
       </c>
       <c r="AU29">
-        <v>5146.15</v>
+        <v>5146.1499999999996</v>
       </c>
       <c r="AV29">
         <v>3679.63</v>
@@ -5979,23 +6142,21 @@
         <v>-2030.13</v>
       </c>
       <c r="BG29">
-        <v>8415.71</v>
+        <v>8415.7099999999991</v>
       </c>
       <c r="BH29">
         <v>6582.55</v>
       </c>
       <c r="BI29">
-        <v>4749.4</v>
+        <v>4749.3999999999996</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Southern 0.5 6</t>
-        </is>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
       </c>
       <c r="B30">
-        <v>-2446.57</v>
+        <v>-2446.5700000000002</v>
       </c>
       <c r="C30">
         <v>-2613.12</v>
@@ -6004,10 +6165,10 @@
         <v>-2924.59</v>
       </c>
       <c r="E30">
-        <v>-2228.22</v>
+        <v>-2228.2199999999998</v>
       </c>
       <c r="F30">
-        <v>-2350.43</v>
+        <v>-2350.4299999999998</v>
       </c>
       <c r="G30">
         <v>-2472.64</v>
@@ -6073,7 +6234,7 @@
         <v>1616.01</v>
       </c>
       <c r="AB30">
-        <v>-564.31</v>
+        <v>-564.30999999999995</v>
       </c>
       <c r="AC30">
         <v>4310.75</v>
@@ -6085,7 +6246,7 @@
         <v>2599.81</v>
       </c>
       <c r="AF30">
-        <v>4524.98</v>
+        <v>4524.9799999999996</v>
       </c>
       <c r="AG30">
         <v>3026.01</v>
@@ -6124,7 +6285,7 @@
         <v>7139.64</v>
       </c>
       <c r="AS30">
-        <v>5141.02</v>
+        <v>5141.0200000000004</v>
       </c>
       <c r="AT30">
         <v>1403.34</v>
@@ -6133,7 +6294,7 @@
         <v>9760.15</v>
       </c>
       <c r="AV30">
-        <v>8293.63</v>
+        <v>8293.6299999999992</v>
       </c>
       <c r="AW30">
         <v>6827.11</v>
@@ -6175,14 +6336,12 @@
         <v>9363.4</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Southern 0.5 9</t>
-        </is>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
       </c>
       <c r="B31">
-        <v>2167.43</v>
+        <v>2167.4299999999998</v>
       </c>
       <c r="C31">
         <v>2000.88</v>
@@ -6191,10 +6350,10 @@
         <v>1689.41</v>
       </c>
       <c r="E31">
-        <v>2385.78</v>
+        <v>2385.7800000000002</v>
       </c>
       <c r="F31">
-        <v>2263.57</v>
+        <v>2263.5700000000002</v>
       </c>
       <c r="G31">
         <v>2141.36</v>
@@ -6209,7 +6368,7 @@
         <v>2477.16</v>
       </c>
       <c r="K31">
-        <v>4565.85</v>
+        <v>4565.8500000000004</v>
       </c>
       <c r="L31">
         <v>4199.22</v>
@@ -6218,10 +6377,10 @@
         <v>3832.59</v>
       </c>
       <c r="N31">
-        <v>4781.86</v>
+        <v>4781.8599999999997</v>
       </c>
       <c r="O31">
-        <v>4115.65</v>
+        <v>4115.6499999999996</v>
       </c>
       <c r="P31">
         <v>2869.76</v>
@@ -6287,10 +6446,10 @@
         <v>10004.61</v>
       </c>
       <c r="AK31">
-        <v>8904.72</v>
+        <v>8904.7199999999993</v>
       </c>
       <c r="AL31">
-        <v>10010.53</v>
+        <v>10010.530000000001</v>
       </c>
       <c r="AM31">
         <v>8345.02</v>
@@ -6362,14 +6521,12 @@
         <v>13977.4</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Southern 1.0 3</t>
-        </is>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>91</v>
       </c>
       <c r="B32">
-        <v>-4177.23</v>
+        <v>-4177.2299999999996</v>
       </c>
       <c r="C32">
         <v>-4343.78</v>
@@ -6384,7 +6541,7 @@
         <v>-4081.1</v>
       </c>
       <c r="G32">
-        <v>-4203.31</v>
+        <v>-4203.3100000000004</v>
       </c>
       <c r="H32">
         <v>-2433.42</v>
@@ -6402,13 +6559,13 @@
         <v>-2145.44</v>
       </c>
       <c r="M32">
-        <v>-2512.07</v>
+        <v>-2512.0700000000002</v>
       </c>
       <c r="N32">
         <v>-1562.8</v>
       </c>
       <c r="O32">
-        <v>-2229.01</v>
+        <v>-2229.0100000000002</v>
       </c>
       <c r="P32">
         <v>-3474.9</v>
@@ -6447,7 +6604,7 @@
         <v>-114.65</v>
       </c>
       <c r="AB32">
-        <v>-2294.97</v>
+        <v>-2294.9699999999998</v>
       </c>
       <c r="AC32">
         <v>2580.09</v>
@@ -6462,7 +6619,7 @@
         <v>2794.32</v>
       </c>
       <c r="AG32">
-        <v>1295.35</v>
+        <v>1295.3499999999999</v>
       </c>
       <c r="AH32">
         <v>-1507.91</v>
@@ -6474,7 +6631,7 @@
         <v>3659.95</v>
       </c>
       <c r="AK32">
-        <v>2560.05</v>
+        <v>2560.0500000000002</v>
       </c>
       <c r="AL32">
         <v>3665.87</v>
@@ -6483,7 +6640,7 @@
         <v>2000.35</v>
       </c>
       <c r="AN32">
-        <v>-1114.39</v>
+        <v>-1114.3900000000001</v>
       </c>
       <c r="AO32">
         <v>5849.78</v>
@@ -6510,13 +6667,13 @@
         <v>6562.96</v>
       </c>
       <c r="AW32">
-        <v>5096.44</v>
+        <v>5096.4399999999996</v>
       </c>
       <c r="AX32">
         <v>6280.53</v>
       </c>
       <c r="AY32">
-        <v>4115.36</v>
+        <v>4115.3599999999997</v>
       </c>
       <c r="AZ32">
         <v>66.2</v>
@@ -6549,14 +6706,12 @@
         <v>7632.74</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Southern 1.0 6</t>
-        </is>
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>92</v>
       </c>
       <c r="B33">
-        <v>5047.77</v>
+        <v>5047.7700000000004</v>
       </c>
       <c r="C33">
         <v>4881.22</v>
@@ -6568,10 +6723,10 @@
         <v>5266.11</v>
       </c>
       <c r="F33">
-        <v>5143.9</v>
+        <v>5143.8999999999996</v>
       </c>
       <c r="G33">
-        <v>5021.69</v>
+        <v>5021.6899999999996</v>
       </c>
       <c r="H33">
         <v>6791.58</v>
@@ -6622,13 +6777,13 @@
         <v>10715.23</v>
       </c>
       <c r="X33">
-        <v>9981.97</v>
+        <v>9981.9699999999993</v>
       </c>
       <c r="Y33">
-        <v>9248.71</v>
+        <v>9248.7099999999991</v>
       </c>
       <c r="Z33">
-        <v>10276.21</v>
+        <v>10276.209999999999</v>
       </c>
       <c r="AA33">
         <v>9110.35</v>
@@ -6691,7 +6846,7 @@
         <v>8897.67</v>
       </c>
       <c r="AU33">
-        <v>17254.49</v>
+        <v>17254.490000000002</v>
       </c>
       <c r="AV33">
         <v>15787.96</v>
@@ -6706,25 +6861,25 @@
         <v>13340.36</v>
       </c>
       <c r="AZ33">
-        <v>9291.2</v>
+        <v>9291.2000000000007</v>
       </c>
       <c r="BA33">
         <v>18344.39</v>
       </c>
       <c r="BB33">
-        <v>16755.65</v>
+        <v>16755.650000000001</v>
       </c>
       <c r="BC33">
         <v>15166.92</v>
       </c>
       <c r="BD33">
-        <v>17248.6</v>
+        <v>17248.599999999999</v>
       </c>
       <c r="BE33">
         <v>14750.32</v>
       </c>
       <c r="BF33">
-        <v>10078.21</v>
+        <v>10078.209999999999</v>
       </c>
       <c r="BG33">
         <v>20524.04</v>
@@ -6733,14 +6888,12 @@
         <v>18690.89</v>
       </c>
       <c r="BI33">
-        <v>16857.74</v>
+        <v>16857.740000000002</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Southern 1.0 9</t>
-        </is>
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>93</v>
       </c>
       <c r="B34">
         <v>14272.77</v>
@@ -6770,7 +6923,7 @@
         <v>14582.5</v>
       </c>
       <c r="K34">
-        <v>16671.19</v>
+        <v>16671.189999999999</v>
       </c>
       <c r="L34">
         <v>16304.56</v>
@@ -6797,7 +6950,7 @@
         <v>16783.45</v>
       </c>
       <c r="T34">
-        <v>18629.65</v>
+        <v>18629.650000000001</v>
       </c>
       <c r="U34">
         <v>17630.34</v>
@@ -6818,7 +6971,7 @@
         <v>19501.21</v>
       </c>
       <c r="AA34">
-        <v>18335.35</v>
+        <v>18335.349999999999</v>
       </c>
       <c r="AB34">
         <v>16155.03</v>
@@ -6836,7 +6989,7 @@
         <v>21244.32</v>
       </c>
       <c r="AG34">
-        <v>19745.35</v>
+        <v>19745.349999999999</v>
       </c>
       <c r="AH34">
         <v>16942.09</v>
@@ -6854,7 +7007,7 @@
         <v>22115.87</v>
       </c>
       <c r="AM34">
-        <v>20450.35</v>
+        <v>20450.349999999999</v>
       </c>
       <c r="AN34">
         <v>17335.61</v>
@@ -6875,13 +7028,13 @@
         <v>21860.36</v>
       </c>
       <c r="AT34">
-        <v>18122.67</v>
+        <v>18122.669999999998</v>
       </c>
       <c r="AU34">
         <v>26479.49</v>
       </c>
       <c r="AV34">
-        <v>25012.96</v>
+        <v>25012.959999999999</v>
       </c>
       <c r="AW34">
         <v>23546.44</v>
@@ -6890,7 +7043,7 @@
         <v>24730.53</v>
       </c>
       <c r="AY34">
-        <v>22565.36</v>
+        <v>22565.360000000001</v>
       </c>
       <c r="AZ34">
         <v>18516.2</v>
@@ -6902,10 +7055,10 @@
         <v>25980.65</v>
       </c>
       <c r="BC34">
-        <v>24391.92</v>
+        <v>24391.919999999998</v>
       </c>
       <c r="BD34">
-        <v>26473.6</v>
+        <v>26473.599999999999</v>
       </c>
       <c r="BE34">
         <v>23975.32</v>
@@ -6914,7 +7067,7 @@
         <v>19303.21</v>
       </c>
       <c r="BG34">
-        <v>29749.04</v>
+        <v>29749.040000000001</v>
       </c>
       <c r="BH34">
         <v>27915.89</v>
@@ -6923,11 +7076,9 @@
         <v>26082.74</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Southern 1.5 3</t>
-        </is>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>94</v>
       </c>
       <c r="B35">
         <v>-1292.02</v>
@@ -6942,7 +7093,7 @@
         <v>-1073.67</v>
       </c>
       <c r="F35">
-        <v>-1195.88</v>
+        <v>-1195.8800000000001</v>
       </c>
       <c r="G35">
         <v>-1318.09</v>
@@ -6957,7 +7108,7 @@
         <v>-982.29</v>
       </c>
       <c r="K35">
-        <v>1106.4</v>
+        <v>1106.4000000000001</v>
       </c>
       <c r="L35">
         <v>739.77</v>
@@ -6972,7 +7123,7 @@
         <v>656.2</v>
       </c>
       <c r="P35">
-        <v>-589.69</v>
+        <v>-589.69000000000005</v>
       </c>
       <c r="Q35">
         <v>2196.35</v>
@@ -7023,7 +7174,7 @@
         <v>5679.53</v>
       </c>
       <c r="AG35">
-        <v>4180.56</v>
+        <v>4180.5600000000004</v>
       </c>
       <c r="AH35">
         <v>1377.3</v>
@@ -7086,16 +7237,16 @@
         <v>12004.6</v>
       </c>
       <c r="BB35">
-        <v>10415.87</v>
+        <v>10415.870000000001</v>
       </c>
       <c r="BC35">
-        <v>8827.13</v>
+        <v>8827.1299999999992</v>
       </c>
       <c r="BD35">
         <v>10908.81</v>
       </c>
       <c r="BE35">
-        <v>8410.53</v>
+        <v>8410.5300000000007</v>
       </c>
       <c r="BF35">
         <v>3738.42</v>
@@ -7110,11 +7261,9 @@
         <v>10517.95</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Southern 1.5 6</t>
-        </is>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>95</v>
       </c>
       <c r="B36">
         <v>12546.98</v>
@@ -7183,16 +7332,16 @@
         <v>18214.45</v>
       </c>
       <c r="X36">
-        <v>17481.19</v>
+        <v>17481.189999999999</v>
       </c>
       <c r="Y36">
-        <v>16747.92</v>
+        <v>16747.919999999998</v>
       </c>
       <c r="Z36">
-        <v>17775.42</v>
+        <v>17775.419999999998</v>
       </c>
       <c r="AA36">
-        <v>16609.56</v>
+        <v>16609.560000000001</v>
       </c>
       <c r="AB36">
         <v>14429.24</v>
@@ -7201,7 +7350,7 @@
         <v>19304.3</v>
       </c>
       <c r="AD36">
-        <v>18448.83</v>
+        <v>18448.830000000002</v>
       </c>
       <c r="AE36">
         <v>17593.36</v>
@@ -7210,7 +7359,7 @@
         <v>19518.53</v>
       </c>
       <c r="AG36">
-        <v>18019.56</v>
+        <v>18019.560000000001</v>
       </c>
       <c r="AH36">
         <v>15216.3</v>
@@ -7225,7 +7374,7 @@
         <v>19284.27</v>
       </c>
       <c r="AL36">
-        <v>20390.08</v>
+        <v>20390.080000000002</v>
       </c>
       <c r="AM36">
         <v>18724.57</v>
@@ -7270,7 +7419,7 @@
         <v>16790.41</v>
       </c>
       <c r="BA36">
-        <v>25843.6</v>
+        <v>25843.599999999999</v>
       </c>
       <c r="BB36">
         <v>24254.87</v>
@@ -7285,7 +7434,7 @@
         <v>22249.53</v>
       </c>
       <c r="BF36">
-        <v>17577.42</v>
+        <v>17577.419999999998</v>
       </c>
       <c r="BG36">
         <v>28023.26</v>
@@ -7297,11 +7446,9 @@
         <v>24356.95</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Southern 1.5 9</t>
-        </is>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>96</v>
       </c>
       <c r="B37">
         <v>26385.98</v>
@@ -7331,7 +7478,7 @@
         <v>26695.71</v>
       </c>
       <c r="K37">
-        <v>28784.4</v>
+        <v>28784.400000000001</v>
       </c>
       <c r="L37">
         <v>28417.77</v>
@@ -7379,13 +7526,13 @@
         <v>31614.42</v>
       </c>
       <c r="AA37">
-        <v>30448.56</v>
+        <v>30448.560000000001</v>
       </c>
       <c r="AB37">
-        <v>28268.24</v>
+        <v>28268.240000000002</v>
       </c>
       <c r="AC37">
-        <v>33143.3</v>
+        <v>33143.300000000003</v>
       </c>
       <c r="AD37">
         <v>32287.83</v>
@@ -7397,19 +7544,19 @@
         <v>33357.53</v>
       </c>
       <c r="AG37">
-        <v>31858.56</v>
+        <v>31858.560000000001</v>
       </c>
       <c r="AH37">
         <v>29055.3</v>
       </c>
       <c r="AI37">
-        <v>35323.05</v>
+        <v>35323.050000000003</v>
       </c>
       <c r="AJ37">
-        <v>34223.16</v>
+        <v>34223.160000000003</v>
       </c>
       <c r="AK37">
-        <v>33123.27</v>
+        <v>33123.269999999997</v>
       </c>
       <c r="AL37">
         <v>34229.08</v>
@@ -7439,13 +7586,13 @@
         <v>30235.89</v>
       </c>
       <c r="AU37">
-        <v>38592.7</v>
+        <v>38592.699999999997</v>
       </c>
       <c r="AV37">
         <v>37126.18</v>
       </c>
       <c r="AW37">
-        <v>35659.66</v>
+        <v>35659.660000000003</v>
       </c>
       <c r="AX37">
         <v>36843.75</v>
@@ -7460,10 +7607,10 @@
         <v>39682.6</v>
       </c>
       <c r="BB37">
-        <v>38093.87</v>
+        <v>38093.870000000003</v>
       </c>
       <c r="BC37">
-        <v>36505.13</v>
+        <v>36505.129999999997</v>
       </c>
       <c r="BD37">
         <v>38586.81</v>
@@ -7481,11 +7628,23 @@
         <v>40029.1</v>
       </c>
       <c r="BI37">
-        <v>38195.95</v>
+        <v>38195.949999999997</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1" gridLinesSet="1"/>
+  <conditionalFormatting sqref="B2:BI37">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
